--- a/KatalonData/VLinkCCTestData.xlsx
+++ b/KatalonData/VLinkCCTestData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6509" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6513" uniqueCount="352">
   <si>
     <t>Notes</t>
   </si>
@@ -1091,6 +1091,9 @@
   </si>
   <si>
     <t>Mon Apr 18 13:17:04 EDT 2022</t>
+  </si>
+  <si>
+    <t>Sun Jun 05 22:38:23 EDT 2022</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1695,7 @@
         <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>351</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>267</v>

--- a/KatalonData/VLinkCCTestData.xlsx
+++ b/KatalonData/VLinkCCTestData.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KatalonData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9CE123BF-B458-461F-BD70-52FD68F7AF06}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD47E7E1-675D-456D-9024-A1B1EEDEC9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}" yWindow="-120"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="CCSaleData" r:id="rId1" sheetId="1"/>
-    <sheet name="Trial" r:id="rId2" sheetId="4"/>
-    <sheet name="AuthAndCaptureData" r:id="rId3" sheetId="3"/>
+    <sheet name="CCSaleData" sheetId="1" r:id="rId1"/>
+    <sheet name="Trial" sheetId="4" r:id="rId2"/>
+    <sheet name="AuthAndCaptureData" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">CCSaleData!$G$1:$G$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CCSaleData!$G$1:$G$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6513" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7136" uniqueCount="285">
   <si>
     <t>Notes</t>
   </si>
@@ -493,111 +493,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Sun Oct 31 13:21:34 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:22:35 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:23:37 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:24:37 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:25:38 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:26:39 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:27:40 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:28:40 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:29:42 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:30:43 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:31:43 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:32:45 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:33:45 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:34:45 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:35:47 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:36:47 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:37:48 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:38:48 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:39:49 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:40:50 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:41:51 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:42:51 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:43:52 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:44:55 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:45:55 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:46:56 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:47:58 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:48:59 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:50:02 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:51:04 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:52:06 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:53:06 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:54:09 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:55:09 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:56:10 EDT 2021</t>
-  </si>
-  <si>
     <t>Sun Oct 31 13:58:17 EDT 2021</t>
   </si>
   <si>
@@ -631,42 +526,6 @@
     <t>Sun Oct 31 14:08:40 EDT 2021</t>
   </si>
   <si>
-    <t>Sun Oct 31 14:09:43 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:10:43 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:11:45 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:12:46 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:13:48 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:14:48 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:15:50 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:16:52 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:17:54 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:18:55 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:19:58 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:20:59 EDT 2021</t>
-  </si>
-  <si>
     <t>Sun Oct 31 14:23:02 EDT 2021</t>
   </si>
   <si>
@@ -700,42 +559,6 @@
     <t>Sun Oct 31 14:33:22 EDT 2021</t>
   </si>
   <si>
-    <t>Sun Oct 31 14:34:23 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:35:24 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:36:25 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:37:26 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:38:27 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:39:28 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:40:30 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:41:31 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:42:33 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:43:34 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:44:36 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:45:37 EDT 2021</t>
-  </si>
-  <si>
     <t>Sun Oct 31 14:47:41 EDT 2021</t>
   </si>
   <si>
@@ -769,15 +592,6 @@
     <t>Sun Oct 31 14:58:00 EDT 2021</t>
   </si>
   <si>
-    <t>Sun Oct 31 14:59:02 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 15:00:03 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 15:01:04 EDT 2021</t>
-  </si>
-  <si>
     <t>Sun Oct 31 15:02:05 EDT 2021</t>
   </si>
   <si>
@@ -787,33 +601,6 @@
     <t>Sun Oct 31 15:04:10 EDT 2021</t>
   </si>
   <si>
-    <t>Sun Oct 31 15:05:12 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 15:07:12 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 15:08:13 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 15:09:14 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 15:11:14 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 15:12:15 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 15:13:17 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 15:15:19 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 15:16:21 EDT 2021</t>
-  </si>
-  <si>
     <t>Execute</t>
   </si>
   <si>
@@ -829,18 +616,6 @@
     <t>Mon Apr 04 14:12:48 EDT 2022</t>
   </si>
   <si>
-    <t>Mon Apr 04 14:13:35 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 04 14:14:20 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 04 14:15:05 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 04 14:18:08 EDT 2022</t>
-  </si>
-  <si>
     <t>FDMS</t>
   </si>
   <si>
@@ -865,12 +640,6 @@
     <t>Unencypted track1 And 2 data FDMS</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:20:05 EDT 2022</t>
-  </si>
-  <si>
     <t>Mon Apr 18 12:20:55 EDT 2022</t>
   </si>
   <si>
@@ -1094,13 +863,42 @@
   </si>
   <si>
     <t>Sun Jun 05 22:38:23 EDT 2022</t>
+  </si>
+  <si>
+    <t>TSYS CPS</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>4012000098765439</t>
+  </si>
+  <si>
+    <t>5146312200000035</t>
+  </si>
+  <si>
+    <t>371449635392376</t>
+  </si>
+  <si>
+    <t>6011000993026909</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>usr581</t>
+  </si>
+  <si>
+    <t>pwd581</t>
+  </si>
+  <si>
+    <t>Vantiv CPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1149,20 +947,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1179,10 +978,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1217,7 +1016,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1269,7 +1068,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1380,21 +1179,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1411,7 +1210,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1463,82 +1262,82 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}">
-  <dimension ref="A1:AY115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}">
+  <dimension ref="A1:AX139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A59" ySplit="1"/>
-      <selection activeCell="A115" pane="bottomLeft" sqref="A115"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="36.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="32.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="22.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="9.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="5.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="24.0" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="115.42578125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="75.5703125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="40.5703125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="23.85546875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="13.5703125" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="37" max="45" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
-    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="11.5703125" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
-    <col min="61" max="62" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="16.42578125" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="66" max="16384" style="1" width="26.7109375" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" collapsed="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="115.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="75.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="40.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="23.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="45" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="48" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="12.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="15" style="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="14.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="11.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="15.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="15.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="18.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="14.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="62" width="15.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="16.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="16384" width="26.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -1549,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1691,17 +1490,17 @@
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B2" t="s">
-        <v>351</v>
+      <c r="B2" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>43</v>
@@ -1811,17 +1610,17 @@
       <c r="AX2" s="2"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B3" t="s">
-        <v>277</v>
+      <c r="B3" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>43</v>
@@ -1878,17 +1677,17 @@
       <c r="AX3" s="2"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B4" t="s">
-        <v>278</v>
+      <c r="B4" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>43</v>
@@ -1945,17 +1744,17 @@
       <c r="AX4" s="2"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B5" t="s">
-        <v>279</v>
+      <c r="B5" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>43</v>
@@ -2065,17 +1864,17 @@
       <c r="AX5" s="2"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B6" t="s">
-        <v>280</v>
+      <c r="B6" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>43</v>
@@ -2132,17 +1931,17 @@
       <c r="AX6" s="2"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B7" t="s">
-        <v>281</v>
+      <c r="B7" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>43</v>
@@ -2199,17 +1998,17 @@
       <c r="AX7" s="2"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B8" t="s">
-        <v>282</v>
+      <c r="B8" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>43</v>
@@ -2319,17 +2118,17 @@
       <c r="AX8" s="2"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B9" t="s">
-        <v>283</v>
+      <c r="B9" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
@@ -2386,17 +2185,17 @@
       <c r="AX9" s="2"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B10" t="s">
-        <v>284</v>
+      <c r="B10" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>43</v>
@@ -2453,17 +2252,17 @@
       <c r="AX10" s="2"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B11" t="s">
-        <v>285</v>
+      <c r="B11" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>43</v>
@@ -2573,17 +2372,17 @@
       <c r="AX11" s="2"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B12" t="s">
-        <v>286</v>
+      <c r="B12" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>43</v>
@@ -2640,17 +2439,17 @@
       <c r="AX12" s="2"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B13" t="s">
-        <v>287</v>
+      <c r="B13" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>43</v>
@@ -2707,17 +2506,17 @@
       <c r="AX13" s="2"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B14" t="s">
-        <v>288</v>
+      <c r="B14" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>43</v>
@@ -2827,17 +2626,17 @@
       <c r="AX14" s="2"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B15" t="s">
-        <v>289</v>
+      <c r="B15" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>43</v>
@@ -2894,17 +2693,17 @@
       <c r="AX15" s="2"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B16" t="s">
-        <v>290</v>
+      <c r="B16" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>43</v>
@@ -2961,17 +2760,17 @@
       <c r="AX16" s="2"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B17" t="s">
-        <v>291</v>
+      <c r="B17" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>43</v>
@@ -3081,17 +2880,17 @@
       <c r="AX17" s="2"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B18" t="s">
-        <v>292</v>
+      <c r="B18" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>43</v>
@@ -3148,17 +2947,17 @@
       <c r="AX18" s="2"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B19" t="s">
-        <v>293</v>
+      <c r="B19" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>43</v>
@@ -3215,17 +3014,17 @@
       <c r="AX19" s="2"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B20" t="s">
-        <v>294</v>
+      <c r="B20" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>43</v>
@@ -3335,17 +3134,17 @@
       <c r="AX20" s="2"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B21" t="s">
-        <v>295</v>
+      <c r="B21" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>43</v>
@@ -3402,17 +3201,17 @@
       <c r="AX21" s="2"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B22" t="s">
-        <v>296</v>
+      <c r="B22" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>43</v>
@@ -3469,17 +3268,17 @@
       <c r="AX22" s="2"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B23" t="s">
-        <v>297</v>
+      <c r="B23" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>43</v>
@@ -3589,17 +3388,17 @@
       <c r="AX23" s="2"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B24" t="s">
-        <v>298</v>
+      <c r="B24" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>43</v>
@@ -3656,17 +3455,17 @@
       <c r="AX24" s="2"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B25" t="s">
-        <v>299</v>
+      <c r="B25" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>43</v>
@@ -3723,17 +3522,17 @@
       <c r="AX25" s="2"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B26" t="s">
-        <v>300</v>
+      <c r="B26" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>43</v>
@@ -3843,17 +3642,17 @@
       <c r="AX26" s="2"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B27" t="s">
-        <v>301</v>
+      <c r="B27" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>43</v>
@@ -3910,17 +3709,17 @@
       <c r="AX27" s="2"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B28" t="s">
-        <v>302</v>
+      <c r="B28" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>43</v>
@@ -3977,17 +3776,17 @@
       <c r="AX28" s="2"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B29" t="s">
-        <v>303</v>
+      <c r="B29" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>43</v>
@@ -4097,17 +3896,17 @@
       <c r="AX29" s="2"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B30" t="s">
-        <v>304</v>
+      <c r="B30" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>43</v>
@@ -4164,17 +3963,17 @@
       <c r="AX30" s="2"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B31" t="s">
-        <v>305</v>
+      <c r="B31" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>43</v>
@@ -4231,17 +4030,17 @@
       <c r="AX31" s="2"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B32" t="s">
-        <v>306</v>
+      <c r="B32" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>43</v>
@@ -4351,17 +4150,17 @@
       <c r="AX32" s="2"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B33" t="s">
-        <v>307</v>
+      <c r="B33" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>43</v>
@@ -4418,17 +4217,17 @@
       <c r="AX33" s="2"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B34" t="s">
-        <v>308</v>
+      <c r="B34" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>43</v>
@@ -4485,17 +4284,17 @@
       <c r="AX34" s="2"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B35" t="s">
-        <v>309</v>
+      <c r="B35" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>43</v>
@@ -4605,17 +4404,17 @@
       <c r="AX35" s="2"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B36" t="s">
-        <v>310</v>
+      <c r="B36" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>43</v>
@@ -4672,17 +4471,17 @@
       <c r="AX36" s="2"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B37" t="s">
-        <v>311</v>
+      <c r="B37" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>43</v>
@@ -4739,11 +4538,14 @@
       <c r="AX37" s="2"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B38" t="s">
-        <v>260</v>
+      <c r="B38" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>43</v>
@@ -4853,11 +4655,14 @@
       <c r="AX38" s="2"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B39" t="s">
-        <v>186</v>
+      <c r="B39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>43</v>
@@ -4914,11 +4719,14 @@
       <c r="AX39" s="2"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B40" t="s">
-        <v>187</v>
+      <c r="B40" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>43</v>
@@ -4975,10 +4783,13 @@
       <c r="AX40" s="2"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>188</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -5089,11 +4900,14 @@
       <c r="AX41" s="2"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B42" t="s">
-        <v>189</v>
+      <c r="B42" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>43</v>
@@ -5150,11 +4964,14 @@
       <c r="AX42" s="2"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B43" t="s">
-        <v>190</v>
+      <c r="B43" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>43</v>
@@ -5211,11 +5028,14 @@
       <c r="AX43" s="2"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B44" t="s">
-        <v>191</v>
+      <c r="B44" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>43</v>
@@ -5325,11 +5145,14 @@
       <c r="AX44" s="2"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B45" t="s">
-        <v>192</v>
+      <c r="B45" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>43</v>
@@ -5386,11 +5209,14 @@
       <c r="AX45" s="2"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B46" t="s">
-        <v>193</v>
+      <c r="B46" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>43</v>
@@ -5447,11 +5273,14 @@
       <c r="AX46" s="2"/>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B47" t="s">
-        <v>194</v>
+      <c r="B47" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>43</v>
@@ -5561,11 +5390,14 @@
       <c r="AX47" s="2"/>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B48" t="s">
-        <v>195</v>
+      <c r="B48" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>43</v>
@@ -5622,11 +5454,14 @@
       <c r="AX48" s="2"/>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B49" t="s">
-        <v>196</v>
+      <c r="B49" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>43</v>
@@ -5683,17 +5518,17 @@
       <c r="AX49" s="2"/>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B50" t="s">
-        <v>312</v>
+      <c r="B50" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>43</v>
@@ -5761,17 +5596,17 @@
       </c>
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B51" t="s">
-        <v>313</v>
+      <c r="B51" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>43</v>
@@ -5892,17 +5727,17 @@
       </c>
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B52" t="s">
-        <v>314</v>
+      <c r="B52" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>43</v>
@@ -5970,17 +5805,17 @@
       </c>
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B53" t="s">
-        <v>315</v>
+      <c r="B53" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>43</v>
@@ -6101,17 +5936,17 @@
       </c>
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B54" t="s">
-        <v>316</v>
+      <c r="B54" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>43</v>
@@ -6179,17 +6014,17 @@
       </c>
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B55" t="s">
-        <v>317</v>
+      <c r="B55" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>43</v>
@@ -6310,17 +6145,17 @@
       </c>
     </row>
     <row r="56" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B56" t="s">
-        <v>318</v>
+      <c r="B56" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>43</v>
@@ -6388,17 +6223,17 @@
       </c>
     </row>
     <row r="57" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B57" t="s">
-        <v>319</v>
+      <c r="B57" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>43</v>
@@ -6519,17 +6354,17 @@
       </c>
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B58" t="s">
-        <v>320</v>
+      <c r="B58" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>43</v>
@@ -6597,17 +6432,17 @@
       </c>
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B59" t="s">
-        <v>321</v>
+      <c r="B59" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>43</v>
@@ -6728,17 +6563,17 @@
       </c>
     </row>
     <row r="60" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B60" t="s">
-        <v>322</v>
+      <c r="B60" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>43</v>
@@ -6806,17 +6641,17 @@
       </c>
     </row>
     <row r="61" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B61" t="s">
-        <v>323</v>
+      <c r="B61" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>43</v>
@@ -6937,15 +6772,18 @@
       </c>
     </row>
     <row r="62" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B62" t="s">
-        <v>261</v>
+      <c r="B62" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="D62" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="E62" s="1" t="s">
         <v>43</v>
       </c>
@@ -7065,14 +6903,17 @@
       </c>
     </row>
     <row r="63" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B63" t="s">
-        <v>209</v>
+      <c r="B63" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>43</v>
@@ -7140,14 +6981,17 @@
       </c>
     </row>
     <row r="64" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B64" t="s">
-        <v>210</v>
+      <c r="B64" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>43</v>
@@ -7215,15 +7059,18 @@
       </c>
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B65" t="s">
-        <v>211</v>
+      <c r="B65" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="D65" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="E65" s="1" t="s">
         <v>43</v>
       </c>
@@ -7343,14 +7190,17 @@
       </c>
     </row>
     <row r="66" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B66" t="s">
-        <v>212</v>
+      <c r="B66" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>43</v>
@@ -7418,14 +7268,17 @@
       </c>
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B67" t="s">
-        <v>213</v>
+      <c r="B67" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>43</v>
@@ -7493,15 +7346,18 @@
       </c>
     </row>
     <row r="68" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B68" t="s">
-        <v>214</v>
+      <c r="B68" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="D68" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="E68" s="1" t="s">
         <v>43</v>
       </c>
@@ -7621,14 +7477,17 @@
       </c>
     </row>
     <row r="69" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B69" t="s">
-        <v>215</v>
+      <c r="B69" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>43</v>
@@ -7696,14 +7555,17 @@
       </c>
     </row>
     <row r="70" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B70" t="s">
-        <v>216</v>
+      <c r="B70" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>43</v>
@@ -7771,15 +7633,18 @@
       </c>
     </row>
     <row r="71" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B71" t="s">
-        <v>217</v>
+      <c r="B71" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="D71" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="E71" s="1" t="s">
         <v>43</v>
       </c>
@@ -7899,14 +7764,17 @@
       </c>
     </row>
     <row r="72" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B72" t="s">
-        <v>218</v>
+      <c r="B72" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>43</v>
@@ -7974,14 +7842,17 @@
       </c>
     </row>
     <row r="73" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B73" t="s">
-        <v>219</v>
+      <c r="B73" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>43</v>
@@ -8049,17 +7920,17 @@
       </c>
     </row>
     <row r="74" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B74" t="s">
-        <v>324</v>
+      <c r="B74" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>43</v>
@@ -8127,17 +7998,17 @@
       </c>
     </row>
     <row r="75" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B75" t="s">
-        <v>325</v>
+      <c r="B75" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>43</v>
@@ -8258,17 +8129,17 @@
       </c>
     </row>
     <row r="76" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B76" t="s">
-        <v>326</v>
+      <c r="B76" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>43</v>
@@ -8336,17 +8207,17 @@
       </c>
     </row>
     <row r="77" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B77" t="s">
-        <v>327</v>
+      <c r="B77" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>43</v>
@@ -8467,17 +8338,17 @@
       </c>
     </row>
     <row r="78" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B78" t="s">
-        <v>328</v>
+      <c r="B78" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>43</v>
@@ -8545,17 +8416,17 @@
       </c>
     </row>
     <row r="79" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B79" t="s">
-        <v>329</v>
+      <c r="B79" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>43</v>
@@ -8676,17 +8547,17 @@
       </c>
     </row>
     <row r="80" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B80" t="s">
-        <v>330</v>
+      <c r="B80" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>43</v>
@@ -8754,17 +8625,17 @@
       </c>
     </row>
     <row r="81" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B81" t="s">
-        <v>331</v>
+      <c r="B81" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>43</v>
@@ -8885,17 +8756,17 @@
       </c>
     </row>
     <row r="82" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B82" t="s">
-        <v>332</v>
+      <c r="B82" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>43</v>
@@ -8963,17 +8834,17 @@
       </c>
     </row>
     <row r="83" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B83" t="s">
-        <v>333</v>
+      <c r="B83" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>43</v>
@@ -9094,17 +8965,17 @@
       </c>
     </row>
     <row r="84" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B84" t="s">
-        <v>334</v>
+      <c r="B84" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>43</v>
@@ -9172,17 +9043,17 @@
       </c>
     </row>
     <row r="85" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B85" t="s">
-        <v>335</v>
+      <c r="B85" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>43</v>
@@ -9303,15 +9174,18 @@
       </c>
     </row>
     <row r="86" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B86" t="s">
-        <v>262</v>
+      <c r="B86" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D86" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="E86" s="1" t="s">
         <v>43</v>
       </c>
@@ -9431,14 +9305,17 @@
       </c>
     </row>
     <row r="87" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B87" t="s">
-        <v>232</v>
+      <c r="B87" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>43</v>
@@ -9506,14 +9383,17 @@
       </c>
     </row>
     <row r="88" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B88" t="s">
-        <v>233</v>
+      <c r="B88" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>43</v>
@@ -9581,15 +9461,18 @@
       </c>
     </row>
     <row r="89" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B89" t="s">
-        <v>234</v>
+      <c r="B89" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D89" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="E89" s="1" t="s">
         <v>43</v>
       </c>
@@ -9709,14 +9592,17 @@
       </c>
     </row>
     <row r="90" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B90" t="s">
-        <v>235</v>
+      <c r="B90" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>43</v>
@@ -9784,14 +9670,17 @@
       </c>
     </row>
     <row r="91" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B91" t="s">
-        <v>236</v>
+      <c r="B91" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>43</v>
@@ -9859,15 +9748,18 @@
       </c>
     </row>
     <row r="92" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B92" t="s">
-        <v>237</v>
+      <c r="B92" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D92" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="E92" s="1" t="s">
         <v>43</v>
       </c>
@@ -9987,14 +9879,17 @@
       </c>
     </row>
     <row r="93" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B93" t="s">
-        <v>238</v>
+      <c r="B93" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>43</v>
@@ -10062,14 +9957,17 @@
       </c>
     </row>
     <row r="94" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B94" t="s">
-        <v>239</v>
+      <c r="B94" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>43</v>
@@ -10137,15 +10035,18 @@
       </c>
     </row>
     <row r="95" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B95" t="s">
-        <v>240</v>
+      <c r="B95" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D95" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="E95" s="1" t="s">
         <v>43</v>
       </c>
@@ -10265,14 +10166,17 @@
       </c>
     </row>
     <row r="96" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B96" t="s">
-        <v>241</v>
+      <c r="B96" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>43</v>
@@ -10340,14 +10244,17 @@
       </c>
     </row>
     <row r="97" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B97" t="s">
-        <v>242</v>
+      <c r="B97" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>43</v>
@@ -10415,17 +10322,17 @@
       </c>
     </row>
     <row r="98" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B98" t="s">
-        <v>336</v>
+      <c r="B98" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>43</v>
@@ -10473,17 +10380,17 @@
       <c r="AX98" s="2"/>
     </row>
     <row r="99" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B99" t="s">
-        <v>337</v>
+      <c r="B99" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>43</v>
@@ -10531,17 +10438,17 @@
       <c r="AX99" s="2"/>
     </row>
     <row r="100" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B100" t="s">
-        <v>338</v>
+      <c r="B100" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>43</v>
@@ -10589,15 +10496,18 @@
       <c r="AX100" s="2"/>
     </row>
     <row r="101" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B101" t="s">
-        <v>246</v>
+      <c r="B101" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="D101" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="E101" s="1" t="s">
         <v>43</v>
       </c>
@@ -10644,15 +10554,18 @@
       <c r="AX101" s="2"/>
     </row>
     <row r="102" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B102" t="s">
-        <v>247</v>
+      <c r="B102" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="D102" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="E102" s="1" t="s">
         <v>43</v>
       </c>
@@ -10699,15 +10612,18 @@
       <c r="AX102" s="2"/>
     </row>
     <row r="103" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B103" t="s">
-        <v>248</v>
+      <c r="B103" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="D103" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="E103" s="1" t="s">
         <v>43</v>
       </c>
@@ -10754,17 +10670,17 @@
       <c r="AX103" s="2"/>
     </row>
     <row r="104" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B104" t="s">
-        <v>339</v>
+      <c r="B104" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>43</v>
@@ -10797,17 +10713,17 @@
       <c r="AX104" s="2"/>
     </row>
     <row r="105" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B105" t="s">
-        <v>340</v>
+      <c r="B105" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>43</v>
@@ -10840,17 +10756,17 @@
       <c r="AX105" s="2"/>
     </row>
     <row r="106" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B106" t="s">
-        <v>341</v>
+      <c r="B106" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>43</v>
@@ -10886,17 +10802,17 @@
       <c r="AX106" s="2"/>
     </row>
     <row r="107" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B107" t="s">
-        <v>342</v>
+      <c r="B107" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>43</v>
@@ -10932,17 +10848,17 @@
       <c r="AX107" s="2"/>
     </row>
     <row r="108" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B108" t="s">
-        <v>343</v>
+      <c r="B108" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>43</v>
@@ -10975,17 +10891,17 @@
       <c r="AX108" s="2"/>
     </row>
     <row r="109" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B109" t="s">
-        <v>344</v>
+      <c r="B109" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>43</v>
@@ -11018,17 +10934,17 @@
       <c r="AX109" s="2"/>
     </row>
     <row r="110" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B110" t="s">
-        <v>345</v>
+      <c r="B110" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>43</v>
@@ -11064,17 +10980,17 @@
       <c r="AX110" s="2"/>
     </row>
     <row r="111" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B111" t="s">
-        <v>346</v>
+      <c r="B111" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>43</v>
@@ -11110,17 +11026,17 @@
       <c r="AX111" s="2"/>
     </row>
     <row r="112" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B112" t="s">
-        <v>347</v>
+      <c r="B112" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>43</v>
@@ -11153,17 +11069,17 @@
       <c r="AX112" s="2"/>
     </row>
     <row r="113" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B113" t="s">
-        <v>348</v>
+      <c r="B113" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>43</v>
@@ -11196,17 +11112,17 @@
       <c r="AX113" s="2"/>
     </row>
     <row r="114" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B114" t="s">
-        <v>349</v>
+      <c r="B114" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>43</v>
@@ -11242,17 +11158,17 @@
       <c r="AX114" s="2"/>
     </row>
     <row r="115" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B115" t="s">
-        <v>350</v>
+      <c r="B115" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>43</v>
@@ -11286,18 +11202,2802 @@
       </c>
       <c r="AE115" s="2"/>
       <c r="AX115" s="2"/>
+    </row>
+    <row r="116" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S116" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T116" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U116" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V116" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W116" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X116" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD116" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE116" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF116" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG116" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH116" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI116" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ116" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK116" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL116" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM116" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN116" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP116" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ116" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR116" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS116" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT116" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX116" s="2"/>
+    </row>
+    <row r="117" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S117" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T117" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U117" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V117" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W117" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X117" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD117" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE117" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF117" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG117" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH117" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI117" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ117" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK117" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL117" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM117" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN117" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP117" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ117" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR117" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS117" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT117" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX117" s="2"/>
+    </row>
+    <row r="118" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S118" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T118" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U118" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V118" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W118" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X118" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD118" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE118" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF118" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG118" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH118" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI118" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ118" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK118" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL118" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM118" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN118" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO118" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP118" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ118" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR118" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS118" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT118" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX118" s="2"/>
+    </row>
+    <row r="119" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S119" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T119" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U119" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V119" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="W119" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X119" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD119" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE119" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF119" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG119" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH119" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI119" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ119" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK119" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL119" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM119" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN119" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO119" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP119" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ119" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR119" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS119" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT119" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX119" s="2"/>
+    </row>
+    <row r="120" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R120" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S120" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T120" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U120" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V120" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="W120" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X120" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD120" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE120" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF120" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG120" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH120" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI120" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ120" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK120" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL120" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM120" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN120" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO120" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP120" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ120" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR120" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS120" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT120" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX120" s="2"/>
+    </row>
+    <row r="121" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R121" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S121" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T121" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U121" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V121" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="W121" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X121" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE121" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF121" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG121" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH121" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI121" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ121" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK121" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL121" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM121" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN121" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO121" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP121" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ121" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR121" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS121" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT121" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX121" s="2"/>
+    </row>
+    <row r="122" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S122" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T122" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U122" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V122" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="W122" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X122" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE122" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF122" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG122" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH122" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI122" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ122" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK122" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL122" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM122" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN122" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO122" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP122" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ122" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR122" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS122" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT122" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX122" s="2"/>
+    </row>
+    <row r="123" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R123" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T123" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U123" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V123" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="W123" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X123" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF123" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG123" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH123" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI123" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ123" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK123" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL123" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM123" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN123" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO123" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP123" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ123" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR123" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS123" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT123" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX123" s="2"/>
+    </row>
+    <row r="124" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S124" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T124" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U124" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V124" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="W124" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X124" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE124" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF124" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH124" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI124" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ124" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK124" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL124" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM124" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN124" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO124" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP124" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ124" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR124" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS124" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT124" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX124" s="2"/>
+    </row>
+    <row r="125" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R125" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S125" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T125" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U125" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V125" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="W125" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X125" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE125" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF125" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG125" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH125" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI125" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ125" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK125" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL125" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM125" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN125" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO125" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP125" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ125" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR125" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS125" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT125" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX125" s="2"/>
+    </row>
+    <row r="126" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q126" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R126" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S126" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T126" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U126" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V126" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="W126" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X126" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE126" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF126" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG126" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH126" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI126" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ126" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK126" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL126" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM126" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN126" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO126" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP126" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ126" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR126" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS126" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT126" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX126" s="2"/>
+    </row>
+    <row r="127" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q127" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R127" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S127" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T127" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U127" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V127" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="W127" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X127" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE127" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF127" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG127" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH127" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI127" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ127" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK127" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL127" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM127" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN127" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO127" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP127" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ127" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR127" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS127" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT127" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX127" s="2"/>
+    </row>
+    <row r="128" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R128" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S128" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T128" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U128" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V128" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W128" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X128" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE128" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF128" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG128" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH128" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI128" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ128" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK128" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL128" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM128" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN128" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO128" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP128" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ128" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR128" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS128" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT128" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX128" s="2"/>
+    </row>
+    <row r="129" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R129" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S129" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T129" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U129" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V129" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W129" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X129" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE129" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF129" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG129" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH129" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI129" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ129" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK129" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL129" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM129" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN129" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO129" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP129" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ129" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR129" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS129" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT129" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX129" s="2"/>
+    </row>
+    <row r="130" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q130" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R130" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S130" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T130" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U130" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V130" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W130" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X130" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE130" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF130" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG130" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH130" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI130" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ130" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK130" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL130" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM130" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN130" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO130" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP130" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ130" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR130" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS130" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT130" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX130" s="2"/>
+    </row>
+    <row r="131" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q131" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S131" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T131" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U131" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V131" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="W131" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X131" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE131" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF131" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG131" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH131" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI131" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ131" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK131" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL131" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM131" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN131" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO131" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP131" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ131" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR131" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS131" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT131" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX131" s="2"/>
+    </row>
+    <row r="132" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q132" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R132" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S132" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T132" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U132" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V132" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="W132" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X132" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE132" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF132" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG132" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH132" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI132" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ132" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK132" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL132" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM132" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN132" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO132" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP132" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ132" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR132" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS132" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT132" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX132" s="2"/>
+    </row>
+    <row r="133" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R133" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S133" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T133" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U133" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V133" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="W133" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X133" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE133" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF133" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG133" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH133" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI133" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ133" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK133" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL133" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM133" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN133" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO133" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP133" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ133" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR133" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS133" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT133" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX133" s="2"/>
+    </row>
+    <row r="134" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S134" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T134" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U134" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V134" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="W134" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X134" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE134" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF134" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG134" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH134" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI134" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ134" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK134" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL134" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM134" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN134" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO134" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP134" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ134" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR134" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS134" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT134" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX134" s="2"/>
+    </row>
+    <row r="135" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R135" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S135" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T135" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U135" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V135" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="W135" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X135" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE135" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF135" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG135" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH135" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI135" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ135" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK135" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL135" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM135" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN135" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO135" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP135" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ135" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR135" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS135" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT135" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX135" s="2"/>
+    </row>
+    <row r="136" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R136" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S136" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T136" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U136" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V136" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="W136" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X136" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE136" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF136" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG136" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH136" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI136" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ136" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK136" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL136" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM136" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN136" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO136" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP136" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ136" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR136" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS136" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT136" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX136" s="2"/>
+    </row>
+    <row r="137" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q137" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R137" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S137" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T137" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U137" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V137" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="W137" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X137" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE137" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF137" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG137" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH137" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI137" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ137" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK137" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL137" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM137" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN137" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO137" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP137" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ137" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR137" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS137" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT137" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX137" s="2"/>
+    </row>
+    <row r="138" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q138" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R138" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S138" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T138" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U138" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V138" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="W138" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X138" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE138" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF138" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG138" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH138" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI138" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ138" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK138" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL138" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM138" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN138" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO138" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP138" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ138" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR138" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS138" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT138" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX138" s="2"/>
+    </row>
+    <row r="139" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q139" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R139" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S139" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T139" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U139" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V139" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="W139" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X139" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE139" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF139" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG139" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH139" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI139" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ139" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK139" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL139" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM139" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN139" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO139" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP139" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ139" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR139" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS139" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT139" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX139" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="G1:G115" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E373AFE3-95E6-4012-963C-FB304E9ADB66}">
-  <dimension ref="A1:AX115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E373AFE3-95E6-4012-963C-FB304E9ADB66}">
+  <dimension ref="A1:AW115"/>
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
@@ -11305,64 +14005,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="32.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="22.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="9.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="5.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="24.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="9.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="115.42578125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="75.5703125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="40.5703125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="23.85546875" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="13.5703125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="36" max="44" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
-    <col min="46" max="47" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
-    <col min="48" max="48" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="11.5703125" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
-    <col min="60" max="61" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="16.42578125" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="65" max="16384" style="1" width="26.7109375" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" collapsed="1"/>
+    <col min="3" max="3" width="32" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="8.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="9.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="115.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="75.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="40.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="23.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="13.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="44" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="47" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="12.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="15" style="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="14.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="11.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="15.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="18.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="14.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="61" width="15.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="16.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="16384" width="26.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -20776,13 +23476,13 @@
       <c r="AW115" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E51003-E6AF-4A46-8DE2-C02177084CDE}">
-  <dimension ref="A1:BT1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E51003-E6AF-4A46-8DE2-C02177084CDE}">
+  <dimension ref="A1:BS1"/>
   <sheetViews>
     <sheetView topLeftCell="BC1" workbookViewId="0">
       <selection activeCell="BE29" sqref="BE29"/>
@@ -20790,10 +23490,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="1" width="20.42578125" collapsed="true"/>
+    <col min="1" max="16384" width="20.42578125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21009,7 +23709,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KatalonData/VLinkCCTestData.xlsx
+++ b/KatalonData/VLinkCCTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD47E7E1-675D-456D-9024-A1B1EEDEC9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C69BF28-B95B-4531-AE3F-3B8FC1805BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
   </bookViews>
   <sheets>
     <sheet name="CCSaleData" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7136" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7036" uniqueCount="298">
   <si>
     <t>Notes</t>
   </si>
@@ -640,45 +640,6 @@
     <t>Unencypted track1 And 2 data FDMS</t>
   </si>
   <si>
-    <t>Mon Apr 18 12:20:55 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:21:42 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:22:29 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:23:16 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:24:02 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:24:49 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:25:36 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:26:22 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:27:08 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:27:55 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:28:42 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:29:28 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:30:14 EDT 2022</t>
-  </si>
-  <si>
     <t>Mon Apr 18 12:31:00 EDT 2022</t>
   </si>
   <si>
@@ -862,9 +823,6 @@
     <t>Mon Apr 18 13:17:04 EDT 2022</t>
   </si>
   <si>
-    <t>Sun Jun 05 22:38:23 EDT 2022</t>
-  </si>
-  <si>
     <t>TSYS CPS</t>
   </si>
   <si>
@@ -893,6 +851,87 @@
   </si>
   <si>
     <t>Vantiv CPS</t>
+  </si>
+  <si>
+    <t>Tue Sep 06 17:22:23 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Sep 06 17:25:13 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Sep 06 17:28:01 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Sep 06 17:30:49 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Sep 06 17:33:38 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Sep 06 17:36:26 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Sep 06 17:39:15 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Sep 06 17:42:03 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Sep 06 17:44:51 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Sep 06 17:47:40 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Sep 06 17:50:28 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Sep 06 17:53:17 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Sep 06 17:56:05 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Sep 21 12:09:16 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Sep 21 12:12:02 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Sep 23 12:11:17 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Sep 23 12:12:02 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Sep 23 12:12:45 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Sep 23 12:13:27 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Sep 23 12:14:10 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Sep 23 12:14:52 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Sep 23 12:15:34 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Sep 23 12:16:16 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Sep 23 12:16:58 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Sep 23 12:17:40 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Sep 23 12:18:22 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Sep 23 12:19:04 EDT 2022</t>
   </si>
 </sst>
 </file>
@@ -1272,9 +1311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}">
   <dimension ref="A1:AX139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V119" sqref="V119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,18 +1529,15 @@
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>274</v>
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>284</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1610,18 +1646,15 @@
       <c r="AX2" s="2"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>200</v>
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>271</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
@@ -1677,18 +1710,15 @@
       <c r="AX3" s="2"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>201</v>
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>272</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,18 +1774,15 @@
       <c r="AX4" s="2"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>202</v>
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>273</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1864,18 +1891,15 @@
       <c r="AX5" s="2"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>203</v>
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>274</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
@@ -1931,18 +1955,15 @@
       <c r="AX6" s="2"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>204</v>
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s">
+        <v>275</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
@@ -1998,18 +2019,15 @@
       <c r="AX7" s="2"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>205</v>
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>276</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
@@ -2118,18 +2136,15 @@
       <c r="AX8" s="2"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>206</v>
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>277</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
@@ -2185,18 +2200,15 @@
       <c r="AX9" s="2"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>207</v>
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>278</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E10" s="1" t="s">
         <v>43</v>
       </c>
@@ -2252,18 +2264,15 @@
       <c r="AX10" s="2"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>208</v>
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>279</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
@@ -2372,18 +2381,15 @@
       <c r="AX11" s="2"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>209</v>
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" t="s">
+        <v>280</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
@@ -2439,18 +2445,15 @@
       <c r="AX12" s="2"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>210</v>
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
+        <v>281</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E13" s="1" t="s">
         <v>43</v>
       </c>
@@ -2506,18 +2509,15 @@
       <c r="AX13" s="2"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>211</v>
+      <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" t="s">
+        <v>282</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E14" s="1" t="s">
         <v>43</v>
       </c>
@@ -2626,17 +2626,14 @@
       <c r="AX14" s="2"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>212</v>
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s">
+        <v>283</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>43</v>
@@ -2697,13 +2694,10 @@
         <v>149</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>43</v>
@@ -2764,13 +2758,10 @@
         <v>149</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>43</v>
@@ -2884,13 +2875,10 @@
         <v>149</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>43</v>
@@ -2951,13 +2939,10 @@
         <v>149</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>43</v>
@@ -3018,13 +3003,10 @@
         <v>149</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>43</v>
@@ -3138,13 +3120,10 @@
         <v>149</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>43</v>
@@ -3205,13 +3184,10 @@
         <v>149</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>43</v>
@@ -3272,13 +3248,10 @@
         <v>149</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>43</v>
@@ -3392,13 +3365,10 @@
         <v>149</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>43</v>
@@ -3459,13 +3429,10 @@
         <v>149</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>43</v>
@@ -3526,13 +3493,10 @@
         <v>150</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>43</v>
@@ -3646,13 +3610,10 @@
         <v>149</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>43</v>
@@ -3713,13 +3674,10 @@
         <v>149</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>43</v>
@@ -3780,13 +3738,10 @@
         <v>149</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>43</v>
@@ -3900,13 +3855,10 @@
         <v>149</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>43</v>
@@ -3967,13 +3919,10 @@
         <v>149</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>43</v>
@@ -4034,13 +3983,10 @@
         <v>149</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>43</v>
@@ -4154,13 +4100,10 @@
         <v>149</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>43</v>
@@ -4221,13 +4164,10 @@
         <v>149</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>43</v>
@@ -4288,13 +4228,10 @@
         <v>149</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>43</v>
@@ -4408,13 +4345,10 @@
         <v>149</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>43</v>
@@ -4475,13 +4409,10 @@
         <v>149</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>43</v>
@@ -4544,9 +4475,6 @@
       <c r="B38" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E38" s="1" t="s">
         <v>43</v>
       </c>
@@ -4661,9 +4589,6 @@
       <c r="B39" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E39" s="1" t="s">
         <v>43</v>
       </c>
@@ -4725,9 +4650,6 @@
       <c r="B40" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E40" s="1" t="s">
         <v>43</v>
       </c>
@@ -4789,9 +4711,6 @@
       <c r="B41" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E41" s="1" t="s">
         <v>43</v>
       </c>
@@ -4906,9 +4825,6 @@
       <c r="B42" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E42" s="1" t="s">
         <v>43</v>
       </c>
@@ -4970,9 +4886,6 @@
       <c r="B43" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E43" s="1" t="s">
         <v>43</v>
       </c>
@@ -5034,9 +4947,6 @@
       <c r="B44" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E44" s="1" t="s">
         <v>43</v>
       </c>
@@ -5151,9 +5061,6 @@
       <c r="B45" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E45" s="1" t="s">
         <v>43</v>
       </c>
@@ -5215,9 +5122,6 @@
       <c r="B46" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E46" s="1" t="s">
         <v>43</v>
       </c>
@@ -5279,9 +5183,6 @@
       <c r="B47" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E47" s="1" t="s">
         <v>43</v>
       </c>
@@ -5396,9 +5297,6 @@
       <c r="B48" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E48" s="1" t="s">
         <v>43</v>
       </c>
@@ -5460,9 +5358,6 @@
       <c r="B49" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E49" s="1" t="s">
         <v>43</v>
       </c>
@@ -5522,13 +5417,10 @@
         <v>149</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>43</v>
@@ -5600,13 +5492,10 @@
         <v>149</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>43</v>
@@ -5731,13 +5620,10 @@
         <v>149</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>43</v>
@@ -5809,13 +5695,10 @@
         <v>149</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>43</v>
@@ -5940,13 +5823,10 @@
         <v>150</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>43</v>
@@ -6018,13 +5898,10 @@
         <v>149</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>43</v>
@@ -6149,13 +6026,10 @@
         <v>149</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>43</v>
@@ -6227,13 +6101,10 @@
         <v>149</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>43</v>
@@ -6358,13 +6229,10 @@
         <v>150</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>43</v>
@@ -6436,13 +6304,10 @@
         <v>149</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>43</v>
@@ -6567,13 +6432,10 @@
         <v>149</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>43</v>
@@ -6645,13 +6507,10 @@
         <v>149</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>43</v>
@@ -6781,9 +6640,6 @@
       <c r="C62" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E62" s="1" t="s">
         <v>43</v>
       </c>
@@ -6912,9 +6768,6 @@
       <c r="C63" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E63" s="1" t="s">
         <v>43</v>
       </c>
@@ -6990,9 +6843,6 @@
       <c r="C64" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E64" s="1" t="s">
         <v>43</v>
       </c>
@@ -7068,9 +6918,6 @@
       <c r="C65" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E65" s="1" t="s">
         <v>43</v>
       </c>
@@ -7199,9 +7046,6 @@
       <c r="C66" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E66" s="1" t="s">
         <v>43</v>
       </c>
@@ -7277,9 +7121,6 @@
       <c r="C67" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E67" s="1" t="s">
         <v>43</v>
       </c>
@@ -7355,9 +7196,6 @@
       <c r="C68" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E68" s="1" t="s">
         <v>43</v>
       </c>
@@ -7486,9 +7324,6 @@
       <c r="C69" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E69" s="1" t="s">
         <v>43</v>
       </c>
@@ -7564,9 +7399,6 @@
       <c r="C70" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E70" s="1" t="s">
         <v>43</v>
       </c>
@@ -7642,9 +7474,6 @@
       <c r="C71" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E71" s="1" t="s">
         <v>43</v>
       </c>
@@ -7773,9 +7602,6 @@
       <c r="C72" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E72" s="1" t="s">
         <v>43</v>
       </c>
@@ -7851,9 +7677,6 @@
       <c r="C73" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E73" s="1" t="s">
         <v>43</v>
       </c>
@@ -7924,13 +7747,10 @@
         <v>149</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>43</v>
@@ -8002,13 +7822,10 @@
         <v>149</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>43</v>
@@ -8133,13 +7950,10 @@
         <v>149</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>43</v>
@@ -8211,13 +8025,10 @@
         <v>149</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>43</v>
@@ -8342,13 +8153,10 @@
         <v>150</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>43</v>
@@ -8420,13 +8228,10 @@
         <v>149</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>43</v>
@@ -8551,13 +8356,10 @@
         <v>149</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>43</v>
@@ -8629,13 +8431,10 @@
         <v>149</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>43</v>
@@ -8760,13 +8559,10 @@
         <v>150</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>43</v>
@@ -8838,13 +8634,10 @@
         <v>149</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>43</v>
@@ -8969,13 +8762,10 @@
         <v>149</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>43</v>
@@ -9047,13 +8837,10 @@
         <v>149</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>43</v>
@@ -9183,9 +8970,6 @@
       <c r="C86" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E86" s="1" t="s">
         <v>43</v>
       </c>
@@ -9314,9 +9098,6 @@
       <c r="C87" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E87" s="1" t="s">
         <v>43</v>
       </c>
@@ -9392,9 +9173,6 @@
       <c r="C88" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E88" s="1" t="s">
         <v>43</v>
       </c>
@@ -9470,9 +9248,6 @@
       <c r="C89" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E89" s="1" t="s">
         <v>43</v>
       </c>
@@ -9601,9 +9376,6 @@
       <c r="C90" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E90" s="1" t="s">
         <v>43</v>
       </c>
@@ -9679,9 +9451,6 @@
       <c r="C91" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E91" s="1" t="s">
         <v>43</v>
       </c>
@@ -9757,9 +9526,6 @@
       <c r="C92" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E92" s="1" t="s">
         <v>43</v>
       </c>
@@ -9888,9 +9654,6 @@
       <c r="C93" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E93" s="1" t="s">
         <v>43</v>
       </c>
@@ -9966,9 +9729,6 @@
       <c r="C94" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E94" s="1" t="s">
         <v>43</v>
       </c>
@@ -10044,9 +9804,6 @@
       <c r="C95" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E95" s="1" t="s">
         <v>43</v>
       </c>
@@ -10175,9 +9932,6 @@
       <c r="C96" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E96" s="1" t="s">
         <v>43</v>
       </c>
@@ -10253,9 +10007,6 @@
       <c r="C97" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E97" s="1" t="s">
         <v>43</v>
       </c>
@@ -10326,13 +10077,10 @@
         <v>150</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>43</v>
@@ -10384,13 +10132,10 @@
         <v>149</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>43</v>
@@ -10442,13 +10187,10 @@
         <v>149</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>43</v>
@@ -10505,9 +10247,6 @@
       <c r="C101" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E101" s="1" t="s">
         <v>43</v>
       </c>
@@ -10563,9 +10302,6 @@
       <c r="C102" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E102" s="1" t="s">
         <v>43</v>
       </c>
@@ -10621,9 +10357,6 @@
       <c r="C103" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E103" s="1" t="s">
         <v>43</v>
       </c>
@@ -10674,13 +10407,10 @@
         <v>149</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>43</v>
@@ -10717,13 +10447,10 @@
         <v>150</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>43</v>
@@ -10760,13 +10487,10 @@
         <v>149</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>43</v>
@@ -10806,13 +10530,10 @@
         <v>149</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>43</v>
@@ -10852,13 +10573,10 @@
         <v>149</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>43</v>
@@ -10895,13 +10613,10 @@
         <v>150</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>43</v>
@@ -10938,13 +10653,10 @@
         <v>149</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>43</v>
@@ -10984,13 +10696,10 @@
         <v>149</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>43</v>
@@ -11030,13 +10739,10 @@
         <v>149</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>43</v>
@@ -11073,13 +10779,10 @@
         <v>150</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>43</v>
@@ -11116,13 +10819,10 @@
         <v>149</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>43</v>
@@ -11162,14 +10862,11 @@
         <v>149</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E115" s="1" t="s">
         <v>43</v>
       </c>
@@ -11204,10 +10901,14 @@
       <c r="AX115" s="2"/>
     </row>
     <row r="116" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="A116" t="s">
+        <v>149</v>
+      </c>
+      <c r="B116" t="s">
+        <v>286</v>
+      </c>
       <c r="C116" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>188</v>
@@ -11219,7 +10920,7 @@
         <v>44</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>45</v>
@@ -11258,7 +10959,7 @@
         <v>54</v>
       </c>
       <c r="V116" s="1" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="W116" s="1" t="s">
         <v>102</v>
@@ -11320,10 +11021,14 @@
       <c r="AX116" s="2"/>
     </row>
     <row r="117" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+      <c r="A117" t="s">
+        <v>149</v>
+      </c>
+      <c r="B117" t="s">
+        <v>287</v>
+      </c>
       <c r="C117" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>188</v>
@@ -11335,7 +11040,7 @@
         <v>44</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>45</v>
@@ -11374,7 +11079,7 @@
         <v>54</v>
       </c>
       <c r="V117" s="1" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="W117" s="1" t="s">
         <v>102</v>
@@ -11436,10 +11141,14 @@
       <c r="AX117" s="2"/>
     </row>
     <row r="118" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="A118" t="s">
+        <v>149</v>
+      </c>
+      <c r="B118" t="s">
+        <v>288</v>
+      </c>
       <c r="C118" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>188</v>
@@ -11451,7 +11160,7 @@
         <v>44</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>45</v>
@@ -11490,7 +11199,7 @@
         <v>54</v>
       </c>
       <c r="V118" s="1" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="W118" s="1" t="s">
         <v>102</v>
@@ -11552,10 +11261,14 @@
       <c r="AX118" s="2"/>
     </row>
     <row r="119" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+      <c r="A119" t="s">
+        <v>149</v>
+      </c>
+      <c r="B119" t="s">
+        <v>289</v>
+      </c>
       <c r="C119" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>188</v>
@@ -11567,7 +11280,7 @@
         <v>44</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>45</v>
@@ -11606,7 +11319,7 @@
         <v>54</v>
       </c>
       <c r="V119" s="1" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="W119" s="1" t="s">
         <v>102</v>
@@ -11668,10 +11381,14 @@
       <c r="AX119" s="2"/>
     </row>
     <row r="120" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+      <c r="A120" t="s">
+        <v>149</v>
+      </c>
+      <c r="B120" t="s">
+        <v>290</v>
+      </c>
       <c r="C120" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>188</v>
@@ -11683,7 +11400,7 @@
         <v>44</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>45</v>
@@ -11722,7 +11439,7 @@
         <v>54</v>
       </c>
       <c r="V120" s="1" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="W120" s="1" t="s">
         <v>102</v>
@@ -11784,10 +11501,14 @@
       <c r="AX120" s="2"/>
     </row>
     <row r="121" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+      <c r="A121" t="s">
+        <v>149</v>
+      </c>
+      <c r="B121" t="s">
+        <v>291</v>
+      </c>
       <c r="C121" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>188</v>
@@ -11799,7 +11520,7 @@
         <v>44</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>45</v>
@@ -11838,7 +11559,7 @@
         <v>54</v>
       </c>
       <c r="V121" s="1" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="W121" s="1" t="s">
         <v>102</v>
@@ -11900,10 +11621,14 @@
       <c r="AX121" s="2"/>
     </row>
     <row r="122" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+      <c r="A122" t="s">
+        <v>149</v>
+      </c>
+      <c r="B122" t="s">
+        <v>292</v>
+      </c>
       <c r="C122" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>188</v>
@@ -11915,7 +11640,7 @@
         <v>44</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>45</v>
@@ -11954,7 +11679,7 @@
         <v>54</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="W122" s="1" t="s">
         <v>102</v>
@@ -12016,10 +11741,14 @@
       <c r="AX122" s="2"/>
     </row>
     <row r="123" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+      <c r="A123" t="s">
+        <v>149</v>
+      </c>
+      <c r="B123" t="s">
+        <v>293</v>
+      </c>
       <c r="C123" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>188</v>
@@ -12031,7 +11760,7 @@
         <v>44</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>45</v>
@@ -12070,7 +11799,7 @@
         <v>54</v>
       </c>
       <c r="V123" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="W123" s="1" t="s">
         <v>102</v>
@@ -12132,10 +11861,14 @@
       <c r="AX123" s="2"/>
     </row>
     <row r="124" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="A124" t="s">
+        <v>149</v>
+      </c>
+      <c r="B124" t="s">
+        <v>294</v>
+      </c>
       <c r="C124" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>188</v>
@@ -12147,7 +11880,7 @@
         <v>44</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>45</v>
@@ -12186,7 +11919,7 @@
         <v>54</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="W124" s="1" t="s">
         <v>102</v>
@@ -12248,10 +11981,14 @@
       <c r="AX124" s="2"/>
     </row>
     <row r="125" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+      <c r="A125" t="s">
+        <v>149</v>
+      </c>
+      <c r="B125" t="s">
+        <v>295</v>
+      </c>
       <c r="C125" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>188</v>
@@ -12263,7 +12000,7 @@
         <v>44</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>45</v>
@@ -12302,7 +12039,7 @@
         <v>54</v>
       </c>
       <c r="V125" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="W125" s="1" t="s">
         <v>102</v>
@@ -12364,10 +12101,14 @@
       <c r="AX125" s="2"/>
     </row>
     <row r="126" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
+      <c r="A126" t="s">
+        <v>149</v>
+      </c>
+      <c r="B126" t="s">
+        <v>296</v>
+      </c>
       <c r="C126" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>188</v>
@@ -12379,7 +12120,7 @@
         <v>44</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>45</v>
@@ -12418,7 +12159,7 @@
         <v>54</v>
       </c>
       <c r="V126" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="W126" s="1" t="s">
         <v>102</v>
@@ -12480,10 +12221,14 @@
       <c r="AX126" s="2"/>
     </row>
     <row r="127" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
+      <c r="A127" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127" t="s">
+        <v>297</v>
+      </c>
       <c r="C127" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>188</v>
@@ -12495,7 +12240,7 @@
         <v>44</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>45</v>
@@ -12534,7 +12279,7 @@
         <v>54</v>
       </c>
       <c r="V127" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="W127" s="1" t="s">
         <v>102</v>
@@ -12596,13 +12341,14 @@
       <c r="AX127" s="2"/>
     </row>
     <row r="128" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+      <c r="A128" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" t="s">
+        <v>285</v>
+      </c>
       <c r="C128" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>43</v>
@@ -12611,13 +12357,13 @@
         <v>44</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>47</v>
@@ -12650,7 +12396,7 @@
         <v>54</v>
       </c>
       <c r="V128" s="1" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="W128" s="1" t="s">
         <v>102</v>
@@ -12715,10 +12461,7 @@
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>43</v>
@@ -12727,13 +12470,13 @@
         <v>44</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>47</v>
@@ -12766,7 +12509,7 @@
         <v>54</v>
       </c>
       <c r="V129" s="1" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="W129" s="1" t="s">
         <v>102</v>
@@ -12831,10 +12574,7 @@
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>43</v>
@@ -12843,13 +12583,13 @@
         <v>44</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>47</v>
@@ -12882,7 +12622,7 @@
         <v>54</v>
       </c>
       <c r="V130" s="1" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="W130" s="1" t="s">
         <v>102</v>
@@ -12947,10 +12687,7 @@
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>43</v>
@@ -12959,13 +12696,13 @@
         <v>44</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>47</v>
@@ -12998,7 +12735,7 @@
         <v>54</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="W131" s="1" t="s">
         <v>102</v>
@@ -13063,10 +12800,7 @@
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>43</v>
@@ -13075,13 +12809,13 @@
         <v>44</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>47</v>
@@ -13114,7 +12848,7 @@
         <v>54</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="W132" s="1" t="s">
         <v>102</v>
@@ -13179,10 +12913,7 @@
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>43</v>
@@ -13191,13 +12922,13 @@
         <v>44</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>47</v>
@@ -13230,7 +12961,7 @@
         <v>54</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="W133" s="1" t="s">
         <v>102</v>
@@ -13295,10 +13026,7 @@
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>43</v>
@@ -13307,13 +13035,13 @@
         <v>44</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>47</v>
@@ -13346,7 +13074,7 @@
         <v>54</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="W134" s="1" t="s">
         <v>102</v>
@@ -13411,10 +13139,7 @@
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>43</v>
@@ -13423,13 +13148,13 @@
         <v>44</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>47</v>
@@ -13462,7 +13187,7 @@
         <v>54</v>
       </c>
       <c r="V135" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="W135" s="1" t="s">
         <v>102</v>
@@ -13527,10 +13252,7 @@
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>43</v>
@@ -13539,13 +13261,13 @@
         <v>44</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>47</v>
@@ -13578,7 +13300,7 @@
         <v>54</v>
       </c>
       <c r="V136" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="W136" s="1" t="s">
         <v>102</v>
@@ -13643,10 +13365,7 @@
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>43</v>
@@ -13655,13 +13374,13 @@
         <v>44</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>47</v>
@@ -13694,7 +13413,7 @@
         <v>54</v>
       </c>
       <c r="V137" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="W137" s="1" t="s">
         <v>102</v>
@@ -13759,10 +13478,7 @@
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>43</v>
@@ -13771,13 +13487,13 @@
         <v>44</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>47</v>
@@ -13810,7 +13526,7 @@
         <v>54</v>
       </c>
       <c r="V138" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="W138" s="1" t="s">
         <v>102</v>
@@ -13875,10 +13591,7 @@
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>43</v>
@@ -13887,13 +13600,13 @@
         <v>44</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>47</v>
@@ -13926,7 +13639,7 @@
         <v>54</v>
       </c>
       <c r="V139" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="W139" s="1" t="s">
         <v>102</v>

--- a/KatalonData/VLinkCCTestData.xlsx
+++ b/KatalonData/VLinkCCTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C69BF28-B95B-4531-AE3F-3B8FC1805BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADE7323-F9FC-40C5-9A4A-D8B53ECD8BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
+    <workbookView xWindow="-25110" yWindow="1410" windowWidth="23250" windowHeight="14730" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
   </bookViews>
   <sheets>
     <sheet name="CCSaleData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="AuthAndCaptureData" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CCSaleData!$G$1:$G$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CCSaleData!$G$1:$G$139</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7036" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7061" uniqueCount="298">
   <si>
     <t>Notes</t>
   </si>
@@ -517,27 +517,18 @@
     <t>Sun Oct 31 14:05:34 EDT 2021</t>
   </si>
   <si>
-    <t>Sun Oct 31 14:06:36 EDT 2021</t>
-  </si>
-  <si>
     <t>Sun Oct 31 14:07:37 EDT 2021</t>
   </si>
   <si>
     <t>Sun Oct 31 14:08:40 EDT 2021</t>
   </si>
   <si>
-    <t>Sun Oct 31 14:23:02 EDT 2021</t>
-  </si>
-  <si>
     <t>Sun Oct 31 14:24:04 EDT 2021</t>
   </si>
   <si>
     <t>Sun Oct 31 14:25:06 EDT 2021</t>
   </si>
   <si>
-    <t>Sun Oct 31 14:26:07 EDT 2021</t>
-  </si>
-  <si>
     <t>Sun Oct 31 14:27:09 EDT 2021</t>
   </si>
   <si>
@@ -706,9 +697,6 @@
     <t>Mon Apr 18 12:47:11 EDT 2022</t>
   </si>
   <si>
-    <t>Mon Apr 18 12:47:58 EDT 2022</t>
-  </si>
-  <si>
     <t>Mon Apr 18 12:48:44 EDT 2022</t>
   </si>
   <si>
@@ -799,9 +787,6 @@
     <t>Mon Apr 18 13:10:57 EDT 2022</t>
   </si>
   <si>
-    <t>Mon Apr 18 13:11:44 EDT 2022</t>
-  </si>
-  <si>
     <t>Mon Apr 18 13:12:30 EDT 2022</t>
   </si>
   <si>
@@ -811,9 +796,6 @@
     <t>Mon Apr 18 13:14:01 EDT 2022</t>
   </si>
   <si>
-    <t>Mon Apr 18 13:14:47 EDT 2022</t>
-  </si>
-  <si>
     <t>Mon Apr 18 13:15:34 EDT 2022</t>
   </si>
   <si>
@@ -895,12 +877,6 @@
     <t>Wed Sep 21 12:09:16 EDT 2022</t>
   </si>
   <si>
-    <t>Wed Sep 21 12:12:02 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Sep 23 12:11:17 EDT 2022</t>
-  </si>
-  <si>
     <t>Fri Sep 23 12:12:02 EDT 2022</t>
   </si>
   <si>
@@ -932,6 +908,30 @@
   </si>
   <si>
     <t>Fri Sep 23 12:19:04 EDT 2022</t>
+  </si>
+  <si>
+    <t>Fri Dec 16 17:00:46 EST 2022</t>
+  </si>
+  <si>
+    <t>Fri Dec 16 17:01:43 EST 2022</t>
+  </si>
+  <si>
+    <t>Fri Dec 16 17:02:33 EST 2022</t>
+  </si>
+  <si>
+    <t>Fri Dec 16 17:03:25 EST 2022</t>
+  </si>
+  <si>
+    <t>Fri Dec 16 17:04:39 EST 2022</t>
+  </si>
+  <si>
+    <t>Fri Dec 16 17:05:31 EST 2022</t>
+  </si>
+  <si>
+    <t>Fri Dec 16 17:06:23 EST 2022</t>
+  </si>
+  <si>
+    <t>Fri Dec 16 17:07:18 EST 2022</t>
   </si>
 </sst>
 </file>
@@ -1311,9 +1311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}">
   <dimension ref="A1:AX139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V119" sqref="V119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107:D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1533,10 +1533,10 @@
         <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>43</v>
@@ -1650,10 +1650,10 @@
         <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>43</v>
@@ -1714,10 +1714,10 @@
         <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>43</v>
@@ -1778,10 +1778,10 @@
         <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>43</v>
@@ -1895,10 +1895,10 @@
         <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>43</v>
@@ -1959,10 +1959,10 @@
         <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>43</v>
@@ -2023,10 +2023,10 @@
         <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>43</v>
@@ -2140,10 +2140,10 @@
         <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
@@ -2204,10 +2204,10 @@
         <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>43</v>
@@ -2268,10 +2268,10 @@
         <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>43</v>
@@ -2385,10 +2385,10 @@
         <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>43</v>
@@ -2449,10 +2449,10 @@
         <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>43</v>
@@ -2513,10 +2513,10 @@
         <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>43</v>
@@ -2630,10 +2630,10 @@
         <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>43</v>
@@ -2694,10 +2694,10 @@
         <v>149</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>43</v>
@@ -2758,10 +2758,10 @@
         <v>149</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>43</v>
@@ -2875,10 +2875,10 @@
         <v>149</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>43</v>
@@ -2939,10 +2939,10 @@
         <v>149</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>43</v>
@@ -3003,10 +3003,10 @@
         <v>149</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>43</v>
@@ -3120,10 +3120,10 @@
         <v>149</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>43</v>
@@ -3184,10 +3184,10 @@
         <v>149</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>43</v>
@@ -3248,10 +3248,10 @@
         <v>149</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>43</v>
@@ -3365,10 +3365,10 @@
         <v>149</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>43</v>
@@ -3429,10 +3429,10 @@
         <v>149</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>43</v>
@@ -3493,10 +3493,10 @@
         <v>150</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>43</v>
@@ -3610,10 +3610,10 @@
         <v>149</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>43</v>
@@ -3674,10 +3674,10 @@
         <v>149</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>43</v>
@@ -3738,10 +3738,10 @@
         <v>149</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>43</v>
@@ -3855,10 +3855,10 @@
         <v>149</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>43</v>
@@ -3919,10 +3919,10 @@
         <v>149</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>43</v>
@@ -3983,10 +3983,10 @@
         <v>149</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>43</v>
@@ -4100,10 +4100,10 @@
         <v>149</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>43</v>
@@ -4164,10 +4164,10 @@
         <v>149</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>43</v>
@@ -4228,10 +4228,10 @@
         <v>149</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>43</v>
@@ -4345,10 +4345,10 @@
         <v>149</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>43</v>
@@ -4409,10 +4409,10 @@
         <v>149</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>43</v>
@@ -4473,7 +4473,7 @@
         <v>150</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>43</v>
@@ -5177,11 +5177,14 @@
       <c r="AX46" s="2"/>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>159</v>
+      <c r="B47" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>43</v>
@@ -5295,7 +5298,7 @@
         <v>149</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>43</v>
@@ -5356,7 +5359,7 @@
         <v>149</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>43</v>
@@ -5413,14 +5416,17 @@
       <c r="AX49" s="2"/>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>222</v>
+      <c r="A50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" t="s">
+        <v>291</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>43</v>
@@ -5492,10 +5498,10 @@
         <v>149</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>43</v>
@@ -5620,10 +5626,10 @@
         <v>149</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>43</v>
@@ -5695,10 +5701,10 @@
         <v>149</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>43</v>
@@ -5823,10 +5829,10 @@
         <v>150</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>43</v>
@@ -5898,10 +5904,10 @@
         <v>149</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>43</v>
@@ -6026,10 +6032,10 @@
         <v>149</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>43</v>
@@ -6101,10 +6107,10 @@
         <v>149</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>43</v>
@@ -6229,10 +6235,10 @@
         <v>150</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>43</v>
@@ -6304,10 +6310,10 @@
         <v>149</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>43</v>
@@ -6432,10 +6438,10 @@
         <v>149</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>43</v>
@@ -6507,10 +6513,10 @@
         <v>149</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>43</v>
@@ -6635,7 +6641,7 @@
         <v>150</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>134</v>
@@ -6759,14 +6765,17 @@
       </c>
     </row>
     <row r="63" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>162</v>
+      <c r="B63" t="s">
+        <v>292</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>43</v>
@@ -6838,7 +6847,7 @@
         <v>149</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>134</v>
@@ -6913,7 +6922,7 @@
         <v>149</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>134</v>
@@ -7037,14 +7046,17 @@
       </c>
     </row>
     <row r="66" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>165</v>
+      <c r="A66" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" t="s">
+        <v>293</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>43</v>
@@ -7116,7 +7128,7 @@
         <v>149</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>134</v>
@@ -7191,7 +7203,7 @@
         <v>149</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>134</v>
@@ -7319,7 +7331,7 @@
         <v>149</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>134</v>
@@ -7394,7 +7406,7 @@
         <v>149</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>134</v>
@@ -7469,7 +7481,7 @@
         <v>149</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>134</v>
@@ -7597,7 +7609,7 @@
         <v>149</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>134</v>
@@ -7672,7 +7684,7 @@
         <v>149</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>134</v>
@@ -7747,10 +7759,10 @@
         <v>149</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>43</v>
@@ -7822,10 +7834,10 @@
         <v>149</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>43</v>
@@ -7950,10 +7962,10 @@
         <v>149</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>43</v>
@@ -8025,10 +8037,10 @@
         <v>149</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>43</v>
@@ -8153,10 +8165,10 @@
         <v>150</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>43</v>
@@ -8228,10 +8240,10 @@
         <v>149</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>43</v>
@@ -8356,10 +8368,10 @@
         <v>149</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>43</v>
@@ -8431,10 +8443,10 @@
         <v>149</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>43</v>
@@ -8559,10 +8571,10 @@
         <v>150</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>43</v>
@@ -8634,10 +8646,10 @@
         <v>149</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>43</v>
@@ -8762,10 +8774,10 @@
         <v>149</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>43</v>
@@ -8837,10 +8849,10 @@
         <v>149</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>43</v>
@@ -8965,7 +8977,7 @@
         <v>150</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>135</v>
@@ -9093,7 +9105,7 @@
         <v>149</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>135</v>
@@ -9168,7 +9180,7 @@
         <v>149</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>135</v>
@@ -9243,7 +9255,7 @@
         <v>149</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>135</v>
@@ -9371,7 +9383,7 @@
         <v>149</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>135</v>
@@ -9446,7 +9458,7 @@
         <v>149</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>135</v>
@@ -9521,7 +9533,7 @@
         <v>149</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>135</v>
@@ -9649,7 +9661,7 @@
         <v>149</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>135</v>
@@ -9724,7 +9736,7 @@
         <v>149</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>135</v>
@@ -9799,7 +9811,7 @@
         <v>149</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>135</v>
@@ -9927,7 +9939,7 @@
         <v>149</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>135</v>
@@ -10002,7 +10014,7 @@
         <v>149</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>135</v>
@@ -10077,10 +10089,10 @@
         <v>150</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>43</v>
@@ -10132,10 +10144,10 @@
         <v>149</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>43</v>
@@ -10187,10 +10199,10 @@
         <v>149</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>43</v>
@@ -10242,7 +10254,7 @@
         <v>149</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>136</v>
@@ -10297,7 +10309,7 @@
         <v>149</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>136</v>
@@ -10352,7 +10364,7 @@
         <v>149</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>136</v>
@@ -10407,10 +10419,10 @@
         <v>149</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>43</v>
@@ -10447,10 +10459,10 @@
         <v>150</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>43</v>
@@ -10487,10 +10499,10 @@
         <v>149</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>43</v>
@@ -10530,10 +10542,13 @@
         <v>149</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>43</v>
@@ -10569,14 +10584,17 @@
       <c r="AX107" s="2"/>
     </row>
     <row r="108" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="A108" t="s">
         <v>149</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>253</v>
+      <c r="B108" t="s">
+        <v>294</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>43</v>
@@ -10613,10 +10631,13 @@
         <v>150</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>43</v>
@@ -10653,10 +10674,13 @@
         <v>149</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>43</v>
@@ -10696,10 +10720,13 @@
         <v>149</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>43</v>
@@ -10735,14 +10762,17 @@
       <c r="AX111" s="2"/>
     </row>
     <row r="112" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="A112" t="s">
         <v>149</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>257</v>
+      <c r="B112" t="s">
+        <v>295</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>43</v>
@@ -10779,10 +10809,13 @@
         <v>150</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>43</v>
@@ -10819,10 +10852,13 @@
         <v>149</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>43</v>
@@ -10862,10 +10898,13 @@
         <v>149</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>43</v>
@@ -10905,13 +10944,13 @@
         <v>149</v>
       </c>
       <c r="B116" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>43</v>
@@ -10920,7 +10959,7 @@
         <v>44</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>45</v>
@@ -10959,7 +10998,7 @@
         <v>54</v>
       </c>
       <c r="V116" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="W116" s="1" t="s">
         <v>102</v>
@@ -11025,13 +11064,13 @@
         <v>149</v>
       </c>
       <c r="B117" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>43</v>
@@ -11040,7 +11079,7 @@
         <v>44</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>45</v>
@@ -11079,7 +11118,7 @@
         <v>54</v>
       </c>
       <c r="V117" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="W117" s="1" t="s">
         <v>102</v>
@@ -11145,13 +11184,13 @@
         <v>149</v>
       </c>
       <c r="B118" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>43</v>
@@ -11160,7 +11199,7 @@
         <v>44</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>45</v>
@@ -11199,7 +11238,7 @@
         <v>54</v>
       </c>
       <c r="V118" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="W118" s="1" t="s">
         <v>102</v>
@@ -11265,13 +11304,13 @@
         <v>149</v>
       </c>
       <c r="B119" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>43</v>
@@ -11280,7 +11319,7 @@
         <v>44</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>45</v>
@@ -11319,7 +11358,7 @@
         <v>54</v>
       </c>
       <c r="V119" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="W119" s="1" t="s">
         <v>102</v>
@@ -11385,13 +11424,13 @@
         <v>149</v>
       </c>
       <c r="B120" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>43</v>
@@ -11400,7 +11439,7 @@
         <v>44</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>45</v>
@@ -11439,7 +11478,7 @@
         <v>54</v>
       </c>
       <c r="V120" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="W120" s="1" t="s">
         <v>102</v>
@@ -11505,13 +11544,13 @@
         <v>149</v>
       </c>
       <c r="B121" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>43</v>
@@ -11520,7 +11559,7 @@
         <v>44</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>45</v>
@@ -11559,7 +11598,7 @@
         <v>54</v>
       </c>
       <c r="V121" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="W121" s="1" t="s">
         <v>102</v>
@@ -11625,13 +11664,13 @@
         <v>149</v>
       </c>
       <c r="B122" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>43</v>
@@ -11640,7 +11679,7 @@
         <v>44</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>45</v>
@@ -11679,7 +11718,7 @@
         <v>54</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="W122" s="1" t="s">
         <v>102</v>
@@ -11745,13 +11784,13 @@
         <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>43</v>
@@ -11760,7 +11799,7 @@
         <v>44</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>45</v>
@@ -11799,7 +11838,7 @@
         <v>54</v>
       </c>
       <c r="V123" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="W123" s="1" t="s">
         <v>102</v>
@@ -11865,13 +11904,13 @@
         <v>149</v>
       </c>
       <c r="B124" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>43</v>
@@ -11880,7 +11919,7 @@
         <v>44</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>45</v>
@@ -11919,7 +11958,7 @@
         <v>54</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="W124" s="1" t="s">
         <v>102</v>
@@ -11985,13 +12024,13 @@
         <v>149</v>
       </c>
       <c r="B125" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>43</v>
@@ -12000,7 +12039,7 @@
         <v>44</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>45</v>
@@ -12039,7 +12078,7 @@
         <v>54</v>
       </c>
       <c r="V125" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="W125" s="1" t="s">
         <v>102</v>
@@ -12105,13 +12144,13 @@
         <v>149</v>
       </c>
       <c r="B126" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>43</v>
@@ -12120,7 +12159,7 @@
         <v>44</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>45</v>
@@ -12159,7 +12198,7 @@
         <v>54</v>
       </c>
       <c r="V126" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="W126" s="1" t="s">
         <v>102</v>
@@ -12225,13 +12264,13 @@
         <v>149</v>
       </c>
       <c r="B127" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>43</v>
@@ -12240,7 +12279,7 @@
         <v>44</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>45</v>
@@ -12279,7 +12318,7 @@
         <v>54</v>
       </c>
       <c r="V127" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="W127" s="1" t="s">
         <v>102</v>
@@ -12345,10 +12384,13 @@
         <v>149</v>
       </c>
       <c r="B128" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>43</v>
@@ -12357,13 +12399,13 @@
         <v>44</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>47</v>
@@ -12396,7 +12438,7 @@
         <v>54</v>
       </c>
       <c r="V128" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="W128" s="1" t="s">
         <v>102</v>
@@ -12461,7 +12503,10 @@
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>43</v>
@@ -12470,13 +12515,13 @@
         <v>44</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>47</v>
@@ -12509,7 +12554,7 @@
         <v>54</v>
       </c>
       <c r="V129" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="W129" s="1" t="s">
         <v>102</v>
@@ -12574,7 +12619,10 @@
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>43</v>
@@ -12583,13 +12631,13 @@
         <v>44</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>47</v>
@@ -12622,7 +12670,7 @@
         <v>54</v>
       </c>
       <c r="V130" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="W130" s="1" t="s">
         <v>102</v>
@@ -12687,7 +12735,10 @@
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>43</v>
@@ -12696,13 +12747,13 @@
         <v>44</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>47</v>
@@ -12735,7 +12786,7 @@
         <v>54</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="W131" s="1" t="s">
         <v>102</v>
@@ -12800,7 +12851,10 @@
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>43</v>
@@ -12809,13 +12863,13 @@
         <v>44</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>47</v>
@@ -12848,7 +12902,7 @@
         <v>54</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="W132" s="1" t="s">
         <v>102</v>
@@ -12913,7 +12967,10 @@
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>43</v>
@@ -12922,13 +12979,13 @@
         <v>44</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>47</v>
@@ -12961,7 +13018,7 @@
         <v>54</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="W133" s="1" t="s">
         <v>102</v>
@@ -13026,7 +13083,10 @@
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>43</v>
@@ -13035,13 +13095,13 @@
         <v>44</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>47</v>
@@ -13074,7 +13134,7 @@
         <v>54</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="W134" s="1" t="s">
         <v>102</v>
@@ -13139,7 +13199,10 @@
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>43</v>
@@ -13148,13 +13211,13 @@
         <v>44</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>47</v>
@@ -13187,7 +13250,7 @@
         <v>54</v>
       </c>
       <c r="V135" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="W135" s="1" t="s">
         <v>102</v>
@@ -13252,7 +13315,10 @@
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>43</v>
@@ -13261,13 +13327,13 @@
         <v>44</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>47</v>
@@ -13300,7 +13366,7 @@
         <v>54</v>
       </c>
       <c r="V136" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="W136" s="1" t="s">
         <v>102</v>
@@ -13365,7 +13431,10 @@
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>43</v>
@@ -13374,13 +13443,13 @@
         <v>44</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>47</v>
@@ -13413,7 +13482,7 @@
         <v>54</v>
       </c>
       <c r="V137" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="W137" s="1" t="s">
         <v>102</v>
@@ -13478,7 +13547,10 @@
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>43</v>
@@ -13487,13 +13559,13 @@
         <v>44</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>47</v>
@@ -13526,7 +13598,7 @@
         <v>54</v>
       </c>
       <c r="V138" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="W138" s="1" t="s">
         <v>102</v>
@@ -13591,7 +13663,10 @@
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>43</v>
@@ -13600,13 +13675,13 @@
         <v>44</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>47</v>
@@ -13639,7 +13714,7 @@
         <v>54</v>
       </c>
       <c r="V139" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="W139" s="1" t="s">
         <v>102</v>
@@ -13701,10 +13776,13 @@
       <c r="AX139" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G115" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}"/>
+  <autoFilter ref="G1:G139" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -23190,6 +23268,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -23424,5 +23505,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/KatalonData/VLinkCCTestData.xlsx
+++ b/KatalonData/VLinkCCTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADE7323-F9FC-40C5-9A4A-D8B53ECD8BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ED0D91-4A68-4EFB-9DBA-09976FCE20DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25110" yWindow="1410" windowWidth="23250" windowHeight="14730" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
   </bookViews>
   <sheets>
     <sheet name="CCSaleData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="AuthAndCaptureData" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CCSaleData!$G$1:$G$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CCSaleData!$A$1:$A$139</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7061" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7184" uniqueCount="310">
   <si>
     <t>Notes</t>
   </si>
@@ -493,120 +493,12 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Sun Oct 31 13:58:17 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 13:59:18 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:00:22 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:01:26 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:02:27 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:03:30 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:04:31 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:05:34 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:07:37 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:08:40 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:24:04 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:25:06 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:27:09 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:28:12 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:29:13 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:30:16 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:31:18 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:32:20 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:33:22 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:47:41 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:48:43 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:49:45 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:50:47 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:51:49 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:52:50 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:53:52 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:54:54 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:55:56 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:56:58 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 14:58:00 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 15:02:05 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 15:03:08 EDT 2021</t>
-  </si>
-  <si>
-    <t>Sun Oct 31 15:04:10 EDT 2021</t>
-  </si>
-  <si>
     <t>Execute</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Mon Apr 04 14:11:02 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 04 14:11:54 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 04 14:12:48 EDT 2022</t>
-  </si>
-  <si>
     <t>FDMS</t>
   </si>
   <si>
@@ -631,180 +523,6 @@
     <t>Unencypted track1 And 2 data FDMS</t>
   </si>
   <si>
-    <t>Mon Apr 18 12:31:00 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:31:46 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:32:32 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:33:18 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:34:05 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:34:50 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:35:35 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:36:22 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:37:08 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:37:54 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:38:41 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:39:26 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:40:12 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:40:59 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:41:45 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:42:31 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:43:17 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:44:04 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:44:50 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:45:39 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:46:25 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:47:11 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:48:44 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:49:31 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:50:17 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:51:03 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:51:48 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:52:35 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:53:21 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:54:07 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:54:52 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:55:38 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:56:24 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:57:11 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:57:57 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:58:43 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 12:59:28 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:00:15 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:00:59 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:01:46 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:02:32 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:03:18 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:04:03 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:04:49 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:05:35 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:06:22 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:07:09 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:07:55 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:08:41 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:09:28 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:10:12 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:10:57 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:12:30 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:13:14 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:14:01 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:15:34 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:16:18 EDT 2022</t>
-  </si>
-  <si>
-    <t>Mon Apr 18 13:17:04 EDT 2022</t>
-  </si>
-  <si>
     <t>TSYS CPS</t>
   </si>
   <si>
@@ -835,103 +553,421 @@
     <t>Vantiv CPS</t>
   </si>
   <si>
-    <t>Tue Sep 06 17:22:23 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Sep 06 17:25:13 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Sep 06 17:28:01 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Sep 06 17:30:49 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Sep 06 17:33:38 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Sep 06 17:36:26 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Sep 06 17:39:15 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Sep 06 17:42:03 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Sep 06 17:44:51 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Sep 06 17:47:40 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Sep 06 17:50:28 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Sep 06 17:53:17 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Sep 06 17:56:05 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Sep 21 12:09:16 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Sep 23 12:12:02 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Sep 23 12:12:45 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Sep 23 12:13:27 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Sep 23 12:14:10 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Sep 23 12:14:52 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Sep 23 12:15:34 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Sep 23 12:16:16 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Sep 23 12:16:58 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Sep 23 12:17:40 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Sep 23 12:18:22 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Sep 23 12:19:04 EDT 2022</t>
-  </si>
-  <si>
-    <t>Fri Dec 16 17:00:46 EST 2022</t>
-  </si>
-  <si>
-    <t>Fri Dec 16 17:01:43 EST 2022</t>
-  </si>
-  <si>
-    <t>Fri Dec 16 17:02:33 EST 2022</t>
-  </si>
-  <si>
-    <t>Fri Dec 16 17:03:25 EST 2022</t>
-  </si>
-  <si>
-    <t>Fri Dec 16 17:04:39 EST 2022</t>
-  </si>
-  <si>
-    <t>Fri Dec 16 17:05:31 EST 2022</t>
-  </si>
-  <si>
-    <t>Fri Dec 16 17:06:23 EST 2022</t>
-  </si>
-  <si>
-    <t>Fri Dec 16 17:07:18 EST 2022</t>
+    <t>Fri Feb 17 20:38:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:39:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:39:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:40:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:41:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:41:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:42:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:43:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:44:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:44:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:45:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:46:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:46:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:47:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:48:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:49:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:49:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:50:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:51:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:51:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:52:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:53:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:53:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:54:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:55:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:56:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:56:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:57:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:58:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:58:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 20:59:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:00:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:01:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:02:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:03:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:04:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:04:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:05:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:06:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:07:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:07:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:08:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:09:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:09:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:10:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:11:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:12:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:12:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:13:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:14:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:14:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:15:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:16:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:17:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:17:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:19:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:20:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:20:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:21:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:22:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:23:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:23:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:24:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:25:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:25:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:26:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:27:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:28:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:28:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:29:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:30:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:31:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:31:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:32:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:33:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:33:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:34:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:35:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:36:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:37:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:38:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:39:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:39:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:40:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:41:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:42:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:42:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:43:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:44:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:44:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:45:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:46:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:47:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:47:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:48:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:49:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:50:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:51:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:52:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:53:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:54:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:54:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:56:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:57:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:57:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:58:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:59:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 21:59:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 22:00:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 22:01:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 22:02:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 22:02:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 22:03:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 22:04:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 22:04:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 22:05:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 14:30:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 14:31:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 14:32:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 14:33:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 14:33:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 14:34:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 14:35:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 14:35:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 14:36:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 14:37:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 14:37:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 14:38:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 16:02:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 16:03:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 16:04:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 16:04:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 16:07:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 16:08:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 16:09:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 16:09:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 16:10:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 16:11:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Do not Execute Fails</t>
   </si>
 </sst>
 </file>
@@ -988,13 +1024,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1312,8 +1347,8 @@
   <dimension ref="A1:AX139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107:D139"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D114" sqref="D114:D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1530,13 +1565,16 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>43</v>
@@ -1647,13 +1685,16 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>43</v>
@@ -1711,13 +1752,16 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>43</v>
@@ -1775,13 +1819,16 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>43</v>
@@ -1892,13 +1939,16 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>43</v>
@@ -1956,13 +2006,16 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>43</v>
@@ -2020,13 +2073,16 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>173</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>43</v>
@@ -2137,13 +2193,16 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
@@ -2201,13 +2260,16 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>175</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>43</v>
@@ -2265,13 +2327,16 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>176</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>43</v>
@@ -2382,13 +2447,16 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>177</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>43</v>
@@ -2446,13 +2514,16 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>178</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>43</v>
@@ -2510,13 +2581,16 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>43</v>
@@ -2627,13 +2701,16 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>277</v>
+        <v>180</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>43</v>
@@ -2690,14 +2767,17 @@
       <c r="AX15" s="2"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>197</v>
+      <c r="B16" t="s">
+        <v>181</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>43</v>
@@ -2754,14 +2834,17 @@
       <c r="AX16" s="2"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>198</v>
+      <c r="B17" t="s">
+        <v>182</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>43</v>
@@ -2871,14 +2954,17 @@
       <c r="AX17" s="2"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>149</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>199</v>
+      <c r="B18" t="s">
+        <v>183</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>43</v>
@@ -2935,14 +3021,17 @@
       <c r="AX18" s="2"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>200</v>
+      <c r="B19" t="s">
+        <v>184</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>43</v>
@@ -2999,14 +3088,17 @@
       <c r="AX19" s="2"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>149</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>201</v>
+      <c r="B20" t="s">
+        <v>185</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>43</v>
@@ -3116,14 +3208,17 @@
       <c r="AX20" s="2"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>202</v>
+      <c r="B21" t="s">
+        <v>186</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>43</v>
@@ -3180,14 +3275,17 @@
       <c r="AX21" s="2"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>203</v>
+      <c r="B22" t="s">
+        <v>187</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>43</v>
@@ -3244,14 +3342,17 @@
       <c r="AX22" s="2"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>149</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>204</v>
+      <c r="B23" t="s">
+        <v>188</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>43</v>
@@ -3361,14 +3462,17 @@
       <c r="AX23" s="2"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
         <v>149</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>205</v>
+      <c r="B24" t="s">
+        <v>189</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>43</v>
@@ -3425,14 +3529,17 @@
       <c r="AX24" s="2"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>206</v>
+      <c r="B25" t="s">
+        <v>190</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>43</v>
@@ -3489,14 +3596,17 @@
       <c r="AX25" s="2"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>207</v>
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" t="s">
+        <v>191</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>43</v>
@@ -3606,14 +3716,17 @@
       <c r="AX26" s="2"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" t="s">
         <v>149</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>208</v>
+      <c r="B27" t="s">
+        <v>192</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>43</v>
@@ -3670,14 +3783,17 @@
       <c r="AX27" s="2"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>209</v>
+      <c r="B28" t="s">
+        <v>193</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>43</v>
@@ -3734,14 +3850,17 @@
       <c r="AX28" s="2"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>210</v>
+      <c r="B29" t="s">
+        <v>194</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>43</v>
@@ -3851,14 +3970,17 @@
       <c r="AX29" s="2"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>211</v>
+      <c r="B30" t="s">
+        <v>195</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>43</v>
@@ -3915,14 +4037,17 @@
       <c r="AX30" s="2"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>212</v>
+      <c r="B31" t="s">
+        <v>196</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>43</v>
@@ -3979,14 +4104,17 @@
       <c r="AX31" s="2"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>213</v>
+      <c r="B32" t="s">
+        <v>197</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>43</v>
@@ -4096,14 +4224,17 @@
       <c r="AX32" s="2"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>214</v>
+      <c r="B33" t="s">
+        <v>198</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>43</v>
@@ -4160,14 +4291,17 @@
       <c r="AX33" s="2"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>215</v>
+      <c r="B34" t="s">
+        <v>199</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>43</v>
@@ -4224,14 +4358,17 @@
       <c r="AX34" s="2"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>216</v>
+      <c r="B35" t="s">
+        <v>200</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>43</v>
@@ -4341,14 +4478,17 @@
       <c r="AX35" s="2"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>217</v>
+      <c r="B36" t="s">
+        <v>201</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>43</v>
@@ -4405,14 +4545,17 @@
       <c r="AX36" s="2"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>218</v>
+      <c r="B37" t="s">
+        <v>202</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>43</v>
@@ -4469,11 +4612,14 @@
       <c r="AX37" s="2"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>186</v>
+      <c r="B38" t="s">
+        <v>303</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>43</v>
@@ -4583,11 +4729,14 @@
       <c r="AX38" s="2"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>151</v>
+      <c r="B39" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>43</v>
@@ -4644,10 +4793,13 @@
       <c r="AX39" s="2"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -4705,11 +4857,14 @@
       <c r="AX40" s="2"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" t="s">
         <v>149</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>153</v>
+      <c r="B41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>43</v>
@@ -4819,11 +4974,14 @@
       <c r="AX41" s="2"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" t="s">
         <v>149</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>154</v>
+      <c r="B42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>43</v>
@@ -4880,11 +5038,14 @@
       <c r="AX42" s="2"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" t="s">
         <v>149</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>155</v>
+      <c r="B43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>43</v>
@@ -4941,11 +5102,14 @@
       <c r="AX43" s="2"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>156</v>
+      <c r="B44" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>43</v>
@@ -5055,11 +5219,14 @@
       <c r="AX44" s="2"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>157</v>
+      <c r="B45" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>43</v>
@@ -5116,11 +5283,14 @@
       <c r="AX45" s="2"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>158</v>
+      <c r="B46" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>43</v>
@@ -5181,10 +5351,10 @@
         <v>149</v>
       </c>
       <c r="B47" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>43</v>
@@ -5294,11 +5464,14 @@
       <c r="AX47" s="2"/>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>159</v>
+      <c r="B48" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>43</v>
@@ -5355,11 +5528,14 @@
       <c r="AX48" s="2"/>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>160</v>
+      <c r="B49" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>43</v>
@@ -5417,16 +5593,16 @@
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>43</v>
@@ -5494,14 +5670,17 @@
       </c>
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>219</v>
+      <c r="B51" t="s">
+        <v>215</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>190</v>
+        <v>154</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>43</v>
@@ -5622,14 +5801,17 @@
       </c>
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" t="s">
         <v>149</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>220</v>
+      <c r="B52" t="s">
+        <v>216</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>190</v>
+        <v>154</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>43</v>
@@ -5697,14 +5879,17 @@
       </c>
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" t="s">
         <v>149</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>221</v>
+      <c r="B53" t="s">
+        <v>217</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>190</v>
+        <v>154</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>43</v>
@@ -5825,14 +6010,17 @@
       </c>
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>222</v>
+      <c r="A54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" t="s">
+        <v>218</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>190</v>
+        <v>154</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>43</v>
@@ -5900,14 +6088,17 @@
       </c>
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" t="s">
         <v>149</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>223</v>
+      <c r="B55" t="s">
+        <v>219</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>190</v>
+        <v>154</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>43</v>
@@ -6028,14 +6219,17 @@
       </c>
     </row>
     <row r="56" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" t="s">
         <v>149</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>224</v>
+      <c r="B56" t="s">
+        <v>220</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>190</v>
+        <v>154</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>43</v>
@@ -6103,14 +6297,17 @@
       </c>
     </row>
     <row r="57" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" t="s">
         <v>149</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>225</v>
+      <c r="B57" t="s">
+        <v>221</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>190</v>
+        <v>154</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>43</v>
@@ -6231,14 +6428,17 @@
       </c>
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>226</v>
+      <c r="A58" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" t="s">
+        <v>222</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>190</v>
+        <v>154</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>43</v>
@@ -6306,14 +6506,17 @@
       </c>
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" t="s">
         <v>149</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>227</v>
+      <c r="B59" t="s">
+        <v>223</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>190</v>
+        <v>154</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>43</v>
@@ -6434,14 +6637,17 @@
       </c>
     </row>
     <row r="60" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>228</v>
+      <c r="B60" t="s">
+        <v>224</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>190</v>
+        <v>154</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>43</v>
@@ -6509,14 +6715,17 @@
       </c>
     </row>
     <row r="61" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>229</v>
+      <c r="B61" t="s">
+        <v>225</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>190</v>
+        <v>154</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>43</v>
@@ -6637,14 +6846,17 @@
       </c>
     </row>
     <row r="62" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" t="s">
         <v>150</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>187</v>
+      <c r="B62" t="s">
+        <v>304</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>43</v>
@@ -6769,13 +6981,13 @@
         <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>43</v>
@@ -6843,14 +7055,17 @@
       </c>
     </row>
     <row r="64" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" t="s">
         <v>149</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>161</v>
+      <c r="B64" t="s">
+        <v>227</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>43</v>
@@ -6918,15 +7133,18 @@
       </c>
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" t="s">
         <v>149</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>162</v>
+      <c r="B65" t="s">
+        <v>228</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="D65" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E65" s="1" t="s">
         <v>43</v>
       </c>
@@ -7047,16 +7265,16 @@
     </row>
     <row r="66" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B66" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>43</v>
@@ -7124,14 +7342,17 @@
       </c>
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>163</v>
+      <c r="B67" t="s">
+        <v>230</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>43</v>
@@ -7199,15 +7420,18 @@
       </c>
     </row>
     <row r="68" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" t="s">
         <v>149</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>164</v>
+      <c r="B68" t="s">
+        <v>231</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="D68" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E68" s="1" t="s">
         <v>43</v>
       </c>
@@ -7327,14 +7551,17 @@
       </c>
     </row>
     <row r="69" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" t="s">
         <v>149</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>165</v>
+      <c r="B69" t="s">
+        <v>232</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>43</v>
@@ -7402,14 +7629,17 @@
       </c>
     </row>
     <row r="70" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>166</v>
+      <c r="B70" t="s">
+        <v>233</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>43</v>
@@ -7477,15 +7707,18 @@
       </c>
     </row>
     <row r="71" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" t="s">
         <v>149</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>167</v>
+      <c r="B71" t="s">
+        <v>234</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="D71" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E71" s="1" t="s">
         <v>43</v>
       </c>
@@ -7605,14 +7838,17 @@
       </c>
     </row>
     <row r="72" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" t="s">
         <v>149</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>168</v>
+      <c r="B72" t="s">
+        <v>235</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>43</v>
@@ -7680,14 +7916,17 @@
       </c>
     </row>
     <row r="73" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" t="s">
         <v>149</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>169</v>
+      <c r="B73" t="s">
+        <v>236</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>43</v>
@@ -7755,14 +7994,17 @@
       </c>
     </row>
     <row r="74" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>230</v>
+      <c r="B74" t="s">
+        <v>237</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>43</v>
@@ -7830,14 +8072,17 @@
       </c>
     </row>
     <row r="75" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>231</v>
+      <c r="B75" t="s">
+        <v>238</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>43</v>
@@ -7958,14 +8203,17 @@
       </c>
     </row>
     <row r="76" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" t="s">
         <v>149</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>232</v>
+      <c r="B76" t="s">
+        <v>239</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>43</v>
@@ -8033,14 +8281,17 @@
       </c>
     </row>
     <row r="77" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>233</v>
+      <c r="B77" t="s">
+        <v>240</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>43</v>
@@ -8161,14 +8412,17 @@
       </c>
     </row>
     <row r="78" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>234</v>
+      <c r="A78" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" t="s">
+        <v>241</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>43</v>
@@ -8236,14 +8490,17 @@
       </c>
     </row>
     <row r="79" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" t="s">
         <v>149</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>235</v>
+      <c r="B79" t="s">
+        <v>242</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>43</v>
@@ -8364,14 +8621,17 @@
       </c>
     </row>
     <row r="80" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" t="s">
         <v>149</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>236</v>
+      <c r="B80" t="s">
+        <v>243</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>43</v>
@@ -8439,14 +8699,17 @@
       </c>
     </row>
     <row r="81" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" t="s">
         <v>149</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>237</v>
+      <c r="B81" t="s">
+        <v>244</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>43</v>
@@ -8567,14 +8830,17 @@
       </c>
     </row>
     <row r="82" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>238</v>
+      <c r="A82" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" t="s">
+        <v>245</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>43</v>
@@ -8642,14 +8908,17 @@
       </c>
     </row>
     <row r="83" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="A83" t="s">
         <v>149</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>239</v>
+      <c r="B83" t="s">
+        <v>246</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>43</v>
@@ -8770,14 +9039,17 @@
       </c>
     </row>
     <row r="84" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="A84" t="s">
         <v>149</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>240</v>
+      <c r="B84" t="s">
+        <v>247</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>43</v>
@@ -8845,14 +9117,17 @@
       </c>
     </row>
     <row r="85" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="A85" t="s">
         <v>149</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>241</v>
+      <c r="B85" t="s">
+        <v>248</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>43</v>
@@ -8973,15 +9248,18 @@
       </c>
     </row>
     <row r="86" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="A86" t="s">
         <v>150</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>188</v>
+      <c r="B86" t="s">
+        <v>305</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D86" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="E86" s="1" t="s">
         <v>43</v>
       </c>
@@ -9101,14 +9379,17 @@
       </c>
     </row>
     <row r="87" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" t="s">
         <v>149</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>170</v>
+      <c r="B87" t="s">
+        <v>249</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>43</v>
@@ -9176,14 +9457,17 @@
       </c>
     </row>
     <row r="88" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" t="s">
         <v>149</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>171</v>
+      <c r="B88" t="s">
+        <v>250</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>43</v>
@@ -9251,15 +9535,18 @@
       </c>
     </row>
     <row r="89" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>172</v>
+      <c r="B89" t="s">
+        <v>251</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D89" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E89" s="1" t="s">
         <v>43</v>
       </c>
@@ -9379,14 +9666,17 @@
       </c>
     </row>
     <row r="90" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="A90" t="s">
         <v>149</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>173</v>
+      <c r="B90" t="s">
+        <v>252</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>43</v>
@@ -9454,14 +9744,17 @@
       </c>
     </row>
     <row r="91" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="A91" t="s">
         <v>149</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>174</v>
+      <c r="B91" t="s">
+        <v>253</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>43</v>
@@ -9529,15 +9822,18 @@
       </c>
     </row>
     <row r="92" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>175</v>
+      <c r="B92" t="s">
+        <v>254</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D92" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E92" s="1" t="s">
         <v>43</v>
       </c>
@@ -9657,14 +9953,17 @@
       </c>
     </row>
     <row r="93" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" t="s">
         <v>149</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>176</v>
+      <c r="B93" t="s">
+        <v>255</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>43</v>
@@ -9732,14 +10031,17 @@
       </c>
     </row>
     <row r="94" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="A94" t="s">
         <v>149</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>177</v>
+      <c r="B94" t="s">
+        <v>256</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>43</v>
@@ -9807,15 +10109,18 @@
       </c>
     </row>
     <row r="95" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" t="s">
         <v>149</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>178</v>
+      <c r="B95" t="s">
+        <v>257</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D95" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E95" s="1" t="s">
         <v>43</v>
       </c>
@@ -9935,14 +10240,17 @@
       </c>
     </row>
     <row r="96" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="A96" t="s">
         <v>149</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>179</v>
+      <c r="B96" t="s">
+        <v>258</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>43</v>
@@ -10010,14 +10318,17 @@
       </c>
     </row>
     <row r="97" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" t="s">
         <v>149</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>180</v>
+      <c r="B97" t="s">
+        <v>259</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>43</v>
@@ -10085,14 +10396,17 @@
       </c>
     </row>
     <row r="98" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>242</v>
+      <c r="A98" t="s">
+        <v>149</v>
+      </c>
+      <c r="B98" t="s">
+        <v>260</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>192</v>
+        <v>156</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>43</v>
@@ -10140,14 +10454,17 @@
       <c r="AX98" s="2"/>
     </row>
     <row r="99" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" t="s">
         <v>149</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>243</v>
+      <c r="B99" t="s">
+        <v>261</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>192</v>
+        <v>156</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>43</v>
@@ -10195,14 +10512,17 @@
       <c r="AX99" s="2"/>
     </row>
     <row r="100" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="A100" t="s">
         <v>149</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>244</v>
+      <c r="B100" t="s">
+        <v>262</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>192</v>
+        <v>156</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>43</v>
@@ -10250,15 +10570,18 @@
       <c r="AX100" s="2"/>
     </row>
     <row r="101" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="A101" t="s">
         <v>149</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>181</v>
+      <c r="B101" t="s">
+        <v>263</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="D101" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E101" s="1" t="s">
         <v>43</v>
       </c>
@@ -10305,15 +10628,18 @@
       <c r="AX101" s="2"/>
     </row>
     <row r="102" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="A102" t="s">
         <v>149</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>182</v>
+      <c r="B102" t="s">
+        <v>264</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="D102" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E102" s="1" t="s">
         <v>43</v>
       </c>
@@ -10360,15 +10686,18 @@
       <c r="AX102" s="2"/>
     </row>
     <row r="103" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="A103" t="s">
         <v>149</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>183</v>
+      <c r="B103" t="s">
+        <v>265</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="D103" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E103" s="1" t="s">
         <v>43</v>
       </c>
@@ -10415,14 +10744,17 @@
       <c r="AX103" s="2"/>
     </row>
     <row r="104" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="A104" t="s">
         <v>149</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>245</v>
+      <c r="B104" t="s">
+        <v>266</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>193</v>
+        <v>157</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>43</v>
@@ -10455,14 +10787,17 @@
       <c r="AX104" s="2"/>
     </row>
     <row r="105" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" t="s">
         <v>150</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>246</v>
+      <c r="B105" t="s">
+        <v>306</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>194</v>
+        <v>158</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>43</v>
@@ -10495,14 +10830,17 @@
       <c r="AX105" s="2"/>
     </row>
     <row r="106" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="A106" t="s">
         <v>149</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>247</v>
+      <c r="B106" t="s">
+        <v>267</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>195</v>
+        <v>159</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>43</v>
@@ -10538,17 +10876,17 @@
       <c r="AX106" s="2"/>
     </row>
     <row r="107" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" t="s">
         <v>149</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>248</v>
+      <c r="B107" t="s">
+        <v>268</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>43</v>
@@ -10588,13 +10926,13 @@
         <v>149</v>
       </c>
       <c r="B108" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>43</v>
@@ -10627,17 +10965,17 @@
       <c r="AX108" s="2"/>
     </row>
     <row r="109" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="A109" t="s">
         <v>150</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>249</v>
+      <c r="B109" t="s">
+        <v>307</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>185</v>
+        <v>309</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>43</v>
@@ -10670,17 +11008,17 @@
       <c r="AX109" s="2"/>
     </row>
     <row r="110" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="A110" t="s">
         <v>149</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>250</v>
+      <c r="B110" t="s">
+        <v>270</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>43</v>
@@ -10716,17 +11054,17 @@
       <c r="AX110" s="2"/>
     </row>
     <row r="111" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="A111" t="s">
         <v>149</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>251</v>
+      <c r="B111" t="s">
+        <v>271</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>43</v>
@@ -10766,13 +11104,13 @@
         <v>149</v>
       </c>
       <c r="B112" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>43</v>
@@ -10805,17 +11143,17 @@
       <c r="AX112" s="2"/>
     </row>
     <row r="113" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+      <c r="A113" t="s">
         <v>150</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>252</v>
+      <c r="B113" t="s">
+        <v>308</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>185</v>
+        <v>309</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>43</v>
@@ -10848,17 +11186,17 @@
       <c r="AX113" s="2"/>
     </row>
     <row r="114" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+      <c r="A114" t="s">
         <v>149</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>253</v>
+      <c r="B114" t="s">
+        <v>273</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>43</v>
@@ -10894,17 +11232,17 @@
       <c r="AX114" s="2"/>
     </row>
     <row r="115" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+      <c r="A115" t="s">
         <v>149</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>254</v>
+      <c r="B115" t="s">
+        <v>274</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>43</v>
@@ -10944,13 +11282,13 @@
         <v>149</v>
       </c>
       <c r="B116" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>43</v>
@@ -10959,7 +11297,7 @@
         <v>44</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>45</v>
@@ -10998,7 +11336,7 @@
         <v>54</v>
       </c>
       <c r="V116" s="1" t="s">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="W116" s="1" t="s">
         <v>102</v>
@@ -11064,13 +11402,13 @@
         <v>149</v>
       </c>
       <c r="B117" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>43</v>
@@ -11079,7 +11417,7 @@
         <v>44</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>45</v>
@@ -11118,7 +11456,7 @@
         <v>54</v>
       </c>
       <c r="V117" s="1" t="s">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="W117" s="1" t="s">
         <v>102</v>
@@ -11184,13 +11522,13 @@
         <v>149</v>
       </c>
       <c r="B118" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>43</v>
@@ -11199,7 +11537,7 @@
         <v>44</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>45</v>
@@ -11238,7 +11576,7 @@
         <v>54</v>
       </c>
       <c r="V118" s="1" t="s">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="W118" s="1" t="s">
         <v>102</v>
@@ -11304,13 +11642,13 @@
         <v>149</v>
       </c>
       <c r="B119" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>43</v>
@@ -11319,7 +11657,7 @@
         <v>44</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>45</v>
@@ -11358,7 +11696,7 @@
         <v>54</v>
       </c>
       <c r="V119" s="1" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="W119" s="1" t="s">
         <v>102</v>
@@ -11424,13 +11762,13 @@
         <v>149</v>
       </c>
       <c r="B120" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>43</v>
@@ -11439,7 +11777,7 @@
         <v>44</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>45</v>
@@ -11478,7 +11816,7 @@
         <v>54</v>
       </c>
       <c r="V120" s="1" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="W120" s="1" t="s">
         <v>102</v>
@@ -11544,13 +11882,13 @@
         <v>149</v>
       </c>
       <c r="B121" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>43</v>
@@ -11559,7 +11897,7 @@
         <v>44</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>45</v>
@@ -11598,7 +11936,7 @@
         <v>54</v>
       </c>
       <c r="V121" s="1" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="W121" s="1" t="s">
         <v>102</v>
@@ -11664,13 +12002,13 @@
         <v>149</v>
       </c>
       <c r="B122" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>43</v>
@@ -11679,7 +12017,7 @@
         <v>44</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>45</v>
@@ -11718,7 +12056,7 @@
         <v>54</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>259</v>
+        <v>165</v>
       </c>
       <c r="W122" s="1" t="s">
         <v>102</v>
@@ -11784,13 +12122,13 @@
         <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>43</v>
@@ -11799,7 +12137,7 @@
         <v>44</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>45</v>
@@ -11838,7 +12176,7 @@
         <v>54</v>
       </c>
       <c r="V123" s="1" t="s">
-        <v>259</v>
+        <v>165</v>
       </c>
       <c r="W123" s="1" t="s">
         <v>102</v>
@@ -11904,13 +12242,13 @@
         <v>149</v>
       </c>
       <c r="B124" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>43</v>
@@ -11919,7 +12257,7 @@
         <v>44</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>45</v>
@@ -11958,7 +12296,7 @@
         <v>54</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>259</v>
+        <v>165</v>
       </c>
       <c r="W124" s="1" t="s">
         <v>102</v>
@@ -12024,13 +12362,13 @@
         <v>149</v>
       </c>
       <c r="B125" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>43</v>
@@ -12039,7 +12377,7 @@
         <v>44</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>45</v>
@@ -12078,7 +12416,7 @@
         <v>54</v>
       </c>
       <c r="V125" s="1" t="s">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="W125" s="1" t="s">
         <v>102</v>
@@ -12144,13 +12482,13 @@
         <v>149</v>
       </c>
       <c r="B126" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>43</v>
@@ -12159,7 +12497,7 @@
         <v>44</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>45</v>
@@ -12198,7 +12536,7 @@
         <v>54</v>
       </c>
       <c r="V126" s="1" t="s">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="W126" s="1" t="s">
         <v>102</v>
@@ -12264,13 +12602,13 @@
         <v>149</v>
       </c>
       <c r="B127" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>43</v>
@@ -12279,7 +12617,7 @@
         <v>44</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>45</v>
@@ -12318,7 +12656,7 @@
         <v>54</v>
       </c>
       <c r="V127" s="1" t="s">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="W127" s="1" t="s">
         <v>102</v>
@@ -12384,13 +12722,13 @@
         <v>149</v>
       </c>
       <c r="B128" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>43</v>
@@ -12399,13 +12737,13 @@
         <v>44</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>47</v>
@@ -12438,7 +12776,7 @@
         <v>54</v>
       </c>
       <c r="V128" s="1" t="s">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="W128" s="1" t="s">
         <v>102</v>
@@ -12500,13 +12838,17 @@
       <c r="AX128" s="2"/>
     </row>
     <row r="129" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+      <c r="A129" t="s">
+        <v>149</v>
+      </c>
+      <c r="B129" t="s">
+        <v>288</v>
+      </c>
       <c r="C129" s="1" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>43</v>
@@ -12515,13 +12857,13 @@
         <v>44</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>47</v>
@@ -12554,7 +12896,7 @@
         <v>54</v>
       </c>
       <c r="V129" s="1" t="s">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="W129" s="1" t="s">
         <v>102</v>
@@ -12616,13 +12958,17 @@
       <c r="AX129" s="2"/>
     </row>
     <row r="130" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+      <c r="A130" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" t="s">
+        <v>289</v>
+      </c>
       <c r="C130" s="1" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>43</v>
@@ -12631,13 +12977,13 @@
         <v>44</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>47</v>
@@ -12670,7 +13016,7 @@
         <v>54</v>
       </c>
       <c r="V130" s="1" t="s">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="W130" s="1" t="s">
         <v>102</v>
@@ -12732,13 +13078,17 @@
       <c r="AX130" s="2"/>
     </row>
     <row r="131" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
+      <c r="A131" t="s">
+        <v>149</v>
+      </c>
+      <c r="B131" t="s">
+        <v>290</v>
+      </c>
       <c r="C131" s="1" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>43</v>
@@ -12747,13 +13097,13 @@
         <v>44</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>47</v>
@@ -12786,7 +13136,7 @@
         <v>54</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="W131" s="1" t="s">
         <v>102</v>
@@ -12848,13 +13198,17 @@
       <c r="AX131" s="2"/>
     </row>
     <row r="132" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
+      <c r="A132" t="s">
+        <v>149</v>
+      </c>
+      <c r="B132" t="s">
+        <v>291</v>
+      </c>
       <c r="C132" s="1" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>43</v>
@@ -12863,13 +13217,13 @@
         <v>44</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>47</v>
@@ -12902,7 +13256,7 @@
         <v>54</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="W132" s="1" t="s">
         <v>102</v>
@@ -12964,13 +13318,17 @@
       <c r="AX132" s="2"/>
     </row>
     <row r="133" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
+      <c r="A133" t="s">
+        <v>149</v>
+      </c>
+      <c r="B133" t="s">
+        <v>292</v>
+      </c>
       <c r="C133" s="1" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>43</v>
@@ -12979,13 +13337,13 @@
         <v>44</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>47</v>
@@ -13018,7 +13376,7 @@
         <v>54</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="W133" s="1" t="s">
         <v>102</v>
@@ -13080,13 +13438,17 @@
       <c r="AX133" s="2"/>
     </row>
     <row r="134" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
+      <c r="A134" t="s">
+        <v>149</v>
+      </c>
+      <c r="B134" t="s">
+        <v>293</v>
+      </c>
       <c r="C134" s="1" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>43</v>
@@ -13095,13 +13457,13 @@
         <v>44</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>47</v>
@@ -13134,7 +13496,7 @@
         <v>54</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>259</v>
+        <v>165</v>
       </c>
       <c r="W134" s="1" t="s">
         <v>102</v>
@@ -13196,13 +13558,17 @@
       <c r="AX134" s="2"/>
     </row>
     <row r="135" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
+      <c r="A135" t="s">
+        <v>149</v>
+      </c>
+      <c r="B135" t="s">
+        <v>294</v>
+      </c>
       <c r="C135" s="1" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>43</v>
@@ -13211,13 +13577,13 @@
         <v>44</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>47</v>
@@ -13250,7 +13616,7 @@
         <v>54</v>
       </c>
       <c r="V135" s="1" t="s">
-        <v>259</v>
+        <v>165</v>
       </c>
       <c r="W135" s="1" t="s">
         <v>102</v>
@@ -13312,13 +13678,17 @@
       <c r="AX135" s="2"/>
     </row>
     <row r="136" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
+      <c r="A136" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" t="s">
+        <v>295</v>
+      </c>
       <c r="C136" s="1" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>43</v>
@@ -13327,13 +13697,13 @@
         <v>44</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>47</v>
@@ -13366,7 +13736,7 @@
         <v>54</v>
       </c>
       <c r="V136" s="1" t="s">
-        <v>259</v>
+        <v>165</v>
       </c>
       <c r="W136" s="1" t="s">
         <v>102</v>
@@ -13428,13 +13798,17 @@
       <c r="AX136" s="2"/>
     </row>
     <row r="137" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
+      <c r="A137" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" t="s">
+        <v>296</v>
+      </c>
       <c r="C137" s="1" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>43</v>
@@ -13443,13 +13817,13 @@
         <v>44</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>47</v>
@@ -13482,7 +13856,7 @@
         <v>54</v>
       </c>
       <c r="V137" s="1" t="s">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="W137" s="1" t="s">
         <v>102</v>
@@ -13544,13 +13918,17 @@
       <c r="AX137" s="2"/>
     </row>
     <row r="138" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
+      <c r="A138" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" t="s">
+        <v>297</v>
+      </c>
       <c r="C138" s="1" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>43</v>
@@ -13559,13 +13937,13 @@
         <v>44</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>47</v>
@@ -13598,7 +13976,7 @@
         <v>54</v>
       </c>
       <c r="V138" s="1" t="s">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="W138" s="1" t="s">
         <v>102</v>
@@ -13660,13 +14038,17 @@
       <c r="AX138" s="2"/>
     </row>
     <row r="139" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
+      <c r="A139" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" t="s">
+        <v>298</v>
+      </c>
       <c r="C139" s="1" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>43</v>
@@ -13675,13 +14057,13 @@
         <v>44</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>47</v>
@@ -13714,7 +14096,7 @@
         <v>54</v>
       </c>
       <c r="V139" s="1" t="s">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="W139" s="1" t="s">
         <v>102</v>
@@ -13776,7 +14158,7 @@
       <c r="AX139" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G139" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}"/>
+  <autoFilter ref="A1:A139" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KatalonData/VLinkCCTestData.xlsx
+++ b/KatalonData/VLinkCCTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ED0D91-4A68-4EFB-9DBA-09976FCE20DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5740408-2ECA-41F2-9329-9D38436D52DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
   </bookViews>
   <sheets>
     <sheet name="CCSaleData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="AuthAndCaptureData" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CCSaleData!$A$1:$A$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CCSaleData!$G$1:$G$139</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1344,11 +1344,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AX139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D114" sqref="D114:D139"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,7 +1684,7 @@
       </c>
       <c r="AX2" s="2"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -1750,7 +1751,7 @@
       <c r="AE3" s="2"/>
       <c r="AX3" s="2"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -1937,7 +1938,7 @@
       </c>
       <c r="AX5" s="2"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -2004,7 +2005,7 @@
       <c r="AE6" s="2"/>
       <c r="AX6" s="2"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -2191,7 +2192,7 @@
       </c>
       <c r="AX8" s="2"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -2258,7 +2259,7 @@
       <c r="AE9" s="2"/>
       <c r="AX9" s="2"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>149</v>
       </c>
@@ -2445,7 +2446,7 @@
       </c>
       <c r="AX11" s="2"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>149</v>
       </c>
@@ -2512,7 +2513,7 @@
       <c r="AE12" s="2"/>
       <c r="AX12" s="2"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -2699,7 +2700,7 @@
       </c>
       <c r="AX14" s="2"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -2766,7 +2767,7 @@
       <c r="AE15" s="2"/>
       <c r="AX15" s="2"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -2953,7 +2954,7 @@
       </c>
       <c r="AX17" s="2"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>149</v>
       </c>
@@ -3020,7 +3021,7 @@
       <c r="AE18" s="2"/>
       <c r="AX18" s="2"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -3207,7 +3208,7 @@
       </c>
       <c r="AX20" s="2"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -3274,7 +3275,7 @@
       <c r="AE21" s="2"/>
       <c r="AX21" s="2"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -3461,7 +3462,7 @@
       </c>
       <c r="AX23" s="2"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -3528,7 +3529,7 @@
       <c r="AE24" s="2"/>
       <c r="AX24" s="2"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -3715,7 +3716,7 @@
       </c>
       <c r="AX26" s="2"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -3782,7 +3783,7 @@
       <c r="AE27" s="2"/>
       <c r="AX27" s="2"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>149</v>
       </c>
@@ -3969,7 +3970,7 @@
       </c>
       <c r="AX29" s="2"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -4036,7 +4037,7 @@
       <c r="AE30" s="2"/>
       <c r="AX30" s="2"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -4223,7 +4224,7 @@
       </c>
       <c r="AX32" s="2"/>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -4290,7 +4291,7 @@
       <c r="AE33" s="2"/>
       <c r="AX33" s="2"/>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>149</v>
       </c>
@@ -4477,7 +4478,7 @@
       </c>
       <c r="AX35" s="2"/>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -4544,7 +4545,7 @@
       <c r="AE36" s="2"/>
       <c r="AX36" s="2"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -4611,7 +4612,7 @@
       <c r="AE37" s="2"/>
       <c r="AX37" s="2"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -4728,7 +4729,7 @@
       </c>
       <c r="AX38" s="2"/>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -4792,7 +4793,7 @@
       <c r="AE39" s="2"/>
       <c r="AX39" s="2"/>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -4856,7 +4857,7 @@
       <c r="AE40" s="2"/>
       <c r="AX40" s="2"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -4973,7 +4974,7 @@
       </c>
       <c r="AX41" s="2"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -5037,7 +5038,7 @@
       <c r="AE42" s="2"/>
       <c r="AX42" s="2"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>149</v>
       </c>
@@ -5101,7 +5102,7 @@
       <c r="AE43" s="2"/>
       <c r="AX43" s="2"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>149</v>
       </c>
@@ -5218,7 +5219,7 @@
       </c>
       <c r="AX44" s="2"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>149</v>
       </c>
@@ -5282,7 +5283,7 @@
       <c r="AE45" s="2"/>
       <c r="AX45" s="2"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>149</v>
       </c>
@@ -5346,7 +5347,7 @@
       <c r="AE46" s="2"/>
       <c r="AX46" s="2"/>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -5463,7 +5464,7 @@
       </c>
       <c r="AX47" s="2"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>149</v>
       </c>
@@ -5527,7 +5528,7 @@
       <c r="AE48" s="2"/>
       <c r="AX48" s="2"/>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -6845,7 +6846,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>150</v>
       </c>
@@ -6976,7 +6977,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>149</v>
       </c>
@@ -7054,7 +7055,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>149</v>
       </c>
@@ -7132,7 +7133,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>149</v>
       </c>
@@ -7263,7 +7264,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>149</v>
       </c>
@@ -7341,7 +7342,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>149</v>
       </c>
@@ -7419,7 +7420,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -7550,7 +7551,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -7628,7 +7629,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>149</v>
       </c>
@@ -7706,7 +7707,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -7837,7 +7838,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -7915,7 +7916,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>149</v>
       </c>
@@ -9247,7 +9248,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>150</v>
       </c>
@@ -9378,7 +9379,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>149</v>
       </c>
@@ -9456,7 +9457,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>149</v>
       </c>
@@ -9534,7 +9535,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>149</v>
       </c>
@@ -9665,7 +9666,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>149</v>
       </c>
@@ -9743,7 +9744,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>149</v>
       </c>
@@ -9821,7 +9822,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>149</v>
       </c>
@@ -9952,7 +9953,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>149</v>
       </c>
@@ -10030,7 +10031,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>149</v>
       </c>
@@ -10108,7 +10109,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>149</v>
       </c>
@@ -10239,7 +10240,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>149</v>
       </c>
@@ -10317,7 +10318,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>149</v>
       </c>
@@ -10569,7 +10570,7 @@
       <c r="AE100" s="2"/>
       <c r="AX100" s="2"/>
     </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>149</v>
       </c>
@@ -10627,7 +10628,7 @@
       <c r="AE101" s="2"/>
       <c r="AX101" s="2"/>
     </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>149</v>
       </c>
@@ -10685,7 +10686,7 @@
       <c r="AE102" s="2"/>
       <c r="AX102" s="2"/>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>149</v>
       </c>
@@ -10921,7 +10922,7 @@
       <c r="AE107" s="2"/>
       <c r="AX107" s="2"/>
     </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>149</v>
       </c>
@@ -10964,7 +10965,7 @@
       <c r="AE108" s="2"/>
       <c r="AX108" s="2"/>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>150</v>
       </c>
@@ -11007,7 +11008,7 @@
       <c r="AE109" s="2"/>
       <c r="AX109" s="2"/>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -11053,7 +11054,7 @@
       <c r="AE110" s="2"/>
       <c r="AX110" s="2"/>
     </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>149</v>
       </c>
@@ -11099,7 +11100,7 @@
       <c r="AE111" s="2"/>
       <c r="AX111" s="2"/>
     </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>149</v>
       </c>
@@ -11142,7 +11143,7 @@
       <c r="AE112" s="2"/>
       <c r="AX112" s="2"/>
     </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>150</v>
       </c>
@@ -11185,7 +11186,7 @@
       <c r="AE113" s="2"/>
       <c r="AX113" s="2"/>
     </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>149</v>
       </c>
@@ -11231,7 +11232,7 @@
       <c r="AE114" s="2"/>
       <c r="AX114" s="2"/>
     </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>149</v>
       </c>
@@ -11277,7 +11278,7 @@
       <c r="AE115" s="2"/>
       <c r="AX115" s="2"/>
     </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>149</v>
       </c>
@@ -11397,7 +11398,7 @@
       </c>
       <c r="AX116" s="2"/>
     </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>149</v>
       </c>
@@ -11517,7 +11518,7 @@
       </c>
       <c r="AX117" s="2"/>
     </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>149</v>
       </c>
@@ -11637,7 +11638,7 @@
       </c>
       <c r="AX118" s="2"/>
     </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>149</v>
       </c>
@@ -11757,7 +11758,7 @@
       </c>
       <c r="AX119" s="2"/>
     </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>149</v>
       </c>
@@ -11877,7 +11878,7 @@
       </c>
       <c r="AX120" s="2"/>
     </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>149</v>
       </c>
@@ -11997,7 +11998,7 @@
       </c>
       <c r="AX121" s="2"/>
     </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>149</v>
       </c>
@@ -12117,7 +12118,7 @@
       </c>
       <c r="AX122" s="2"/>
     </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>149</v>
       </c>
@@ -12237,7 +12238,7 @@
       </c>
       <c r="AX123" s="2"/>
     </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>149</v>
       </c>
@@ -12357,7 +12358,7 @@
       </c>
       <c r="AX124" s="2"/>
     </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>149</v>
       </c>
@@ -12477,7 +12478,7 @@
       </c>
       <c r="AX125" s="2"/>
     </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>149</v>
       </c>
@@ -12597,7 +12598,7 @@
       </c>
       <c r="AX126" s="2"/>
     </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>149</v>
       </c>
@@ -12717,7 +12718,7 @@
       </c>
       <c r="AX127" s="2"/>
     </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>149</v>
       </c>
@@ -12837,7 +12838,7 @@
       </c>
       <c r="AX128" s="2"/>
     </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>149</v>
       </c>
@@ -12957,7 +12958,7 @@
       </c>
       <c r="AX129" s="2"/>
     </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -13077,7 +13078,7 @@
       </c>
       <c r="AX130" s="2"/>
     </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>149</v>
       </c>
@@ -13197,7 +13198,7 @@
       </c>
       <c r="AX131" s="2"/>
     </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>149</v>
       </c>
@@ -13317,7 +13318,7 @@
       </c>
       <c r="AX132" s="2"/>
     </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>149</v>
       </c>
@@ -13437,7 +13438,7 @@
       </c>
       <c r="AX133" s="2"/>
     </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>149</v>
       </c>
@@ -13557,7 +13558,7 @@
       </c>
       <c r="AX134" s="2"/>
     </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -13677,7 +13678,7 @@
       </c>
       <c r="AX135" s="2"/>
     </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -13797,7 +13798,7 @@
       </c>
       <c r="AX136" s="2"/>
     </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -13917,7 +13918,7 @@
       </c>
       <c r="AX137" s="2"/>
     </row>
-    <row r="138" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -14037,7 +14038,7 @@
       </c>
       <c r="AX138" s="2"/>
     </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>149</v>
       </c>
@@ -14158,7 +14159,13 @@
       <c r="AX139" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A139" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}"/>
+  <autoFilter ref="G1:G139" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="665"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KatalonData/VLinkCCTestData.xlsx
+++ b/KatalonData/VLinkCCTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5740408-2ECA-41F2-9329-9D38436D52DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B23CCB-F526-438A-8882-3C8FE958A62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
+    <workbookView xWindow="-18825" yWindow="1950" windowWidth="15435" windowHeight="11970" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
   </bookViews>
   <sheets>
     <sheet name="CCSaleData" sheetId="1" r:id="rId1"/>
@@ -1344,7 +1344,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AX139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1684,7 +1683,7 @@
       </c>
       <c r="AX2" s="2"/>
     </row>
-    <row r="3" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -1751,7 +1750,7 @@
       <c r="AE3" s="2"/>
       <c r="AX3" s="2"/>
     </row>
-    <row r="4" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -1938,7 +1937,7 @@
       </c>
       <c r="AX5" s="2"/>
     </row>
-    <row r="6" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -2005,7 +2004,7 @@
       <c r="AE6" s="2"/>
       <c r="AX6" s="2"/>
     </row>
-    <row r="7" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -2192,7 +2191,7 @@
       </c>
       <c r="AX8" s="2"/>
     </row>
-    <row r="9" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -2259,7 +2258,7 @@
       <c r="AE9" s="2"/>
       <c r="AX9" s="2"/>
     </row>
-    <row r="10" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>149</v>
       </c>
@@ -2446,7 +2445,7 @@
       </c>
       <c r="AX11" s="2"/>
     </row>
-    <row r="12" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>149</v>
       </c>
@@ -2513,7 +2512,7 @@
       <c r="AE12" s="2"/>
       <c r="AX12" s="2"/>
     </row>
-    <row r="13" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -2700,7 +2699,7 @@
       </c>
       <c r="AX14" s="2"/>
     </row>
-    <row r="15" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -2767,7 +2766,7 @@
       <c r="AE15" s="2"/>
       <c r="AX15" s="2"/>
     </row>
-    <row r="16" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -2954,7 +2953,7 @@
       </c>
       <c r="AX17" s="2"/>
     </row>
-    <row r="18" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>149</v>
       </c>
@@ -3021,7 +3020,7 @@
       <c r="AE18" s="2"/>
       <c r="AX18" s="2"/>
     </row>
-    <row r="19" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -3208,7 +3207,7 @@
       </c>
       <c r="AX20" s="2"/>
     </row>
-    <row r="21" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -3275,7 +3274,7 @@
       <c r="AE21" s="2"/>
       <c r="AX21" s="2"/>
     </row>
-    <row r="22" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -3462,7 +3461,7 @@
       </c>
       <c r="AX23" s="2"/>
     </row>
-    <row r="24" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -3529,7 +3528,7 @@
       <c r="AE24" s="2"/>
       <c r="AX24" s="2"/>
     </row>
-    <row r="25" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -3716,7 +3715,7 @@
       </c>
       <c r="AX26" s="2"/>
     </row>
-    <row r="27" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -3783,7 +3782,7 @@
       <c r="AE27" s="2"/>
       <c r="AX27" s="2"/>
     </row>
-    <row r="28" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>149</v>
       </c>
@@ -3970,7 +3969,7 @@
       </c>
       <c r="AX29" s="2"/>
     </row>
-    <row r="30" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -4037,7 +4036,7 @@
       <c r="AE30" s="2"/>
       <c r="AX30" s="2"/>
     </row>
-    <row r="31" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -4224,7 +4223,7 @@
       </c>
       <c r="AX32" s="2"/>
     </row>
-    <row r="33" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -4291,7 +4290,7 @@
       <c r="AE33" s="2"/>
       <c r="AX33" s="2"/>
     </row>
-    <row r="34" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>149</v>
       </c>
@@ -4478,7 +4477,7 @@
       </c>
       <c r="AX35" s="2"/>
     </row>
-    <row r="36" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -4545,7 +4544,7 @@
       <c r="AE36" s="2"/>
       <c r="AX36" s="2"/>
     </row>
-    <row r="37" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -4612,7 +4611,7 @@
       <c r="AE37" s="2"/>
       <c r="AX37" s="2"/>
     </row>
-    <row r="38" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -4729,7 +4728,7 @@
       </c>
       <c r="AX38" s="2"/>
     </row>
-    <row r="39" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -4793,7 +4792,7 @@
       <c r="AE39" s="2"/>
       <c r="AX39" s="2"/>
     </row>
-    <row r="40" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -4857,7 +4856,7 @@
       <c r="AE40" s="2"/>
       <c r="AX40" s="2"/>
     </row>
-    <row r="41" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -4974,7 +4973,7 @@
       </c>
       <c r="AX41" s="2"/>
     </row>
-    <row r="42" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -5038,7 +5037,7 @@
       <c r="AE42" s="2"/>
       <c r="AX42" s="2"/>
     </row>
-    <row r="43" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>149</v>
       </c>
@@ -5102,7 +5101,7 @@
       <c r="AE43" s="2"/>
       <c r="AX43" s="2"/>
     </row>
-    <row r="44" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>149</v>
       </c>
@@ -5219,7 +5218,7 @@
       </c>
       <c r="AX44" s="2"/>
     </row>
-    <row r="45" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>149</v>
       </c>
@@ -5283,7 +5282,7 @@
       <c r="AE45" s="2"/>
       <c r="AX45" s="2"/>
     </row>
-    <row r="46" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>149</v>
       </c>
@@ -5347,7 +5346,7 @@
       <c r="AE46" s="2"/>
       <c r="AX46" s="2"/>
     </row>
-    <row r="47" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -5464,7 +5463,7 @@
       </c>
       <c r="AX47" s="2"/>
     </row>
-    <row r="48" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>149</v>
       </c>
@@ -5528,7 +5527,7 @@
       <c r="AE48" s="2"/>
       <c r="AX48" s="2"/>
     </row>
-    <row r="49" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -6846,7 +6845,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>150</v>
       </c>
@@ -6977,7 +6976,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>149</v>
       </c>
@@ -7055,7 +7054,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>149</v>
       </c>
@@ -7133,7 +7132,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>149</v>
       </c>
@@ -7264,7 +7263,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>149</v>
       </c>
@@ -7342,7 +7341,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>149</v>
       </c>
@@ -7420,7 +7419,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -7551,7 +7550,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>149</v>
       </c>
@@ -7707,7 +7706,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -7838,7 +7837,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -7916,7 +7915,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>149</v>
       </c>
@@ -9248,7 +9247,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>150</v>
       </c>
@@ -9379,7 +9378,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>149</v>
       </c>
@@ -9457,7 +9456,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>149</v>
       </c>
@@ -9535,7 +9534,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>149</v>
       </c>
@@ -9666,7 +9665,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>149</v>
       </c>
@@ -9744,7 +9743,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>149</v>
       </c>
@@ -9822,7 +9821,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>149</v>
       </c>
@@ -9953,7 +9952,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>149</v>
       </c>
@@ -10031,7 +10030,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>149</v>
       </c>
@@ -10109,7 +10108,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="95" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>149</v>
       </c>
@@ -10240,7 +10239,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>149</v>
       </c>
@@ -10318,7 +10317,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="97" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>149</v>
       </c>
@@ -10570,7 +10569,7 @@
       <c r="AE100" s="2"/>
       <c r="AX100" s="2"/>
     </row>
-    <row r="101" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>149</v>
       </c>
@@ -10628,7 +10627,7 @@
       <c r="AE101" s="2"/>
       <c r="AX101" s="2"/>
     </row>
-    <row r="102" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>149</v>
       </c>
@@ -10686,7 +10685,7 @@
       <c r="AE102" s="2"/>
       <c r="AX102" s="2"/>
     </row>
-    <row r="103" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>149</v>
       </c>
@@ -10922,7 +10921,7 @@
       <c r="AE107" s="2"/>
       <c r="AX107" s="2"/>
     </row>
-    <row r="108" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>149</v>
       </c>
@@ -10965,7 +10964,7 @@
       <c r="AE108" s="2"/>
       <c r="AX108" s="2"/>
     </row>
-    <row r="109" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>150</v>
       </c>
@@ -11008,7 +11007,7 @@
       <c r="AE109" s="2"/>
       <c r="AX109" s="2"/>
     </row>
-    <row r="110" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -11054,7 +11053,7 @@
       <c r="AE110" s="2"/>
       <c r="AX110" s="2"/>
     </row>
-    <row r="111" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>149</v>
       </c>
@@ -11100,7 +11099,7 @@
       <c r="AE111" s="2"/>
       <c r="AX111" s="2"/>
     </row>
-    <row r="112" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>149</v>
       </c>
@@ -11143,7 +11142,7 @@
       <c r="AE112" s="2"/>
       <c r="AX112" s="2"/>
     </row>
-    <row r="113" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>150</v>
       </c>
@@ -11186,7 +11185,7 @@
       <c r="AE113" s="2"/>
       <c r="AX113" s="2"/>
     </row>
-    <row r="114" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>149</v>
       </c>
@@ -11232,7 +11231,7 @@
       <c r="AE114" s="2"/>
       <c r="AX114" s="2"/>
     </row>
-    <row r="115" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>149</v>
       </c>
@@ -11278,7 +11277,7 @@
       <c r="AE115" s="2"/>
       <c r="AX115" s="2"/>
     </row>
-    <row r="116" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>149</v>
       </c>
@@ -11398,7 +11397,7 @@
       </c>
       <c r="AX116" s="2"/>
     </row>
-    <row r="117" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>149</v>
       </c>
@@ -11518,7 +11517,7 @@
       </c>
       <c r="AX117" s="2"/>
     </row>
-    <row r="118" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>149</v>
       </c>
@@ -11638,7 +11637,7 @@
       </c>
       <c r="AX118" s="2"/>
     </row>
-    <row r="119" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>149</v>
       </c>
@@ -11758,7 +11757,7 @@
       </c>
       <c r="AX119" s="2"/>
     </row>
-    <row r="120" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>149</v>
       </c>
@@ -11878,7 +11877,7 @@
       </c>
       <c r="AX120" s="2"/>
     </row>
-    <row r="121" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>149</v>
       </c>
@@ -11998,7 +11997,7 @@
       </c>
       <c r="AX121" s="2"/>
     </row>
-    <row r="122" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>149</v>
       </c>
@@ -12118,7 +12117,7 @@
       </c>
       <c r="AX122" s="2"/>
     </row>
-    <row r="123" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>149</v>
       </c>
@@ -12238,7 +12237,7 @@
       </c>
       <c r="AX123" s="2"/>
     </row>
-    <row r="124" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>149</v>
       </c>
@@ -12358,7 +12357,7 @@
       </c>
       <c r="AX124" s="2"/>
     </row>
-    <row r="125" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>149</v>
       </c>
@@ -12478,7 +12477,7 @@
       </c>
       <c r="AX125" s="2"/>
     </row>
-    <row r="126" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>149</v>
       </c>
@@ -12598,7 +12597,7 @@
       </c>
       <c r="AX126" s="2"/>
     </row>
-    <row r="127" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>149</v>
       </c>
@@ -12718,7 +12717,7 @@
       </c>
       <c r="AX127" s="2"/>
     </row>
-    <row r="128" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>149</v>
       </c>
@@ -12838,7 +12837,7 @@
       </c>
       <c r="AX128" s="2"/>
     </row>
-    <row r="129" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>149</v>
       </c>
@@ -12958,7 +12957,7 @@
       </c>
       <c r="AX129" s="2"/>
     </row>
-    <row r="130" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -13078,7 +13077,7 @@
       </c>
       <c r="AX130" s="2"/>
     </row>
-    <row r="131" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>149</v>
       </c>
@@ -13198,7 +13197,7 @@
       </c>
       <c r="AX131" s="2"/>
     </row>
-    <row r="132" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>149</v>
       </c>
@@ -13318,7 +13317,7 @@
       </c>
       <c r="AX132" s="2"/>
     </row>
-    <row r="133" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>149</v>
       </c>
@@ -13438,7 +13437,7 @@
       </c>
       <c r="AX133" s="2"/>
     </row>
-    <row r="134" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>149</v>
       </c>
@@ -13558,7 +13557,7 @@
       </c>
       <c r="AX134" s="2"/>
     </row>
-    <row r="135" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -13678,7 +13677,7 @@
       </c>
       <c r="AX135" s="2"/>
     </row>
-    <row r="136" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -13798,7 +13797,7 @@
       </c>
       <c r="AX136" s="2"/>
     </row>
-    <row r="137" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -13918,7 +13917,7 @@
       </c>
       <c r="AX137" s="2"/>
     </row>
-    <row r="138" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -14038,7 +14037,7 @@
       </c>
       <c r="AX138" s="2"/>
     </row>
-    <row r="139" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>149</v>
       </c>
@@ -14159,13 +14158,7 @@
       <c r="AX139" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G139" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="665"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="G1:G139" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KatalonData/VLinkCCTestData.xlsx
+++ b/KatalonData/VLinkCCTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B23CCB-F526-438A-8882-3C8FE958A62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA55319-69FB-42A0-B0D8-134DB0D4D809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18825" yWindow="1950" windowWidth="15435" windowHeight="11970" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
+    <workbookView xWindow="4740" yWindow="615" windowWidth="17010" windowHeight="13935" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
   </bookViews>
   <sheets>
     <sheet name="CCSaleData" sheetId="1" r:id="rId1"/>
@@ -1346,9 +1346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}">
   <dimension ref="A1:AX139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA104" sqref="AA104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonData/VLinkCCTestData.xlsx
+++ b/KatalonData/VLinkCCTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA55319-69FB-42A0-B0D8-134DB0D4D809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0FEF0F-93B4-419F-A7B2-AC48DF9E8886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="615" windowWidth="17010" windowHeight="13935" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
   </bookViews>
   <sheets>
     <sheet name="CCSaleData" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7184" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7184" uniqueCount="313">
   <si>
     <t>Notes</t>
   </si>
@@ -968,6 +968,15 @@
   </si>
   <si>
     <t>Do not Execute Fails</t>
+  </si>
+  <si>
+    <t>%B5567080011582687^AHMED/IMTIAZ              ^2603201090300000000000528000015?;5567080011582687=26032010903052800015?</t>
+  </si>
+  <si>
+    <t>%B5567080011582687^AHMED/IMTIAZ              ^2603201090300000000000528000015?</t>
+  </si>
+  <si>
+    <t>;5567080011582687=26032010903052800015?</t>
   </si>
 </sst>
 </file>
@@ -1347,8 +1356,8 @@
   <dimension ref="A1:AX139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA104" sqref="AA104"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA117" sqref="AA117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10781,7 +10790,7 @@
         <v>54</v>
       </c>
       <c r="AA104" s="1" t="s">
-        <v>141</v>
+        <v>310</v>
       </c>
       <c r="AE104" s="2"/>
       <c r="AX104" s="2"/>
@@ -10824,7 +10833,7 @@
         <v>54</v>
       </c>
       <c r="AB105" s="1" t="s">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="AE105" s="2"/>
       <c r="AX105" s="2"/>
@@ -10870,7 +10879,7 @@
         <v>54</v>
       </c>
       <c r="AC106" s="1" t="s">
-        <v>144</v>
+        <v>312</v>
       </c>
       <c r="AE106" s="2"/>
       <c r="AX106" s="2"/>
@@ -10913,10 +10922,10 @@
         <v>54</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="AC107" s="1" t="s">
-        <v>144</v>
+        <v>312</v>
       </c>
       <c r="AE107" s="2"/>
       <c r="AX107" s="2"/>
@@ -10959,7 +10968,7 @@
         <v>107</v>
       </c>
       <c r="AA108" s="1" t="s">
-        <v>141</v>
+        <v>310</v>
       </c>
       <c r="AE108" s="2"/>
       <c r="AX108" s="2"/>
@@ -11002,7 +11011,7 @@
         <v>107</v>
       </c>
       <c r="AB109" s="1" t="s">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="AE109" s="2"/>
       <c r="AX109" s="2"/>
@@ -11048,7 +11057,7 @@
         <v>107</v>
       </c>
       <c r="AC110" s="1" t="s">
-        <v>144</v>
+        <v>312</v>
       </c>
       <c r="AE110" s="2"/>
       <c r="AX110" s="2"/>
@@ -11091,10 +11100,10 @@
         <v>107</v>
       </c>
       <c r="AB111" s="1" t="s">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="AC111" s="1" t="s">
-        <v>144</v>
+        <v>312</v>
       </c>
       <c r="AE111" s="2"/>
       <c r="AX111" s="2"/>
@@ -11137,7 +11146,7 @@
         <v>119</v>
       </c>
       <c r="AA112" s="1" t="s">
-        <v>141</v>
+        <v>310</v>
       </c>
       <c r="AE112" s="2"/>
       <c r="AX112" s="2"/>
@@ -11180,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="AB113" s="1" t="s">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="AE113" s="2"/>
       <c r="AX113" s="2"/>
@@ -11226,7 +11235,7 @@
         <v>119</v>
       </c>
       <c r="AC114" s="1" t="s">
-        <v>144</v>
+        <v>312</v>
       </c>
       <c r="AE114" s="2"/>
       <c r="AX114" s="2"/>
@@ -11269,10 +11278,10 @@
         <v>119</v>
       </c>
       <c r="AB115" s="1" t="s">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="AC115" s="1" t="s">
-        <v>144</v>
+        <v>312</v>
       </c>
       <c r="AE115" s="2"/>
       <c r="AX115" s="2"/>

--- a/KatalonData/VLinkCCTestData.xlsx
+++ b/KatalonData/VLinkCCTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0FEF0F-93B4-419F-A7B2-AC48DF9E8886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAA304B-F810-4AEF-9A03-7B15342B83C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7184" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8516" uniqueCount="323">
   <si>
     <t>Notes</t>
   </si>
@@ -977,6 +977,36 @@
   </si>
   <si>
     <t>;5567080011582687=26032010903052800015?</t>
+  </si>
+  <si>
+    <t>Paymentech</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Brij Mohan</t>
+  </si>
+  <si>
+    <t>96581 Manchin St</t>
+  </si>
+  <si>
+    <t>Vital</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>FDMS Rapid Connect</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>user501</t>
+  </si>
+  <si>
+    <t>pwd501</t>
   </si>
 </sst>
 </file>
@@ -1033,12 +1063,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1353,11 +1384,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}">
-  <dimension ref="A1:AX139"/>
+  <dimension ref="A1:AX175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA117" sqref="AA117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,10 +1604,10 @@
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1693,10 +1724,10 @@
       <c r="AX2" s="2"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>300</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1760,10 +1791,10 @@
       <c r="AX3" s="2"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>301</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1827,10 +1858,10 @@
       <c r="AX4" s="2"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>302</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1947,10 +1978,10 @@
       <c r="AX5" s="2"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2014,10 +2045,10 @@
       <c r="AX6" s="2"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2081,10 +2112,10 @@
       <c r="AX7" s="2"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2201,10 +2232,10 @@
       <c r="AX8" s="2"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2268,10 +2299,10 @@
       <c r="AX9" s="2"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2335,10 +2366,10 @@
       <c r="AX10" s="2"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2455,10 +2486,10 @@
       <c r="AX11" s="2"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>177</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2522,10 +2553,10 @@
       <c r="AX12" s="2"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2589,10 +2620,10 @@
       <c r="AX13" s="2"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2709,10 +2740,10 @@
       <c r="AX14" s="2"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2776,10 +2807,10 @@
       <c r="AX15" s="2"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2843,10 +2874,10 @@
       <c r="AX16" s="2"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2963,10 +2994,10 @@
       <c r="AX17" s="2"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3030,10 +3061,10 @@
       <c r="AX18" s="2"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3097,10 +3128,10 @@
       <c r="AX19" s="2"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3217,10 +3248,10 @@
       <c r="AX20" s="2"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3284,10 +3315,10 @@
       <c r="AX21" s="2"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3351,10 +3382,10 @@
       <c r="AX22" s="2"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3471,10 +3502,10 @@
       <c r="AX23" s="2"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3538,10 +3569,10 @@
       <c r="AX24" s="2"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3605,10 +3636,10 @@
       <c r="AX25" s="2"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3725,10 +3756,10 @@
       <c r="AX26" s="2"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3792,10 +3823,10 @@
       <c r="AX27" s="2"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3859,10 +3890,10 @@
       <c r="AX28" s="2"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -3979,10 +4010,10 @@
       <c r="AX29" s="2"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>195</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -4046,10 +4077,10 @@
       <c r="AX30" s="2"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -4113,10 +4144,10 @@
       <c r="AX31" s="2"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -4233,10 +4264,10 @@
       <c r="AX32" s="2"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>198</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -4300,10 +4331,10 @@
       <c r="AX33" s="2"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -4367,10 +4398,10 @@
       <c r="AX34" s="2"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -4487,10 +4518,10 @@
       <c r="AX35" s="2"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -4554,10 +4585,10 @@
       <c r="AX36" s="2"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -4621,10 +4652,10 @@
       <c r="AX37" s="2"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>303</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -4738,10 +4769,10 @@
       <c r="AX38" s="2"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>203</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -4802,10 +4833,10 @@
       <c r="AX39" s="2"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>204</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -4866,10 +4897,10 @@
       <c r="AX40" s="2"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4983,10 +5014,10 @@
       <c r="AX41" s="2"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -5047,10 +5078,10 @@
       <c r="AX42" s="2"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -5111,10 +5142,10 @@
       <c r="AX43" s="2"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>208</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -5228,10 +5259,10 @@
       <c r="AX44" s="2"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>209</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -5292,10 +5323,10 @@
       <c r="AX45" s="2"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -5356,10 +5387,10 @@
       <c r="AX46" s="2"/>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>211</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -5473,10 +5504,10 @@
       <c r="AX47" s="2"/>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>212</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -5537,10 +5568,10 @@
       <c r="AX48" s="2"/>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>213</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -5601,10 +5632,10 @@
       <c r="AX49" s="2"/>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -5679,10 +5710,10 @@
       </c>
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>215</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -5810,10 +5841,10 @@
       </c>
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -5888,10 +5919,10 @@
       </c>
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>217</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -6019,10 +6050,10 @@
       </c>
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -6097,10 +6128,10 @@
       </c>
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -6228,10 +6259,10 @@
       </c>
     </row>
     <row r="56" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -6306,10 +6337,10 @@
       </c>
     </row>
     <row r="57" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>221</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -6437,10 +6468,10 @@
       </c>
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -6515,10 +6546,10 @@
       </c>
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>223</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -6646,10 +6677,10 @@
       </c>
     </row>
     <row r="60" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -6724,10 +6755,10 @@
       </c>
     </row>
     <row r="61" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -6855,10 +6886,10 @@
       </c>
     </row>
     <row r="62" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>304</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -6986,10 +7017,10 @@
       </c>
     </row>
     <row r="63" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -7064,10 +7095,10 @@
       </c>
     </row>
     <row r="64" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -7142,10 +7173,10 @@
       </c>
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -7273,10 +7304,10 @@
       </c>
     </row>
     <row r="66" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -7351,10 +7382,10 @@
       </c>
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -7429,10 +7460,10 @@
       </c>
     </row>
     <row r="68" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -7560,10 +7591,10 @@
       </c>
     </row>
     <row r="69" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>232</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -7638,10 +7669,10 @@
       </c>
     </row>
     <row r="70" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -7716,10 +7747,10 @@
       </c>
     </row>
     <row r="71" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -7847,10 +7878,10 @@
       </c>
     </row>
     <row r="72" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>235</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -7925,10 +7956,10 @@
       </c>
     </row>
     <row r="73" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -8003,10 +8034,10 @@
       </c>
     </row>
     <row r="74" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -8081,10 +8112,10 @@
       </c>
     </row>
     <row r="75" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>238</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -8212,10 +8243,10 @@
       </c>
     </row>
     <row r="76" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -8290,10 +8321,10 @@
       </c>
     </row>
     <row r="77" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -8421,10 +8452,10 @@
       </c>
     </row>
     <row r="78" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>241</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -8499,10 +8530,10 @@
       </c>
     </row>
     <row r="79" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>242</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -8630,10 +8661,10 @@
       </c>
     </row>
     <row r="80" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -8708,10 +8739,10 @@
       </c>
     </row>
     <row r="81" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>244</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -8839,10 +8870,10 @@
       </c>
     </row>
     <row r="82" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -8917,10 +8948,10 @@
       </c>
     </row>
     <row r="83" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>246</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -9048,10 +9079,10 @@
       </c>
     </row>
     <row r="84" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>247</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -9126,10 +9157,10 @@
       </c>
     </row>
     <row r="85" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -9257,10 +9288,10 @@
       </c>
     </row>
     <row r="86" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>305</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -9388,10 +9419,10 @@
       </c>
     </row>
     <row r="87" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>249</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -9466,10 +9497,10 @@
       </c>
     </row>
     <row r="88" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -9544,10 +9575,10 @@
       </c>
     </row>
     <row r="89" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>251</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -9675,10 +9706,10 @@
       </c>
     </row>
     <row r="90" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -9753,10 +9784,10 @@
       </c>
     </row>
     <row r="91" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>253</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -9831,10 +9862,10 @@
       </c>
     </row>
     <row r="92" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -9962,10 +9993,10 @@
       </c>
     </row>
     <row r="93" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>255</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -10040,10 +10071,10 @@
       </c>
     </row>
     <row r="94" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -10118,10 +10149,10 @@
       </c>
     </row>
     <row r="95" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -10249,10 +10280,10 @@
       </c>
     </row>
     <row r="96" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>258</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -10327,10 +10358,10 @@
       </c>
     </row>
     <row r="97" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -10405,10 +10436,10 @@
       </c>
     </row>
     <row r="98" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>260</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -10463,10 +10494,10 @@
       <c r="AX98" s="2"/>
     </row>
     <row r="99" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -10521,10 +10552,10 @@
       <c r="AX99" s="2"/>
     </row>
     <row r="100" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -10579,10 +10610,10 @@
       <c r="AX100" s="2"/>
     </row>
     <row r="101" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>263</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -10637,10 +10668,10 @@
       <c r="AX101" s="2"/>
     </row>
     <row r="102" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>264</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -10695,10 +10726,10 @@
       <c r="AX102" s="2"/>
     </row>
     <row r="103" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>265</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -10753,10 +10784,10 @@
       <c r="AX103" s="2"/>
     </row>
     <row r="104" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>266</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -10796,10 +10827,10 @@
       <c r="AX104" s="2"/>
     </row>
     <row r="105" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -10839,10 +10870,10 @@
       <c r="AX105" s="2"/>
     </row>
     <row r="106" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>267</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -10885,10 +10916,10 @@
       <c r="AX106" s="2"/>
     </row>
     <row r="107" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>268</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -10931,10 +10962,10 @@
       <c r="AX107" s="2"/>
     </row>
     <row r="108" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>269</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -10974,10 +11005,10 @@
       <c r="AX108" s="2"/>
     </row>
     <row r="109" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>307</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -11017,10 +11048,10 @@
       <c r="AX109" s="2"/>
     </row>
     <row r="110" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>270</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -11063,10 +11094,10 @@
       <c r="AX110" s="2"/>
     </row>
     <row r="111" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>271</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -11109,10 +11140,10 @@
       <c r="AX111" s="2"/>
     </row>
     <row r="112" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>272</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -11152,10 +11183,10 @@
       <c r="AX112" s="2"/>
     </row>
     <row r="113" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>308</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -11195,10 +11226,10 @@
       <c r="AX113" s="2"/>
     </row>
     <row r="114" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>273</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -11241,10 +11272,10 @@
       <c r="AX114" s="2"/>
     </row>
     <row r="115" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>274</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -11287,10 +11318,10 @@
       <c r="AX115" s="2"/>
     </row>
     <row r="116" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>275</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -11407,10 +11438,10 @@
       <c r="AX116" s="2"/>
     </row>
     <row r="117" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>276</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -11527,10 +11558,10 @@
       <c r="AX117" s="2"/>
     </row>
     <row r="118" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>277</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -11647,10 +11678,10 @@
       <c r="AX118" s="2"/>
     </row>
     <row r="119" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>278</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -11767,10 +11798,10 @@
       <c r="AX119" s="2"/>
     </row>
     <row r="120" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>279</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -11887,10 +11918,10 @@
       <c r="AX120" s="2"/>
     </row>
     <row r="121" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>280</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -12007,10 +12038,10 @@
       <c r="AX121" s="2"/>
     </row>
     <row r="122" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>281</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -12127,10 +12158,10 @@
       <c r="AX122" s="2"/>
     </row>
     <row r="123" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>282</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -12247,10 +12278,10 @@
       <c r="AX123" s="2"/>
     </row>
     <row r="124" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -12367,10 +12398,10 @@
       <c r="AX124" s="2"/>
     </row>
     <row r="125" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>284</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -12487,10 +12518,10 @@
       <c r="AX125" s="2"/>
     </row>
     <row r="126" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>285</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -12607,10 +12638,10 @@
       <c r="AX126" s="2"/>
     </row>
     <row r="127" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="3" t="s">
         <v>286</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -12727,10 +12758,10 @@
       <c r="AX127" s="2"/>
     </row>
     <row r="128" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="3" t="s">
         <v>287</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -12847,10 +12878,10 @@
       <c r="AX128" s="2"/>
     </row>
     <row r="129" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="3" t="s">
         <v>288</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -12967,10 +12998,10 @@
       <c r="AX129" s="2"/>
     </row>
     <row r="130" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -13087,10 +13118,10 @@
       <c r="AX130" s="2"/>
     </row>
     <row r="131" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -13207,10 +13238,10 @@
       <c r="AX131" s="2"/>
     </row>
     <row r="132" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="3" t="s">
         <v>291</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -13327,10 +13358,10 @@
       <c r="AX132" s="2"/>
     </row>
     <row r="133" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>292</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -13447,10 +13478,10 @@
       <c r="AX133" s="2"/>
     </row>
     <row r="134" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -13567,10 +13598,10 @@
       <c r="AX134" s="2"/>
     </row>
     <row r="135" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="3" t="s">
         <v>294</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -13687,10 +13718,10 @@
       <c r="AX135" s="2"/>
     </row>
     <row r="136" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="3" t="s">
         <v>295</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -13807,10 +13838,10 @@
       <c r="AX136" s="2"/>
     </row>
     <row r="137" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="3" t="s">
         <v>296</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -13927,10 +13958,10 @@
       <c r="AX137" s="2"/>
     </row>
     <row r="138" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="3" t="s">
         <v>297</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -14047,10 +14078,10 @@
       <c r="AX138" s="2"/>
     </row>
     <row r="139" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="3" t="s">
         <v>298</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -14165,6 +14196,4182 @@
         <v>70</v>
       </c>
       <c r="AX139" s="2"/>
+    </row>
+    <row r="140" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q140" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R140" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S140" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T140" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U140" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V140" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W140" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X140" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE140" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF140" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG140" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH140" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI140" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ140" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK140" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL140" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM140" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN140" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO140" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP140" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ140" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR140" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS140" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT140" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX140" s="2"/>
+    </row>
+    <row r="141" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q141" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R141" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S141" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T141" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U141" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V141" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W141" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X141" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE141" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF141" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG141" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH141" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI141" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ141" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK141" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL141" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM141" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN141" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO141" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP141" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ141" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR141" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS141" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT141" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX141" s="2"/>
+    </row>
+    <row r="142" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R142" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S142" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T142" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U142" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V142" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W142" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X142" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE142" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF142" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG142" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH142" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI142" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ142" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK142" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL142" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM142" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN142" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO142" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP142" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ142" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR142" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS142" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT142" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX142" s="2"/>
+    </row>
+    <row r="143" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q143" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R143" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S143" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T143" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U143" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V143" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W143" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X143" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE143" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF143" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG143" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH143" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI143" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ143" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK143" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL143" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM143" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN143" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO143" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP143" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ143" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR143" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS143" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT143" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX143" s="2"/>
+    </row>
+    <row r="144" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P144" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q144" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R144" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S144" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T144" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U144" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V144" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W144" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X144" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE144" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF144" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG144" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH144" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI144" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ144" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK144" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL144" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM144" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN144" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO144" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP144" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ144" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR144" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS144" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT144" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX144" s="2"/>
+    </row>
+    <row r="145" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O145" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P145" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q145" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R145" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S145" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T145" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U145" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V145" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W145" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X145" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE145" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF145" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG145" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH145" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI145" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ145" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK145" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL145" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM145" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN145" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO145" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP145" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ145" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR145" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS145" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT145" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX145" s="2"/>
+    </row>
+    <row r="146" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P146" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q146" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R146" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S146" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T146" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U146" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V146" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W146" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X146" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE146" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF146" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG146" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH146" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI146" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ146" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK146" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL146" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM146" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN146" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO146" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP146" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ146" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR146" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS146" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT146" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX146" s="2"/>
+    </row>
+    <row r="147" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q147" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R147" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S147" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T147" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U147" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V147" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W147" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X147" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE147" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF147" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG147" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH147" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI147" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ147" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK147" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL147" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM147" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN147" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO147" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP147" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ147" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR147" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS147" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT147" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX147" s="2"/>
+    </row>
+    <row r="148" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q148" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S148" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T148" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U148" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V148" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W148" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X148" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE148" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF148" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG148" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH148" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI148" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ148" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK148" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL148" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM148" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN148" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO148" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP148" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ148" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR148" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS148" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT148" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX148" s="2"/>
+    </row>
+    <row r="149" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O149" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P149" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q149" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R149" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S149" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T149" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U149" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V149" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="W149" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X149" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD149" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE149" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF149" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG149" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH149" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI149" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ149" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK149" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL149" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM149" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN149" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO149" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP149" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ149" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR149" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS149" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT149" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX149" s="2"/>
+    </row>
+    <row r="150" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O150" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q150" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R150" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S150" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T150" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U150" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V150" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="W150" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X150" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD150" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE150" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF150" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG150" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH150" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI150" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ150" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK150" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL150" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM150" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN150" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO150" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP150" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ150" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR150" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS150" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT150" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX150" s="2"/>
+    </row>
+    <row r="151" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q151" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R151" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S151" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T151" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U151" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V151" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="W151" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X151" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD151" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE151" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF151" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG151" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH151" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI151" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ151" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK151" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL151" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM151" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN151" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO151" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP151" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ151" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR151" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS151" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT151" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX151" s="2"/>
+    </row>
+    <row r="152" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O152" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q152" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R152" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S152" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T152" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U152" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V152" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W152" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X152" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD152" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE152" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF152" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG152" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH152" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI152" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ152" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK152" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL152" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM152" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN152" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO152" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP152" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ152" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR152" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS152" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT152" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX152" s="2"/>
+    </row>
+    <row r="153" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q153" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S153" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T153" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U153" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V153" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W153" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X153" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD153" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE153" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF153" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG153" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH153" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI153" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ153" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK153" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL153" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM153" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN153" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO153" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP153" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ153" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR153" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS153" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT153" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX153" s="2"/>
+    </row>
+    <row r="154" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P154" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q154" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R154" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S154" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T154" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U154" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V154" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W154" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X154" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD154" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE154" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF154" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG154" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH154" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI154" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ154" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK154" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL154" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM154" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN154" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO154" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP154" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ154" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR154" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS154" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT154" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX154" s="2"/>
+    </row>
+    <row r="155" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q155" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S155" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T155" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U155" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V155" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W155" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X155" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD155" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE155" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF155" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG155" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH155" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI155" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ155" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK155" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL155" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM155" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN155" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO155" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP155" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ155" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR155" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS155" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT155" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX155" s="2"/>
+    </row>
+    <row r="156" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P156" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q156" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S156" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T156" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U156" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V156" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W156" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X156" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD156" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE156" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF156" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG156" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH156" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI156" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ156" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK156" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL156" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM156" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN156" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO156" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP156" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ156" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR156" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS156" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT156" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX156" s="2"/>
+    </row>
+    <row r="157" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q157" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S157" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T157" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U157" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V157" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W157" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X157" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD157" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE157" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF157" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG157" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH157" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI157" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ157" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK157" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL157" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM157" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN157" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO157" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP157" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ157" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR157" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS157" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT157" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX157" s="2"/>
+    </row>
+    <row r="158" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q158" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S158" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T158" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U158" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V158" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W158" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X158" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD158" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE158" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF158" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG158" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH158" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI158" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ158" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK158" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL158" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM158" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN158" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO158" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP158" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ158" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR158" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS158" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT158" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX158" s="2"/>
+    </row>
+    <row r="159" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P159" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q159" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S159" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T159" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U159" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V159" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W159" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X159" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD159" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE159" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF159" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG159" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH159" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI159" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ159" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK159" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL159" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM159" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN159" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO159" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP159" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ159" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR159" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS159" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT159" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX159" s="2"/>
+    </row>
+    <row r="160" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S160" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T160" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U160" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V160" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W160" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X160" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD160" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE160" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF160" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG160" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH160" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI160" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ160" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK160" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL160" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM160" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN160" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO160" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP160" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ160" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR160" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS160" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT160" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX160" s="2"/>
+    </row>
+    <row r="161" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S161" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T161" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U161" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V161" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="W161" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X161" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD161" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE161" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF161" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG161" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH161" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI161" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ161" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK161" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL161" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM161" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN161" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO161" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP161" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ161" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR161" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS161" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT161" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX161" s="2"/>
+    </row>
+    <row r="162" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R162" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S162" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T162" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U162" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V162" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="W162" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X162" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD162" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE162" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF162" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG162" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH162" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI162" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ162" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK162" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL162" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM162" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN162" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO162" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP162" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ162" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR162" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS162" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT162" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX162" s="2"/>
+    </row>
+    <row r="163" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q163" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R163" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S163" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T163" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U163" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V163" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="W163" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X163" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD163" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE163" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF163" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG163" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH163" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI163" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ163" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK163" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL163" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM163" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN163" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO163" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP163" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ163" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR163" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS163" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT163" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX163" s="2"/>
+    </row>
+    <row r="164" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q164" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R164" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S164" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T164" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U164" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W164" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X164" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD164" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE164" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF164" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG164" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH164" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI164" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ164" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK164" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL164" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM164" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN164" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO164" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP164" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ164" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR164" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS164" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT164" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX164" s="2"/>
+    </row>
+    <row r="165" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q165" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S165" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T165" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U165" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V165" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W165" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X165" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD165" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE165" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF165" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG165" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH165" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI165" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ165" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK165" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL165" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM165" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN165" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO165" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP165" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ165" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR165" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS165" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT165" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX165" s="2"/>
+    </row>
+    <row r="166" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T166" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U166" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V166" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W166" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X166" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE166" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF166" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG166" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH166" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI166" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ166" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK166" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL166" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM166" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN166" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO166" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP166" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ166" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR166" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS166" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT166" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX166" s="2"/>
+    </row>
+    <row r="167" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T167" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U167" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V167" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W167" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X167" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE167" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF167" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG167" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH167" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI167" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ167" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK167" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL167" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM167" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN167" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO167" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP167" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ167" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR167" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS167" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT167" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX167" s="2"/>
+    </row>
+    <row r="168" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S168" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T168" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U168" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V168" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W168" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X168" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE168" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF168" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG168" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH168" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI168" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ168" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK168" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL168" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM168" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN168" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO168" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP168" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ168" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR168" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS168" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT168" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX168" s="2"/>
+    </row>
+    <row r="169" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q169" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S169" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T169" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U169" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V169" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="W169" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X169" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE169" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF169" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG169" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH169" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI169" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ169" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK169" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL169" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM169" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN169" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO169" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP169" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ169" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR169" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS169" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT169" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX169" s="2"/>
+    </row>
+    <row r="170" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P170" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q170" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S170" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T170" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U170" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V170" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W170" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X170" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE170" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF170" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG170" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH170" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI170" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ170" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK170" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL170" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM170" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN170" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO170" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP170" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ170" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR170" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS170" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT170" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX170" s="2"/>
+    </row>
+    <row r="171" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q171" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R171" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S171" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T171" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U171" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V171" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W171" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X171" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE171" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF171" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG171" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH171" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI171" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ171" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK171" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL171" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM171" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN171" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO171" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP171" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ171" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR171" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS171" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT171" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX171" s="2"/>
+    </row>
+    <row r="172" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q172" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T172" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U172" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V172" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W172" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X172" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE172" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF172" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG172" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH172" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI172" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ172" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK172" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL172" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM172" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN172" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO172" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP172" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ172" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR172" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS172" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT172" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX172" s="2"/>
+    </row>
+    <row r="173" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q173" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R173" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S173" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T173" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U173" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V173" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="W173" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X173" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE173" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF173" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG173" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH173" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI173" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ173" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK173" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL173" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM173" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN173" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO173" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP173" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ173" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR173" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS173" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT173" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX173" s="2"/>
+    </row>
+    <row r="174" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q174" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R174" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S174" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T174" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U174" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V174" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="W174" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X174" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE174" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF174" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG174" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH174" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI174" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ174" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK174" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL174" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM174" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN174" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO174" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP174" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ174" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR174" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS174" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT174" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX174" s="2"/>
+    </row>
+    <row r="175" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q175" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R175" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S175" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T175" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U175" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V175" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="W175" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X175" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE175" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF175" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG175" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH175" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI175" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ175" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK175" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL175" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM175" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN175" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO175" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP175" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ175" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR175" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS175" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT175" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX175" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="G1:G139" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}"/>

--- a/KatalonData/VLinkCCTestData.xlsx
+++ b/KatalonData/VLinkCCTestData.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAA304B-F810-4AEF-9A03-7B15342B83C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5AAA304B-F810-4AEF-9A03-7B15342B83C8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
+    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="CCSaleData" sheetId="1" r:id="rId1"/>
-    <sheet name="Trial" sheetId="4" r:id="rId2"/>
-    <sheet name="AuthAndCaptureData" sheetId="3" r:id="rId3"/>
+    <sheet name="CCSaleData" r:id="rId1" sheetId="1"/>
+    <sheet name="Trial" r:id="rId2" sheetId="4"/>
+    <sheet name="AuthAndCaptureData" r:id="rId3" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CCSaleData!$G$1:$G$139</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">CCSaleData!$G$1:$G$139</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8516" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9188" uniqueCount="492">
   <si>
     <t>Notes</t>
   </si>
@@ -1007,12 +1007,520 @@
   </si>
   <si>
     <t>pwd501</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sat May 18 15:34:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:35:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:36:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:37:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:38:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:38:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:39:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:40:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:40:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:41:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:42:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:43:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:43:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:44:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:45:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:46:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:46:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:47:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:48:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:49:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:49:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:50:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:51:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:52:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:52:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:53:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:54:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:54:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:55:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:56:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:57:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:57:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:58:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 15:59:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:00:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:00:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:01:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:02:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:03:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:03:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:04:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:05:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:06:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:07:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:07:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:08:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:09:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:10:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:10:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:11:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:12:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:13:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:13:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:14:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:15:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:16:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:16:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:17:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:18:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:18:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:19:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:20:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:21:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:22:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:22:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:23:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:24:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:25:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:25:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:26:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:27:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:28:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:28:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:29:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:30:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:31:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:31:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:32:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:33:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:34:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:34:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:35:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:36:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:37:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:37:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:38:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:39:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:40:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:40:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:41:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:42:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:43:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:43:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:44:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:45:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:46:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:46:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:47:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:48:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:49:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:49:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:50:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:51:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:52:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:52:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:53:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:54:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:55:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:55:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:56:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:57:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:58:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:59:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 16:59:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:00:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:01:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:02:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:02:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:03:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:04:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:05:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:05:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:06:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:07:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:07:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:08:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:09:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:10:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:10:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:11:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:12:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:13:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:14:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:14:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:15:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:16:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:16:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:17:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:18:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:19:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:19:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:20:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:21:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:22:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:22:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:23:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:24:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:24:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:25:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:26:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:27:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:27:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:28:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:29:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:30:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:30:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:31:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:32:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:33:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:33:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:34:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:35:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:36:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:36:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:37:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:38:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:39:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat May 18 17:40:01 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1061,21 +1569,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1092,10 +1600,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1130,7 +1638,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1182,7 +1690,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1293,21 +1801,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1324,7 +1832,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1376,82 +1884,82 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}">
-  <dimension ref="A1:AX175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}">
+  <dimension ref="A1:AY175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A135" ySplit="1"/>
+      <selection activeCell="D30" pane="bottomLeft" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" collapsed="1"/>
-    <col min="3" max="3" width="36" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="8.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="9.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="115.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="75.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="40.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="23.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="13.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="11.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="45" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="48" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="12.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="15" style="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="14.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="11.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="15.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="15.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="18.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="14.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="62" width="15.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="16.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="16384" width="26.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="36.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="32.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="22.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="9.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="5.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="115.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="75.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="40.5703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="23.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="13.5703125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="37" max="45" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="1" width="15.0" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="11.5703125" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
+    <col min="61" max="62" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="16.42578125" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="66" max="16384" style="1" width="26.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -1604,11 +2112,11 @@
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>299</v>
+      <c r="B2" t="s">
+        <v>324</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>153</v>
@@ -1724,11 +2232,11 @@
       <c r="AX2" s="2"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>300</v>
+      <c r="B3" t="s">
+        <v>325</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>153</v>
@@ -1791,11 +2299,11 @@
       <c r="AX3" s="2"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>301</v>
+      <c r="B4" t="s">
+        <v>326</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>153</v>
@@ -1858,11 +2366,11 @@
       <c r="AX4" s="2"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>302</v>
+      <c r="B5" t="s">
+        <v>327</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>153</v>
@@ -1978,11 +2486,11 @@
       <c r="AX5" s="2"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>171</v>
+      <c r="B6" t="s">
+        <v>328</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>153</v>
@@ -2045,11 +2553,11 @@
       <c r="AX6" s="2"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>172</v>
+      <c r="B7" t="s">
+        <v>329</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>153</v>
@@ -2112,11 +2620,11 @@
       <c r="AX7" s="2"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>173</v>
+      <c r="B8" t="s">
+        <v>330</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>153</v>
@@ -2232,11 +2740,11 @@
       <c r="AX8" s="2"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>174</v>
+      <c r="B9" t="s">
+        <v>331</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>153</v>
@@ -2299,11 +2807,11 @@
       <c r="AX9" s="2"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>175</v>
+      <c r="B10" t="s">
+        <v>332</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>153</v>
@@ -2366,11 +2874,11 @@
       <c r="AX10" s="2"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>176</v>
+      <c r="B11" t="s">
+        <v>333</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>153</v>
@@ -2486,11 +2994,11 @@
       <c r="AX11" s="2"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>177</v>
+      <c r="B12" t="s">
+        <v>334</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>153</v>
@@ -2553,11 +3061,11 @@
       <c r="AX12" s="2"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>178</v>
+      <c r="B13" t="s">
+        <v>335</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>153</v>
@@ -2620,11 +3128,11 @@
       <c r="AX13" s="2"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>179</v>
+      <c r="B14" t="s">
+        <v>336</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>153</v>
@@ -2740,11 +3248,11 @@
       <c r="AX14" s="2"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>180</v>
+      <c r="B15" t="s">
+        <v>337</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>153</v>
@@ -2807,11 +3315,11 @@
       <c r="AX15" s="2"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>181</v>
+      <c r="B16" t="s">
+        <v>338</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>153</v>
@@ -2874,11 +3382,11 @@
       <c r="AX16" s="2"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>182</v>
+      <c r="B17" t="s">
+        <v>339</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>153</v>
@@ -2994,11 +3502,11 @@
       <c r="AX17" s="2"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>149</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>183</v>
+      <c r="B18" t="s">
+        <v>340</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>153</v>
@@ -3061,11 +3569,11 @@
       <c r="AX18" s="2"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>184</v>
+      <c r="B19" t="s">
+        <v>341</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>153</v>
@@ -3128,11 +3636,11 @@
       <c r="AX19" s="2"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>149</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>185</v>
+      <c r="B20" t="s">
+        <v>342</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>153</v>
@@ -3248,11 +3756,11 @@
       <c r="AX20" s="2"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>186</v>
+      <c r="B21" t="s">
+        <v>343</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>153</v>
@@ -3315,11 +3823,11 @@
       <c r="AX21" s="2"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>187</v>
+      <c r="B22" t="s">
+        <v>344</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>153</v>
@@ -3382,11 +3890,11 @@
       <c r="AX22" s="2"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>149</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>188</v>
+      <c r="B23" t="s">
+        <v>345</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>153</v>
@@ -3502,11 +4010,11 @@
       <c r="AX23" s="2"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
         <v>149</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>189</v>
+      <c r="B24" t="s">
+        <v>346</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>153</v>
@@ -3569,11 +4077,11 @@
       <c r="AX24" s="2"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>190</v>
+      <c r="B25" t="s">
+        <v>347</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>153</v>
@@ -3636,11 +4144,11 @@
       <c r="AX25" s="2"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>191</v>
+      <c r="B26" t="s">
+        <v>348</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>153</v>
@@ -3756,11 +4264,11 @@
       <c r="AX26" s="2"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" t="s">
         <v>149</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>192</v>
+      <c r="B27" t="s">
+        <v>349</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>153</v>
@@ -3823,11 +4331,11 @@
       <c r="AX27" s="2"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>193</v>
+      <c r="B28" t="s">
+        <v>350</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>153</v>
@@ -3890,11 +4398,11 @@
       <c r="AX28" s="2"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>194</v>
+      <c r="B29" t="s">
+        <v>351</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>153</v>
@@ -4010,11 +4518,11 @@
       <c r="AX29" s="2"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>195</v>
+      <c r="B30" t="s">
+        <v>352</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>153</v>
@@ -4077,11 +4585,11 @@
       <c r="AX30" s="2"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>196</v>
+      <c r="B31" t="s">
+        <v>353</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>153</v>
@@ -4144,11 +4652,11 @@
       <c r="AX31" s="2"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>197</v>
+      <c r="B32" t="s">
+        <v>354</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>153</v>
@@ -4264,11 +4772,11 @@
       <c r="AX32" s="2"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>198</v>
+      <c r="B33" t="s">
+        <v>355</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>153</v>
@@ -4331,11 +4839,11 @@
       <c r="AX33" s="2"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>199</v>
+      <c r="B34" t="s">
+        <v>356</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>153</v>
@@ -4398,11 +4906,11 @@
       <c r="AX34" s="2"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>200</v>
+      <c r="B35" t="s">
+        <v>357</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>153</v>
@@ -4518,11 +5026,11 @@
       <c r="AX35" s="2"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>201</v>
+      <c r="B36" t="s">
+        <v>358</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>153</v>
@@ -4585,11 +5093,11 @@
       <c r="AX36" s="2"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>202</v>
+      <c r="B37" t="s">
+        <v>359</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>153</v>
@@ -4769,11 +5277,11 @@
       <c r="AX38" s="2"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>203</v>
+      <c r="B39" t="s">
+        <v>360</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>152</v>
@@ -4833,11 +5341,11 @@
       <c r="AX39" s="2"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>204</v>
+      <c r="B40" t="s">
+        <v>361</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>152</v>
@@ -4897,11 +5405,11 @@
       <c r="AX40" s="2"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" t="s">
         <v>149</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>205</v>
+      <c r="B41" t="s">
+        <v>362</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>152</v>
@@ -5014,11 +5522,11 @@
       <c r="AX41" s="2"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" t="s">
         <v>149</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>206</v>
+      <c r="B42" t="s">
+        <v>363</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>152</v>
@@ -5078,11 +5586,11 @@
       <c r="AX42" s="2"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" t="s">
         <v>149</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>207</v>
+      <c r="B43" t="s">
+        <v>364</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>152</v>
@@ -5142,11 +5650,11 @@
       <c r="AX43" s="2"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>208</v>
+      <c r="B44" t="s">
+        <v>365</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>152</v>
@@ -5259,11 +5767,11 @@
       <c r="AX44" s="2"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>209</v>
+      <c r="B45" t="s">
+        <v>366</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>152</v>
@@ -5323,11 +5831,11 @@
       <c r="AX45" s="2"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>210</v>
+      <c r="B46" t="s">
+        <v>367</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>152</v>
@@ -5387,11 +5895,11 @@
       <c r="AX46" s="2"/>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>211</v>
+      <c r="B47" t="s">
+        <v>368</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>152</v>
@@ -5504,11 +6012,11 @@
       <c r="AX47" s="2"/>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>212</v>
+      <c r="B48" t="s">
+        <v>369</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>152</v>
@@ -5568,11 +6076,11 @@
       <c r="AX48" s="2"/>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>213</v>
+      <c r="B49" t="s">
+        <v>370</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>152</v>
@@ -5632,11 +6140,11 @@
       <c r="AX49" s="2"/>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>214</v>
+      <c r="B50" t="s">
+        <v>371</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>154</v>
@@ -5710,11 +6218,11 @@
       </c>
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>215</v>
+      <c r="B51" t="s">
+        <v>372</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>154</v>
@@ -5841,11 +6349,11 @@
       </c>
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" t="s">
         <v>149</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>216</v>
+      <c r="B52" t="s">
+        <v>373</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>154</v>
@@ -5919,11 +6427,11 @@
       </c>
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" t="s">
         <v>149</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>217</v>
+      <c r="B53" t="s">
+        <v>374</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>154</v>
@@ -6050,11 +6558,11 @@
       </c>
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" t="s">
         <v>149</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>218</v>
+      <c r="B54" t="s">
+        <v>375</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>154</v>
@@ -6128,11 +6636,11 @@
       </c>
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" t="s">
         <v>149</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>219</v>
+      <c r="B55" t="s">
+        <v>376</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>154</v>
@@ -6259,11 +6767,11 @@
       </c>
     </row>
     <row r="56" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" t="s">
         <v>149</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>220</v>
+      <c r="B56" t="s">
+        <v>377</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>154</v>
@@ -6337,11 +6845,11 @@
       </c>
     </row>
     <row r="57" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" t="s">
         <v>149</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>221</v>
+      <c r="B57" t="s">
+        <v>378</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>154</v>
@@ -6468,11 +6976,11 @@
       </c>
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" t="s">
         <v>149</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>222</v>
+      <c r="B58" t="s">
+        <v>379</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>154</v>
@@ -6546,11 +7054,11 @@
       </c>
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" t="s">
         <v>149</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>223</v>
+      <c r="B59" t="s">
+        <v>380</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>154</v>
@@ -6677,11 +7185,11 @@
       </c>
     </row>
     <row r="60" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>224</v>
+      <c r="B60" t="s">
+        <v>381</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>154</v>
@@ -6755,11 +7263,11 @@
       </c>
     </row>
     <row r="61" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>225</v>
+      <c r="B61" t="s">
+        <v>382</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>154</v>
@@ -7017,11 +7525,11 @@
       </c>
     </row>
     <row r="63" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>226</v>
+      <c r="B63" t="s">
+        <v>383</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>134</v>
@@ -7095,11 +7603,11 @@
       </c>
     </row>
     <row r="64" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" t="s">
         <v>149</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>227</v>
+      <c r="B64" t="s">
+        <v>384</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>134</v>
@@ -7173,11 +7681,11 @@
       </c>
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" t="s">
         <v>149</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>228</v>
+      <c r="B65" t="s">
+        <v>385</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>134</v>
@@ -7304,11 +7812,11 @@
       </c>
     </row>
     <row r="66" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="A66" t="s">
         <v>149</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>229</v>
+      <c r="B66" t="s">
+        <v>386</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>134</v>
@@ -7382,11 +7890,11 @@
       </c>
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>230</v>
+      <c r="B67" t="s">
+        <v>387</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>134</v>
@@ -7460,11 +7968,11 @@
       </c>
     </row>
     <row r="68" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" t="s">
         <v>149</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>231</v>
+      <c r="B68" t="s">
+        <v>388</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>134</v>
@@ -7591,11 +8099,11 @@
       </c>
     </row>
     <row r="69" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" t="s">
         <v>149</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>232</v>
+      <c r="B69" t="s">
+        <v>389</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>134</v>
@@ -7669,11 +8177,11 @@
       </c>
     </row>
     <row r="70" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>233</v>
+      <c r="B70" t="s">
+        <v>390</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>134</v>
@@ -7747,11 +8255,11 @@
       </c>
     </row>
     <row r="71" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" t="s">
         <v>149</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>234</v>
+      <c r="B71" t="s">
+        <v>391</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>134</v>
@@ -7878,11 +8386,11 @@
       </c>
     </row>
     <row r="72" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" t="s">
         <v>149</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>235</v>
+      <c r="B72" t="s">
+        <v>392</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>134</v>
@@ -7956,11 +8464,11 @@
       </c>
     </row>
     <row r="73" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" t="s">
         <v>149</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>236</v>
+      <c r="B73" t="s">
+        <v>393</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>134</v>
@@ -8034,11 +8542,11 @@
       </c>
     </row>
     <row r="74" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>237</v>
+      <c r="B74" t="s">
+        <v>394</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>155</v>
@@ -8112,11 +8620,11 @@
       </c>
     </row>
     <row r="75" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>238</v>
+      <c r="B75" t="s">
+        <v>395</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>155</v>
@@ -8243,11 +8751,11 @@
       </c>
     </row>
     <row r="76" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" t="s">
         <v>149</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>239</v>
+      <c r="B76" t="s">
+        <v>396</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>155</v>
@@ -8321,11 +8829,11 @@
       </c>
     </row>
     <row r="77" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>240</v>
+      <c r="B77" t="s">
+        <v>397</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>155</v>
@@ -8452,11 +8960,11 @@
       </c>
     </row>
     <row r="78" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>241</v>
+      <c r="B78" t="s">
+        <v>398</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>155</v>
@@ -8530,11 +9038,11 @@
       </c>
     </row>
     <row r="79" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" t="s">
         <v>149</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>242</v>
+      <c r="B79" t="s">
+        <v>399</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>155</v>
@@ -8661,11 +9169,11 @@
       </c>
     </row>
     <row r="80" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" t="s">
         <v>149</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>243</v>
+      <c r="B80" t="s">
+        <v>400</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>155</v>
@@ -8739,11 +9247,11 @@
       </c>
     </row>
     <row r="81" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" t="s">
         <v>149</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>244</v>
+      <c r="B81" t="s">
+        <v>401</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>155</v>
@@ -8870,11 +9378,11 @@
       </c>
     </row>
     <row r="82" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="A82" t="s">
         <v>149</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>245</v>
+      <c r="B82" t="s">
+        <v>402</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>155</v>
@@ -8948,11 +9456,11 @@
       </c>
     </row>
     <row r="83" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="A83" t="s">
         <v>149</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>246</v>
+      <c r="B83" t="s">
+        <v>403</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>155</v>
@@ -9079,11 +9587,11 @@
       </c>
     </row>
     <row r="84" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="A84" t="s">
         <v>149</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>247</v>
+      <c r="B84" t="s">
+        <v>404</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>155</v>
@@ -9157,11 +9665,11 @@
       </c>
     </row>
     <row r="85" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="A85" t="s">
         <v>149</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>248</v>
+      <c r="B85" t="s">
+        <v>405</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>155</v>
@@ -9419,11 +9927,11 @@
       </c>
     </row>
     <row r="87" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" t="s">
         <v>149</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>249</v>
+      <c r="B87" t="s">
+        <v>406</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>135</v>
@@ -9497,11 +10005,11 @@
       </c>
     </row>
     <row r="88" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" t="s">
         <v>149</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>250</v>
+      <c r="B88" t="s">
+        <v>407</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>135</v>
@@ -9575,11 +10083,11 @@
       </c>
     </row>
     <row r="89" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>251</v>
+      <c r="B89" t="s">
+        <v>408</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>135</v>
@@ -9706,11 +10214,11 @@
       </c>
     </row>
     <row r="90" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="A90" t="s">
         <v>149</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>252</v>
+      <c r="B90" t="s">
+        <v>409</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>135</v>
@@ -9784,11 +10292,11 @@
       </c>
     </row>
     <row r="91" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="A91" t="s">
         <v>149</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>253</v>
+      <c r="B91" t="s">
+        <v>410</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>135</v>
@@ -9862,11 +10370,11 @@
       </c>
     </row>
     <row r="92" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>254</v>
+      <c r="B92" t="s">
+        <v>411</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>135</v>
@@ -9993,11 +10501,11 @@
       </c>
     </row>
     <row r="93" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" t="s">
         <v>149</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>255</v>
+      <c r="B93" t="s">
+        <v>412</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>135</v>
@@ -10071,11 +10579,11 @@
       </c>
     </row>
     <row r="94" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="A94" t="s">
         <v>149</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>256</v>
+      <c r="B94" t="s">
+        <v>413</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>135</v>
@@ -10149,11 +10657,11 @@
       </c>
     </row>
     <row r="95" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" t="s">
         <v>149</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>257</v>
+      <c r="B95" t="s">
+        <v>414</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>135</v>
@@ -10280,11 +10788,11 @@
       </c>
     </row>
     <row r="96" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="A96" t="s">
         <v>149</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>258</v>
+      <c r="B96" t="s">
+        <v>415</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>135</v>
@@ -10358,11 +10866,11 @@
       </c>
     </row>
     <row r="97" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" t="s">
         <v>149</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>259</v>
+      <c r="B97" t="s">
+        <v>416</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>135</v>
@@ -10436,11 +10944,11 @@
       </c>
     </row>
     <row r="98" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="A98" t="s">
         <v>149</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>260</v>
+      <c r="B98" t="s">
+        <v>417</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>156</v>
@@ -10494,11 +11002,11 @@
       <c r="AX98" s="2"/>
     </row>
     <row r="99" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" t="s">
         <v>149</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>261</v>
+      <c r="B99" t="s">
+        <v>418</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>156</v>
@@ -10552,11 +11060,11 @@
       <c r="AX99" s="2"/>
     </row>
     <row r="100" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="A100" t="s">
         <v>149</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>262</v>
+      <c r="B100" t="s">
+        <v>419</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>156</v>
@@ -10610,11 +11118,11 @@
       <c r="AX100" s="2"/>
     </row>
     <row r="101" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="A101" t="s">
         <v>149</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>263</v>
+      <c r="B101" t="s">
+        <v>420</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>136</v>
@@ -10668,11 +11176,11 @@
       <c r="AX101" s="2"/>
     </row>
     <row r="102" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="A102" t="s">
         <v>149</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>264</v>
+      <c r="B102" t="s">
+        <v>421</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>136</v>
@@ -10726,11 +11234,11 @@
       <c r="AX102" s="2"/>
     </row>
     <row r="103" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="A103" t="s">
         <v>149</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>265</v>
+      <c r="B103" t="s">
+        <v>422</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>136</v>
@@ -10784,11 +11292,11 @@
       <c r="AX103" s="2"/>
     </row>
     <row r="104" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="A104" t="s">
         <v>149</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>266</v>
+      <c r="B104" t="s">
+        <v>423</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>157</v>
@@ -10870,11 +11378,11 @@
       <c r="AX105" s="2"/>
     </row>
     <row r="106" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="A106" t="s">
         <v>149</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>267</v>
+      <c r="B106" t="s">
+        <v>424</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>159</v>
@@ -10916,11 +11424,11 @@
       <c r="AX106" s="2"/>
     </row>
     <row r="107" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" t="s">
         <v>149</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>268</v>
+      <c r="B107" t="s">
+        <v>425</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>160</v>
@@ -10962,11 +11470,11 @@
       <c r="AX107" s="2"/>
     </row>
     <row r="108" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="A108" t="s">
         <v>149</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>269</v>
+      <c r="B108" t="s">
+        <v>426</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>157</v>
@@ -11048,11 +11556,11 @@
       <c r="AX109" s="2"/>
     </row>
     <row r="110" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="A110" t="s">
         <v>149</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>270</v>
+      <c r="B110" t="s">
+        <v>427</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>159</v>
@@ -11094,11 +11602,11 @@
       <c r="AX110" s="2"/>
     </row>
     <row r="111" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="A111" t="s">
         <v>149</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>271</v>
+      <c r="B111" t="s">
+        <v>428</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>160</v>
@@ -11140,11 +11648,11 @@
       <c r="AX111" s="2"/>
     </row>
     <row r="112" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="A112" t="s">
         <v>149</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>272</v>
+      <c r="B112" t="s">
+        <v>429</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>157</v>
@@ -11226,11 +11734,11 @@
       <c r="AX113" s="2"/>
     </row>
     <row r="114" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+      <c r="A114" t="s">
         <v>149</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>273</v>
+      <c r="B114" t="s">
+        <v>430</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>159</v>
@@ -11272,11 +11780,11 @@
       <c r="AX114" s="2"/>
     </row>
     <row r="115" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+      <c r="A115" t="s">
         <v>149</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>274</v>
+      <c r="B115" t="s">
+        <v>431</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>160</v>
@@ -11318,11 +11826,11 @@
       <c r="AX115" s="2"/>
     </row>
     <row r="116" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+      <c r="A116" t="s">
         <v>149</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>275</v>
+      <c r="B116" t="s">
+        <v>432</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>161</v>
@@ -11438,11 +11946,11 @@
       <c r="AX116" s="2"/>
     </row>
     <row r="117" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" t="s">
         <v>149</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>276</v>
+      <c r="B117" t="s">
+        <v>433</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>161</v>
@@ -11558,11 +12066,11 @@
       <c r="AX117" s="2"/>
     </row>
     <row r="118" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="A118" t="s">
         <v>149</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>277</v>
+      <c r="B118" t="s">
+        <v>434</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>161</v>
@@ -11678,11 +12186,11 @@
       <c r="AX118" s="2"/>
     </row>
     <row r="119" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+      <c r="A119" t="s">
         <v>149</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>278</v>
+      <c r="B119" t="s">
+        <v>435</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>161</v>
@@ -11798,11 +12306,11 @@
       <c r="AX119" s="2"/>
     </row>
     <row r="120" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+      <c r="A120" t="s">
         <v>149</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>279</v>
+      <c r="B120" t="s">
+        <v>436</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>161</v>
@@ -11918,11 +12426,11 @@
       <c r="AX120" s="2"/>
     </row>
     <row r="121" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+      <c r="A121" t="s">
         <v>149</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>280</v>
+      <c r="B121" t="s">
+        <v>437</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>161</v>
@@ -12038,11 +12546,11 @@
       <c r="AX121" s="2"/>
     </row>
     <row r="122" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+      <c r="A122" t="s">
         <v>149</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>281</v>
+      <c r="B122" t="s">
+        <v>438</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>161</v>
@@ -12158,11 +12666,11 @@
       <c r="AX122" s="2"/>
     </row>
     <row r="123" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+      <c r="A123" t="s">
         <v>149</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>282</v>
+      <c r="B123" t="s">
+        <v>439</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>161</v>
@@ -12278,11 +12786,11 @@
       <c r="AX123" s="2"/>
     </row>
     <row r="124" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+      <c r="A124" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>283</v>
+      <c r="B124" t="s">
+        <v>440</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>161</v>
@@ -12398,11 +12906,11 @@
       <c r="AX124" s="2"/>
     </row>
     <row r="125" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+      <c r="A125" t="s">
         <v>149</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>284</v>
+      <c r="B125" t="s">
+        <v>441</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>161</v>
@@ -12518,11 +13026,11 @@
       <c r="AX125" s="2"/>
     </row>
     <row r="126" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
+      <c r="A126" t="s">
         <v>149</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>285</v>
+      <c r="B126" t="s">
+        <v>442</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>161</v>
@@ -12638,11 +13146,11 @@
       <c r="AX126" s="2"/>
     </row>
     <row r="127" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="A127" t="s">
         <v>149</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>286</v>
+      <c r="B127" t="s">
+        <v>443</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>161</v>
@@ -12758,11 +13266,11 @@
       <c r="AX127" s="2"/>
     </row>
     <row r="128" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
+      <c r="A128" t="s">
         <v>149</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>287</v>
+      <c r="B128" t="s">
+        <v>444</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>170</v>
@@ -12878,11 +13386,11 @@
       <c r="AX128" s="2"/>
     </row>
     <row r="129" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
+      <c r="A129" t="s">
         <v>149</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>288</v>
+      <c r="B129" t="s">
+        <v>445</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>170</v>
@@ -12998,11 +13506,11 @@
       <c r="AX129" s="2"/>
     </row>
     <row r="130" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+      <c r="A130" t="s">
         <v>149</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>289</v>
+      <c r="B130" t="s">
+        <v>446</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>170</v>
@@ -13118,11 +13626,11 @@
       <c r="AX130" s="2"/>
     </row>
     <row r="131" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+      <c r="A131" t="s">
         <v>149</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>290</v>
+      <c r="B131" t="s">
+        <v>447</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>170</v>
@@ -13238,11 +13746,11 @@
       <c r="AX131" s="2"/>
     </row>
     <row r="132" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+      <c r="A132" t="s">
         <v>149</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>291</v>
+      <c r="B132" t="s">
+        <v>448</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>170</v>
@@ -13358,11 +13866,11 @@
       <c r="AX132" s="2"/>
     </row>
     <row r="133" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+      <c r="A133" t="s">
         <v>149</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>292</v>
+      <c r="B133" t="s">
+        <v>449</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>170</v>
@@ -13478,11 +13986,11 @@
       <c r="AX133" s="2"/>
     </row>
     <row r="134" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+      <c r="A134" t="s">
         <v>149</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>293</v>
+      <c r="B134" t="s">
+        <v>450</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>170</v>
@@ -13598,11 +14106,11 @@
       <c r="AX134" s="2"/>
     </row>
     <row r="135" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
+      <c r="A135" t="s">
         <v>149</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>294</v>
+      <c r="B135" t="s">
+        <v>451</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>170</v>
@@ -13718,11 +14226,11 @@
       <c r="AX135" s="2"/>
     </row>
     <row r="136" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
+      <c r="A136" t="s">
         <v>149</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>295</v>
+      <c r="B136" t="s">
+        <v>452</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>170</v>
@@ -13838,11 +14346,11 @@
       <c r="AX136" s="2"/>
     </row>
     <row r="137" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" t="s">
         <v>149</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>296</v>
+      <c r="B137" t="s">
+        <v>453</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>170</v>
@@ -13958,11 +14466,11 @@
       <c r="AX137" s="2"/>
     </row>
     <row r="138" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+      <c r="A138" t="s">
         <v>149</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>297</v>
+      <c r="B138" t="s">
+        <v>454</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>170</v>
@@ -14078,11 +14586,11 @@
       <c r="AX138" s="2"/>
     </row>
     <row r="139" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+      <c r="A139" t="s">
         <v>149</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>298</v>
+      <c r="B139" t="s">
+        <v>455</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>170</v>
@@ -14198,8 +14706,12 @@
       <c r="AX139" s="2"/>
     </row>
     <row r="140" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
+      <c r="A140" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140" t="s">
+        <v>456</v>
+      </c>
       <c r="C140" s="1" t="s">
         <v>313</v>
       </c>
@@ -14314,8 +14826,12 @@
       <c r="AX140" s="2"/>
     </row>
     <row r="141" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
+      <c r="A141" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141" t="s">
+        <v>457</v>
+      </c>
       <c r="C141" s="1" t="s">
         <v>313</v>
       </c>
@@ -14430,8 +14946,12 @@
       <c r="AX141" s="2"/>
     </row>
     <row r="142" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
+      <c r="A142" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" t="s">
+        <v>458</v>
+      </c>
       <c r="C142" s="1" t="s">
         <v>313</v>
       </c>
@@ -14546,8 +15066,12 @@
       <c r="AX142" s="2"/>
     </row>
     <row r="143" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
+      <c r="A143" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" t="s">
+        <v>459</v>
+      </c>
       <c r="C143" s="1" t="s">
         <v>313</v>
       </c>
@@ -14662,8 +15186,12 @@
       <c r="AX143" s="2"/>
     </row>
     <row r="144" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
+      <c r="A144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" t="s">
+        <v>460</v>
+      </c>
       <c r="C144" s="1" t="s">
         <v>313</v>
       </c>
@@ -14778,8 +15306,12 @@
       <c r="AX144" s="2"/>
     </row>
     <row r="145" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
+      <c r="A145" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" t="s">
+        <v>461</v>
+      </c>
       <c r="C145" s="1" t="s">
         <v>313</v>
       </c>
@@ -14894,8 +15426,12 @@
       <c r="AX145" s="2"/>
     </row>
     <row r="146" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>462</v>
+      </c>
       <c r="C146" s="1" t="s">
         <v>313</v>
       </c>
@@ -15010,8 +15546,12 @@
       <c r="AX146" s="2"/>
     </row>
     <row r="147" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>463</v>
+      </c>
       <c r="C147" s="1" t="s">
         <v>313</v>
       </c>
@@ -15126,8 +15666,12 @@
       <c r="AX147" s="2"/>
     </row>
     <row r="148" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>464</v>
+      </c>
       <c r="C148" s="1" t="s">
         <v>313</v>
       </c>
@@ -15242,8 +15786,12 @@
       <c r="AX148" s="2"/>
     </row>
     <row r="149" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>465</v>
+      </c>
       <c r="C149" s="1" t="s">
         <v>313</v>
       </c>
@@ -15358,8 +15906,12 @@
       <c r="AX149" s="2"/>
     </row>
     <row r="150" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>466</v>
+      </c>
       <c r="C150" s="1" t="s">
         <v>313</v>
       </c>
@@ -15474,8 +16026,12 @@
       <c r="AX150" s="2"/>
     </row>
     <row r="151" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
+      <c r="A151" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>467</v>
+      </c>
       <c r="C151" s="1" t="s">
         <v>313</v>
       </c>
@@ -15590,8 +16146,12 @@
       <c r="AX151" s="2"/>
     </row>
     <row r="152" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
+      <c r="A152" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" t="s">
+        <v>468</v>
+      </c>
       <c r="C152" s="1" t="s">
         <v>317</v>
       </c>
@@ -15706,8 +16266,12 @@
       <c r="AX152" s="2"/>
     </row>
     <row r="153" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
+      <c r="A153" t="s">
+        <v>149</v>
+      </c>
+      <c r="B153" t="s">
+        <v>469</v>
+      </c>
       <c r="C153" s="1" t="s">
         <v>317</v>
       </c>
@@ -15822,8 +16386,12 @@
       <c r="AX153" s="2"/>
     </row>
     <row r="154" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
+      <c r="A154" t="s">
+        <v>149</v>
+      </c>
+      <c r="B154" t="s">
+        <v>470</v>
+      </c>
       <c r="C154" s="1" t="s">
         <v>317</v>
       </c>
@@ -15938,8 +16506,12 @@
       <c r="AX154" s="2"/>
     </row>
     <row r="155" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
+      <c r="A155" t="s">
+        <v>149</v>
+      </c>
+      <c r="B155" t="s">
+        <v>471</v>
+      </c>
       <c r="C155" s="1" t="s">
         <v>317</v>
       </c>
@@ -16054,8 +16626,12 @@
       <c r="AX155" s="2"/>
     </row>
     <row r="156" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
+      <c r="A156" t="s">
+        <v>149</v>
+      </c>
+      <c r="B156" t="s">
+        <v>472</v>
+      </c>
       <c r="C156" s="1" t="s">
         <v>317</v>
       </c>
@@ -16170,8 +16746,12 @@
       <c r="AX156" s="2"/>
     </row>
     <row r="157" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
+      <c r="A157" t="s">
+        <v>149</v>
+      </c>
+      <c r="B157" t="s">
+        <v>473</v>
+      </c>
       <c r="C157" s="1" t="s">
         <v>317</v>
       </c>
@@ -16286,8 +16866,12 @@
       <c r="AX157" s="2"/>
     </row>
     <row r="158" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
+      <c r="A158" t="s">
+        <v>149</v>
+      </c>
+      <c r="B158" t="s">
+        <v>474</v>
+      </c>
       <c r="C158" s="1" t="s">
         <v>317</v>
       </c>
@@ -16402,8 +16986,12 @@
       <c r="AX158" s="2"/>
     </row>
     <row r="159" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
+      <c r="A159" t="s">
+        <v>149</v>
+      </c>
+      <c r="B159" t="s">
+        <v>475</v>
+      </c>
       <c r="C159" s="1" t="s">
         <v>317</v>
       </c>
@@ -16518,8 +17106,12 @@
       <c r="AX159" s="2"/>
     </row>
     <row r="160" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
+      <c r="A160" t="s">
+        <v>149</v>
+      </c>
+      <c r="B160" t="s">
+        <v>476</v>
+      </c>
       <c r="C160" s="1" t="s">
         <v>317</v>
       </c>
@@ -16634,8 +17226,12 @@
       <c r="AX160" s="2"/>
     </row>
     <row r="161" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
+      <c r="A161" t="s">
+        <v>149</v>
+      </c>
+      <c r="B161" t="s">
+        <v>477</v>
+      </c>
       <c r="C161" s="1" t="s">
         <v>317</v>
       </c>
@@ -16750,8 +17346,12 @@
       <c r="AX161" s="2"/>
     </row>
     <row r="162" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
+      <c r="A162" t="s">
+        <v>149</v>
+      </c>
+      <c r="B162" t="s">
+        <v>478</v>
+      </c>
       <c r="C162" s="1" t="s">
         <v>317</v>
       </c>
@@ -16866,8 +17466,12 @@
       <c r="AX162" s="2"/>
     </row>
     <row r="163" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
+      <c r="A163" t="s">
+        <v>149</v>
+      </c>
+      <c r="B163" t="s">
+        <v>479</v>
+      </c>
       <c r="C163" s="1" t="s">
         <v>317</v>
       </c>
@@ -16982,8 +17586,12 @@
       <c r="AX163" s="2"/>
     </row>
     <row r="164" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
+      <c r="A164" t="s">
+        <v>149</v>
+      </c>
+      <c r="B164" t="s">
+        <v>480</v>
+      </c>
       <c r="C164" s="1" t="s">
         <v>319</v>
       </c>
@@ -17098,8 +17706,12 @@
       <c r="AX164" s="2"/>
     </row>
     <row r="165" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
+      <c r="A165" t="s">
+        <v>149</v>
+      </c>
+      <c r="B165" t="s">
+        <v>481</v>
+      </c>
       <c r="C165" s="1" t="s">
         <v>319</v>
       </c>
@@ -17214,8 +17826,12 @@
       <c r="AX165" s="2"/>
     </row>
     <row r="166" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
+      <c r="A166" t="s">
+        <v>149</v>
+      </c>
+      <c r="B166" t="s">
+        <v>482</v>
+      </c>
       <c r="C166" s="1" t="s">
         <v>319</v>
       </c>
@@ -17330,8 +17946,12 @@
       <c r="AX166" s="2"/>
     </row>
     <row r="167" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
+      <c r="A167" t="s">
+        <v>150</v>
+      </c>
+      <c r="B167" t="s">
+        <v>483</v>
+      </c>
       <c r="C167" s="1" t="s">
         <v>319</v>
       </c>
@@ -17446,8 +18066,12 @@
       <c r="AX167" s="2"/>
     </row>
     <row r="168" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
+      <c r="A168" t="s">
+        <v>150</v>
+      </c>
+      <c r="B168" t="s">
+        <v>484</v>
+      </c>
       <c r="C168" s="1" t="s">
         <v>319</v>
       </c>
@@ -17562,8 +18186,12 @@
       <c r="AX168" s="2"/>
     </row>
     <row r="169" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
+      <c r="A169" t="s">
+        <v>150</v>
+      </c>
+      <c r="B169" t="s">
+        <v>485</v>
+      </c>
       <c r="C169" s="1" t="s">
         <v>319</v>
       </c>
@@ -17678,8 +18306,12 @@
       <c r="AX169" s="2"/>
     </row>
     <row r="170" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
+      <c r="A170" t="s">
+        <v>149</v>
+      </c>
+      <c r="B170" t="s">
+        <v>486</v>
+      </c>
       <c r="C170" s="1" t="s">
         <v>319</v>
       </c>
@@ -17794,8 +18426,12 @@
       <c r="AX170" s="2"/>
     </row>
     <row r="171" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
+      <c r="A171" t="s">
+        <v>149</v>
+      </c>
+      <c r="B171" t="s">
+        <v>487</v>
+      </c>
       <c r="C171" s="1" t="s">
         <v>319</v>
       </c>
@@ -17910,8 +18546,12 @@
       <c r="AX171" s="2"/>
     </row>
     <row r="172" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
+      <c r="A172" t="s">
+        <v>149</v>
+      </c>
+      <c r="B172" t="s">
+        <v>488</v>
+      </c>
       <c r="C172" s="1" t="s">
         <v>319</v>
       </c>
@@ -18026,8 +18666,12 @@
       <c r="AX172" s="2"/>
     </row>
     <row r="173" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
+      <c r="A173" t="s">
+        <v>149</v>
+      </c>
+      <c r="B173" t="s">
+        <v>489</v>
+      </c>
       <c r="C173" s="1" t="s">
         <v>319</v>
       </c>
@@ -18142,8 +18786,12 @@
       <c r="AX173" s="2"/>
     </row>
     <row r="174" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
+      <c r="A174" t="s">
+        <v>149</v>
+      </c>
+      <c r="B174" t="s">
+        <v>490</v>
+      </c>
       <c r="C174" s="1" t="s">
         <v>319</v>
       </c>
@@ -18258,8 +18906,12 @@
       <c r="AX174" s="2"/>
     </row>
     <row r="175" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
+      <c r="A175" t="s">
+        <v>149</v>
+      </c>
+      <c r="B175" t="s">
+        <v>491</v>
+      </c>
       <c r="C175" s="1" t="s">
         <v>319</v>
       </c>
@@ -18376,8 +19028,8 @@
   </sheetData>
   <autoFilter ref="G1:G139" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -18385,8 +19037,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E373AFE3-95E6-4012-963C-FB304E9ADB66}">
-  <dimension ref="A1:AW115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E373AFE3-95E6-4012-963C-FB304E9ADB66}">
+  <dimension ref="A1:AX115"/>
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
@@ -18394,64 +19046,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" collapsed="1"/>
-    <col min="3" max="3" width="32" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="8.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="9.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="115.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="75.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="40.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="23.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="13.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="44" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="47" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="12.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="15" style="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="14.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="11.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="15.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="15.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="18.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="14.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="61" width="15.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="16.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="16384" width="26.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="32.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="22.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="9.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="5.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="9.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="115.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="75.5703125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="40.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="23.85546875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="13.5703125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="36" max="44" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="46" max="47" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="1" width="15.0" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="11.5703125" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
+    <col min="60" max="61" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="16.42578125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="65" max="16384" style="1" width="26.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -27865,7 +28517,7 @@
       <c r="AW115" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -27873,8 +28525,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E51003-E6AF-4A46-8DE2-C02177084CDE}">
-  <dimension ref="A1:BS1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E51003-E6AF-4A46-8DE2-C02177084CDE}">
+  <dimension ref="A1:BT1"/>
   <sheetViews>
     <sheetView topLeftCell="BC1" workbookViewId="0">
       <selection activeCell="BE29" sqref="BE29"/>
@@ -27882,10 +28534,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="20.42578125" style="1" collapsed="1"/>
+    <col min="1" max="16384" style="1" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28101,8 +28753,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/VLinkCCTestData.xlsx
+++ b/KatalonData/VLinkCCTestData.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5AAA304B-F810-4AEF-9A03-7B15342B83C8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48884E5-D02E-4104-B635-AED331BE91A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}" yWindow="-120"/>
+    <workbookView xWindow="28680" yWindow="-3945" windowWidth="29040" windowHeight="15840" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="CCSaleData" r:id="rId1" sheetId="1"/>
-    <sheet name="Trial" r:id="rId2" sheetId="4"/>
-    <sheet name="AuthAndCaptureData" r:id="rId3" sheetId="3"/>
+    <sheet name="CCSaleData" sheetId="1" r:id="rId1"/>
+    <sheet name="Trial" sheetId="4" r:id="rId2"/>
+    <sheet name="AuthAndCaptureData" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">CCSaleData!$G$1:$G$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CCSaleData!$G$1:$G$175</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9188" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8600" uniqueCount="362">
   <si>
     <t>Notes</t>
   </si>
@@ -553,402 +553,6 @@
     <t>Vantiv CPS</t>
   </si>
   <si>
-    <t>Fri Feb 17 20:38:19 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:39:02 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:39:45 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:40:27 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:41:10 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:41:53 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:42:36 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:43:18 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:44:02 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:44:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:45:27 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:46:09 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:46:52 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:47:35 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:48:17 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:49:00 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:49:43 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:50:26 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:51:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:51:51 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:52:34 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:53:17 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:53:59 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:54:42 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:55:25 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:56:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:56:51 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:57:33 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:58:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:58:59 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 20:59:42 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:00:24 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:01:50 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:02:33 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:03:18 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:04:03 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:04:47 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:05:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:06:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:07:00 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:07:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:08:28 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:09:12 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:09:57 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:10:40 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:11:23 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:12:06 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:12:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:13:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:14:15 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:14:58 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:15:41 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:16:24 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:17:07 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:17:50 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:19:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:20:01 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:20:46 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:21:31 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:22:15 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:23:00 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:23:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:24:30 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:25:14 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:25:59 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:26:43 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:27:28 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:28:10 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:28:53 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:29:36 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:30:19 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:31:02 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:31:45 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:32:29 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:33:13 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:33:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:34:39 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:35:22 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:36:50 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:37:35 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:38:19 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:39:03 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:39:47 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:40:31 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:41:15 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:42:00 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:42:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:43:29 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:44:12 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:44:57 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:45:39 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:46:22 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:47:04 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:47:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:48:33 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:49:19 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:50:43 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:51:26 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:52:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:53:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:54:15 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:54:58 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:56:22 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:57:05 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:57:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:58:31 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:59:13 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 21:59:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 22:00:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 22:01:21 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 22:02:03 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 22:02:45 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 22:03:27 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 22:04:10 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 22:04:51 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 22:05:33 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 14:30:58 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 14:31:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 14:32:25 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 14:33:06 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 14:33:47 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 14:34:27 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 14:35:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 14:35:48 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 14:36:29 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 14:37:09 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 14:37:50 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 14:38:31 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 16:02:39 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 16:03:25 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 16:04:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 16:04:50 EST 2023</t>
-  </si>
-  <si>
     <t>Mon Feb 20 16:07:32 EST 2023</t>
   </si>
   <si>
@@ -1009,518 +613,523 @@
     <t>pwd501</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sat May 18 15:34:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:35:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:36:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:37:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:38:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:38:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:39:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:40:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:40:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:41:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:42:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:43:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:43:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:44:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:45:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:46:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:46:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:47:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:48:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:49:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:49:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:50:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:51:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:52:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:52:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:53:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:54:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:54:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:55:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:56:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:57:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:57:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:58:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 15:59:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:00:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:00:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:01:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:02:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:03:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:03:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:04:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:05:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:06:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:07:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:07:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:08:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:09:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:10:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:10:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:11:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:12:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:13:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:13:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:14:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:15:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:16:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:16:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:17:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:18:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:18:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:19:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:20:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:21:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:22:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:22:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:23:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:24:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:25:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:25:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:26:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:27:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:28:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:28:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:29:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:30:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:31:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:31:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:32:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:33:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:34:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:34:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:35:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:36:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:37:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:37:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:38:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:39:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:40:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:40:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:41:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:42:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:43:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:43:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:44:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:45:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:46:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:46:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:47:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:48:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:49:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:49:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:50:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:51:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:52:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:52:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:53:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:54:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:55:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:55:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:56:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:57:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:58:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:59:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 16:59:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:00:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:01:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:02:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:02:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:03:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:04:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:05:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:05:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:06:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:07:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:07:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:08:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:09:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:10:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:10:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:11:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:12:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:13:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:14:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:14:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:15:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:16:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:16:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:17:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:18:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:19:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:19:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:20:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:21:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:22:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:22:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:23:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:24:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:24:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:25:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:26:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:27:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:27:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:28:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:29:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:30:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:30:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:31:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:32:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:33:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:33:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:34:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:35:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:36:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:36:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:37:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:38:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:39:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat May 18 17:40:01 EDT 2024</t>
+    <t>Thu Aug 14 17:33:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:33:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:33:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:33:52 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:34:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:34:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:34:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:34:33 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:34:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:34:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:35:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:35:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:35:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:35:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:35:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:36:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:36:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:36:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:36:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:36:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:37:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:37:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:37:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:37:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:37:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:37:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:38:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:38:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:38:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:38:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:38:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:39:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:39:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:39:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:39:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:39:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:39:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:40:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:40:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:40:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:40:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:40:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:41:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:41:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:41:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:42:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:42:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:42:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:42:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:42:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:43:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:43:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:43:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:43:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:43:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:43:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:44:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:44:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:44:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:44:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:44:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:45:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:45:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:45:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:45:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:45:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:45:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:46:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:46:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:46:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:46:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:46:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:47:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:47:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:47:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:47:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:47:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:47:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:48:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:48:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:48:33 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:48:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:48:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:49:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:49:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:49:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:49:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:49:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:49:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:50:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:50:17 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:50:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:50:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:50:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:51:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:51:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:51:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:51:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:51:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:51:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:52:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:52:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:52:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:52:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:52:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:53:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:53:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:53:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:53:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:54:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:54:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:54:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:54:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:55:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:55:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:55:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:55:33 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:55:44 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:55:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:56:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:56:17 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:56:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:56:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:56:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:56:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:57:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:57:17 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:57:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:57:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:57:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:57:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:58:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:58:17 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:58:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:58:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:58:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:58:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:59:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:59:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:59:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:59:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:59:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 17:59:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:00:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:00:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:00:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:00:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:00:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:01:02 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:01:13 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:01:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:01:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:01:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:01:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:02:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:02:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:02:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:02:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:02:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:03:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:03:13 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:03:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:03:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:03:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:03:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:04:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:04:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 14 18:04:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>COF Initial FDMS Rapid Connect</t>
+  </si>
+  <si>
+    <t>COF Subsequent FDMS Rapid Connect</t>
+  </si>
+  <si>
+    <t>Req Fields Only FDMS Rapid Connect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1569,21 +1178,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1596,14 +1205,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1636,9 +1245,9 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1690,7 +1299,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1742,7 +1351,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1801,21 +1410,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1832,7 +1441,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1884,82 +1493,82 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}">
-  <dimension ref="A1:AY175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}">
+  <dimension ref="A1:AX175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A135" ySplit="1"/>
-      <selection activeCell="D30" pane="bottomLeft" sqref="D30"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="26.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="36.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="32.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="22.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="9.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="5.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="24.0" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="115.42578125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="75.5703125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="40.5703125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="23.85546875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="13.5703125" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="37" max="45" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
-    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="11.5703125" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
-    <col min="61" max="62" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="16.42578125" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="66" max="16384" style="1" width="26.7109375" collapsed="true"/>
+    <col min="1" max="1" width="9.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7265625" style="1" collapsed="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="4.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="5.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="9.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="4.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="115.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="75.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="40.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="14.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="23.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="14.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="45" width="10.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="11.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="48" width="13.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="12.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="15" style="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="14.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="9.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="11.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="15.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="14.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="15.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="11.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="18.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="14.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="62" width="15.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="16.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="10.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="16384" width="26.7265625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -2111,12 +1720,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>153</v>
@@ -2231,12 +1840,12 @@
       </c>
       <c r="AX2" s="2"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>192</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>153</v>
@@ -2298,12 +1907,12 @@
       <c r="AE3" s="2"/>
       <c r="AX3" s="2"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>193</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>153</v>
@@ -2365,12 +1974,12 @@
       <c r="AE4" s="2"/>
       <c r="AX4" s="2"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>153</v>
@@ -2485,12 +2094,12 @@
       </c>
       <c r="AX5" s="2"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>195</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>153</v>
@@ -2552,12 +2161,12 @@
       <c r="AE6" s="2"/>
       <c r="AX6" s="2"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>153</v>
@@ -2619,12 +2228,12 @@
       <c r="AE7" s="2"/>
       <c r="AX7" s="2"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>197</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>153</v>
@@ -2739,12 +2348,12 @@
       </c>
       <c r="AX8" s="2"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
+        <v>198</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>153</v>
@@ -2806,12 +2415,12 @@
       <c r="AE9" s="2"/>
       <c r="AX9" s="2"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>199</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>153</v>
@@ -2873,12 +2482,12 @@
       <c r="AE10" s="2"/>
       <c r="AX10" s="2"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>153</v>
@@ -2993,12 +2602,12 @@
       </c>
       <c r="AX11" s="2"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
+        <v>201</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>153</v>
@@ -3060,12 +2669,12 @@
       <c r="AE12" s="2"/>
       <c r="AX12" s="2"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>202</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>153</v>
@@ -3127,12 +2736,12 @@
       <c r="AE13" s="2"/>
       <c r="AX13" s="2"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>336</v>
+        <v>203</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>153</v>
@@ -3247,12 +2856,12 @@
       </c>
       <c r="AX14" s="2"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>337</v>
+        <v>204</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>153</v>
@@ -3314,12 +2923,12 @@
       <c r="AE15" s="2"/>
       <c r="AX15" s="2"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>338</v>
+        <v>205</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>153</v>
@@ -3381,12 +2990,12 @@
       <c r="AE16" s="2"/>
       <c r="AX16" s="2"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>149</v>
       </c>
       <c r="B17" t="s">
-        <v>339</v>
+        <v>206</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>153</v>
@@ -3501,12 +3110,12 @@
       </c>
       <c r="AX17" s="2"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>340</v>
+        <v>207</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>153</v>
@@ -3568,12 +3177,12 @@
       <c r="AE18" s="2"/>
       <c r="AX18" s="2"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>149</v>
       </c>
       <c r="B19" t="s">
-        <v>341</v>
+        <v>208</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>153</v>
@@ -3635,12 +3244,12 @@
       <c r="AE19" s="2"/>
       <c r="AX19" s="2"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>342</v>
+        <v>209</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>153</v>
@@ -3755,12 +3364,12 @@
       </c>
       <c r="AX20" s="2"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>343</v>
+        <v>210</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>153</v>
@@ -3822,12 +3431,12 @@
       <c r="AE21" s="2"/>
       <c r="AX21" s="2"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>344</v>
+        <v>211</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>153</v>
@@ -3889,12 +3498,12 @@
       <c r="AE22" s="2"/>
       <c r="AX22" s="2"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>345</v>
+        <v>212</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>153</v>
@@ -4009,12 +3618,12 @@
       </c>
       <c r="AX23" s="2"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>149</v>
       </c>
       <c r="B24" t="s">
-        <v>346</v>
+        <v>213</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>153</v>
@@ -4076,12 +3685,12 @@
       <c r="AE24" s="2"/>
       <c r="AX24" s="2"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>149</v>
       </c>
       <c r="B25" t="s">
-        <v>347</v>
+        <v>214</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>153</v>
@@ -4143,12 +3752,12 @@
       <c r="AE25" s="2"/>
       <c r="AX25" s="2"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>348</v>
+        <v>215</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>153</v>
@@ -4263,12 +3872,12 @@
       </c>
       <c r="AX26" s="2"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>149</v>
       </c>
       <c r="B27" t="s">
-        <v>349</v>
+        <v>216</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>153</v>
@@ -4330,12 +3939,12 @@
       <c r="AE27" s="2"/>
       <c r="AX27" s="2"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>149</v>
       </c>
       <c r="B28" t="s">
-        <v>350</v>
+        <v>217</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>153</v>
@@ -4397,12 +4006,12 @@
       <c r="AE28" s="2"/>
       <c r="AX28" s="2"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>149</v>
       </c>
       <c r="B29" t="s">
-        <v>351</v>
+        <v>218</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>153</v>
@@ -4517,12 +4126,12 @@
       </c>
       <c r="AX29" s="2"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>149</v>
       </c>
       <c r="B30" t="s">
-        <v>352</v>
+        <v>219</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>153</v>
@@ -4584,12 +4193,12 @@
       <c r="AE30" s="2"/>
       <c r="AX30" s="2"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>353</v>
+        <v>220</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>153</v>
@@ -4651,12 +4260,12 @@
       <c r="AE31" s="2"/>
       <c r="AX31" s="2"/>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>149</v>
       </c>
       <c r="B32" t="s">
-        <v>354</v>
+        <v>221</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>153</v>
@@ -4771,12 +4380,12 @@
       </c>
       <c r="AX32" s="2"/>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>355</v>
+        <v>222</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>153</v>
@@ -4838,12 +4447,12 @@
       <c r="AE33" s="2"/>
       <c r="AX33" s="2"/>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>149</v>
       </c>
       <c r="B34" t="s">
-        <v>356</v>
+        <v>223</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>153</v>
@@ -4905,12 +4514,12 @@
       <c r="AE34" s="2"/>
       <c r="AX34" s="2"/>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>357</v>
+        <v>224</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>153</v>
@@ -5025,12 +4634,12 @@
       </c>
       <c r="AX35" s="2"/>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>149</v>
       </c>
       <c r="B36" t="s">
-        <v>358</v>
+        <v>225</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>153</v>
@@ -5092,12 +4701,12 @@
       <c r="AE36" s="2"/>
       <c r="AX36" s="2"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>149</v>
       </c>
       <c r="B37" t="s">
-        <v>359</v>
+        <v>226</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>153</v>
@@ -5159,15 +4768,18 @@
       <c r="AE37" s="2"/>
       <c r="AX37" s="2"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>303</v>
+        <v>171</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>43</v>
@@ -5276,12 +4888,15 @@
       </c>
       <c r="AX38" s="2"/>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s">
-        <v>360</v>
+        <v>227</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>152</v>
@@ -5340,12 +4955,15 @@
       <c r="AE39" s="2"/>
       <c r="AX39" s="2"/>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B40" t="s">
-        <v>361</v>
+        <v>228</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>152</v>
@@ -5404,12 +5022,15 @@
       <c r="AE40" s="2"/>
       <c r="AX40" s="2"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>362</v>
+        <v>229</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>152</v>
@@ -5521,12 +5142,15 @@
       </c>
       <c r="AX41" s="2"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s">
-        <v>363</v>
+        <v>230</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>152</v>
@@ -5585,12 +5209,15 @@
       <c r="AE42" s="2"/>
       <c r="AX42" s="2"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>364</v>
+        <v>231</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>152</v>
@@ -5649,12 +5276,15 @@
       <c r="AE43" s="2"/>
       <c r="AX43" s="2"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>365</v>
+        <v>232</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>152</v>
@@ -5766,12 +5396,15 @@
       </c>
       <c r="AX44" s="2"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B45" t="s">
-        <v>366</v>
+        <v>233</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>152</v>
@@ -5830,12 +5463,15 @@
       <c r="AE45" s="2"/>
       <c r="AX45" s="2"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B46" t="s">
-        <v>367</v>
+        <v>234</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>152</v>
@@ -5894,12 +5530,15 @@
       <c r="AE46" s="2"/>
       <c r="AX46" s="2"/>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B47" t="s">
-        <v>368</v>
+        <v>235</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>152</v>
@@ -6011,12 +5650,15 @@
       </c>
       <c r="AX47" s="2"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B48" t="s">
-        <v>369</v>
+        <v>236</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>152</v>
@@ -6075,12 +5717,15 @@
       <c r="AE48" s="2"/>
       <c r="AX48" s="2"/>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
-        <v>370</v>
+        <v>237</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>152</v>
@@ -6139,12 +5784,12 @@
       <c r="AE49" s="2"/>
       <c r="AX49" s="2"/>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>149</v>
       </c>
       <c r="B50" t="s">
-        <v>371</v>
+        <v>238</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>154</v>
@@ -6217,12 +5862,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>372</v>
+        <v>239</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>154</v>
@@ -6348,12 +5993,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>373</v>
+        <v>240</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>154</v>
@@ -6426,12 +6071,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>149</v>
       </c>
       <c r="B53" t="s">
-        <v>374</v>
+        <v>241</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>154</v>
@@ -6557,12 +6202,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>149</v>
       </c>
       <c r="B54" t="s">
-        <v>375</v>
+        <v>242</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>154</v>
@@ -6635,12 +6280,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>149</v>
       </c>
       <c r="B55" t="s">
-        <v>376</v>
+        <v>243</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>154</v>
@@ -6766,12 +6411,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>149</v>
       </c>
       <c r="B56" t="s">
-        <v>377</v>
+        <v>244</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>154</v>
@@ -6844,12 +6489,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>149</v>
       </c>
       <c r="B57" t="s">
-        <v>378</v>
+        <v>245</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>154</v>
@@ -6975,12 +6620,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>149</v>
       </c>
       <c r="B58" t="s">
-        <v>379</v>
+        <v>246</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>154</v>
@@ -7053,12 +6698,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>149</v>
       </c>
       <c r="B59" t="s">
-        <v>380</v>
+        <v>247</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>154</v>
@@ -7184,12 +6829,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>149</v>
       </c>
       <c r="B60" t="s">
-        <v>381</v>
+        <v>248</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>154</v>
@@ -7262,12 +6907,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>149</v>
       </c>
       <c r="B61" t="s">
-        <v>382</v>
+        <v>249</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>154</v>
@@ -7393,18 +7038,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>304</v>
+        <v>172</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>43</v>
@@ -7524,15 +7169,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B63" t="s">
-        <v>383</v>
+        <v>250</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>152</v>
@@ -7602,15 +7247,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B64" t="s">
-        <v>384</v>
+        <v>251</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>152</v>
@@ -7680,15 +7325,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B65" t="s">
-        <v>385</v>
+        <v>252</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>152</v>
@@ -7811,15 +7456,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B66" t="s">
-        <v>386</v>
+        <v>253</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>152</v>
@@ -7889,15 +7534,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B67" t="s">
-        <v>387</v>
+        <v>254</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>152</v>
@@ -7967,15 +7612,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B68" t="s">
-        <v>388</v>
+        <v>255</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>152</v>
@@ -8098,15 +7743,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B69" t="s">
-        <v>389</v>
+        <v>256</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>152</v>
@@ -8176,15 +7821,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B70" t="s">
-        <v>390</v>
+        <v>257</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>152</v>
@@ -8254,15 +7899,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B71" t="s">
-        <v>391</v>
+        <v>258</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>152</v>
@@ -8385,15 +8030,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s">
-        <v>392</v>
+        <v>259</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>152</v>
@@ -8463,15 +8108,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s">
-        <v>393</v>
+        <v>260</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>152</v>
@@ -8541,12 +8186,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>394</v>
+        <v>261</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>155</v>
@@ -8619,12 +8264,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>149</v>
       </c>
       <c r="B75" t="s">
-        <v>395</v>
+        <v>262</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>155</v>
@@ -8750,12 +8395,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>149</v>
       </c>
       <c r="B76" t="s">
-        <v>396</v>
+        <v>263</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>155</v>
@@ -8828,12 +8473,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>149</v>
       </c>
       <c r="B77" t="s">
-        <v>397</v>
+        <v>264</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>155</v>
@@ -8959,12 +8604,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>149</v>
       </c>
       <c r="B78" t="s">
-        <v>398</v>
+        <v>265</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>155</v>
@@ -9037,12 +8682,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>399</v>
+        <v>266</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>155</v>
@@ -9168,12 +8813,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>149</v>
       </c>
       <c r="B80" t="s">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>155</v>
@@ -9246,12 +8891,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>401</v>
+        <v>268</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>155</v>
@@ -9377,12 +9022,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>149</v>
       </c>
       <c r="B82" t="s">
-        <v>402</v>
+        <v>269</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>155</v>
@@ -9455,12 +9100,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>149</v>
       </c>
       <c r="B83" t="s">
-        <v>403</v>
+        <v>270</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>155</v>
@@ -9586,12 +9231,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>149</v>
       </c>
       <c r="B84" t="s">
-        <v>404</v>
+        <v>271</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>155</v>
@@ -9664,12 +9309,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>149</v>
       </c>
       <c r="B85" t="s">
-        <v>405</v>
+        <v>272</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>155</v>
@@ -9795,18 +9440,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>43</v>
@@ -9926,15 +9571,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B87" t="s">
-        <v>406</v>
+        <v>273</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>152</v>
@@ -10004,15 +9649,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B88" t="s">
-        <v>407</v>
+        <v>274</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>152</v>
@@ -10082,15 +9727,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B89" t="s">
-        <v>408</v>
+        <v>275</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>152</v>
@@ -10213,15 +9858,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B90" t="s">
-        <v>409</v>
+        <v>276</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>152</v>
@@ -10291,15 +9936,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B91" t="s">
-        <v>410</v>
+        <v>277</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>152</v>
@@ -10369,15 +10014,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B92" t="s">
-        <v>411</v>
+        <v>278</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>152</v>
@@ -10500,15 +10145,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B93" t="s">
-        <v>412</v>
+        <v>279</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>152</v>
@@ -10578,15 +10223,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B94" t="s">
-        <v>413</v>
+        <v>280</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>152</v>
@@ -10656,15 +10301,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B95" t="s">
-        <v>414</v>
+        <v>281</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>152</v>
@@ -10787,15 +10432,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B96" t="s">
-        <v>415</v>
+        <v>282</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>152</v>
@@ -10865,15 +10510,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B97" t="s">
-        <v>416</v>
+        <v>283</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>152</v>
@@ -10943,12 +10588,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>417</v>
+        <v>284</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>156</v>
@@ -11001,12 +10646,12 @@
       <c r="AE98" s="2"/>
       <c r="AX98" s="2"/>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>149</v>
       </c>
       <c r="B99" t="s">
-        <v>418</v>
+        <v>285</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>156</v>
@@ -11059,12 +10704,12 @@
       <c r="AE99" s="2"/>
       <c r="AX99" s="2"/>
     </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>149</v>
       </c>
       <c r="B100" t="s">
-        <v>419</v>
+        <v>286</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>156</v>
@@ -11117,15 +10762,15 @@
       <c r="AE100" s="2"/>
       <c r="AX100" s="2"/>
     </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B101" t="s">
-        <v>420</v>
+        <v>287</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>136</v>
+        <v>361</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>152</v>
@@ -11175,15 +10820,15 @@
       <c r="AE101" s="2"/>
       <c r="AX101" s="2"/>
     </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B102" t="s">
-        <v>421</v>
+        <v>288</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>136</v>
+        <v>361</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>152</v>
@@ -11233,15 +10878,15 @@
       <c r="AE102" s="2"/>
       <c r="AX102" s="2"/>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B103" t="s">
-        <v>422</v>
+        <v>289</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>136</v>
+        <v>361</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>152</v>
@@ -11291,12 +10936,12 @@
       <c r="AE103" s="2"/>
       <c r="AX103" s="2"/>
     </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>149</v>
       </c>
       <c r="B104" t="s">
-        <v>423</v>
+        <v>290</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>157</v>
@@ -11329,23 +10974,23 @@
         <v>54</v>
       </c>
       <c r="AA104" s="1" t="s">
-        <v>310</v>
+        <v>178</v>
       </c>
       <c r="AE104" s="2"/>
       <c r="AX104" s="2"/>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>306</v>
+        <v>174</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>43</v>
@@ -11372,17 +11017,17 @@
         <v>54</v>
       </c>
       <c r="AB105" s="1" t="s">
-        <v>311</v>
+        <v>179</v>
       </c>
       <c r="AE105" s="2"/>
       <c r="AX105" s="2"/>
     </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>149</v>
       </c>
       <c r="B106" t="s">
-        <v>424</v>
+        <v>291</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>159</v>
@@ -11418,17 +11063,17 @@
         <v>54</v>
       </c>
       <c r="AC106" s="1" t="s">
-        <v>312</v>
+        <v>180</v>
       </c>
       <c r="AE106" s="2"/>
       <c r="AX106" s="2"/>
     </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>149</v>
       </c>
       <c r="B107" t="s">
-        <v>425</v>
+        <v>292</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>160</v>
@@ -11461,20 +11106,20 @@
         <v>54</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>311</v>
+        <v>179</v>
       </c>
       <c r="AC107" s="1" t="s">
-        <v>312</v>
+        <v>180</v>
       </c>
       <c r="AE107" s="2"/>
       <c r="AX107" s="2"/>
     </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>149</v>
       </c>
       <c r="B108" t="s">
-        <v>426</v>
+        <v>293</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>157</v>
@@ -11507,23 +11152,23 @@
         <v>107</v>
       </c>
       <c r="AA108" s="1" t="s">
-        <v>310</v>
+        <v>178</v>
       </c>
       <c r="AE108" s="2"/>
       <c r="AX108" s="2"/>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>307</v>
+        <v>175</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>43</v>
@@ -11550,17 +11195,17 @@
         <v>107</v>
       </c>
       <c r="AB109" s="1" t="s">
-        <v>311</v>
+        <v>179</v>
       </c>
       <c r="AE109" s="2"/>
       <c r="AX109" s="2"/>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>149</v>
       </c>
       <c r="B110" t="s">
-        <v>427</v>
+        <v>294</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>159</v>
@@ -11596,17 +11241,17 @@
         <v>107</v>
       </c>
       <c r="AC110" s="1" t="s">
-        <v>312</v>
+        <v>180</v>
       </c>
       <c r="AE110" s="2"/>
       <c r="AX110" s="2"/>
     </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>149</v>
       </c>
       <c r="B111" t="s">
-        <v>428</v>
+        <v>295</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>160</v>
@@ -11639,20 +11284,20 @@
         <v>107</v>
       </c>
       <c r="AB111" s="1" t="s">
-        <v>311</v>
+        <v>179</v>
       </c>
       <c r="AC111" s="1" t="s">
-        <v>312</v>
+        <v>180</v>
       </c>
       <c r="AE111" s="2"/>
       <c r="AX111" s="2"/>
     </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>149</v>
       </c>
       <c r="B112" t="s">
-        <v>429</v>
+        <v>296</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>157</v>
@@ -11685,23 +11330,23 @@
         <v>119</v>
       </c>
       <c r="AA112" s="1" t="s">
-        <v>310</v>
+        <v>178</v>
       </c>
       <c r="AE112" s="2"/>
       <c r="AX112" s="2"/>
     </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>308</v>
+        <v>176</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>43</v>
@@ -11728,17 +11373,17 @@
         <v>119</v>
       </c>
       <c r="AB113" s="1" t="s">
-        <v>311</v>
+        <v>179</v>
       </c>
       <c r="AE113" s="2"/>
       <c r="AX113" s="2"/>
     </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>149</v>
       </c>
       <c r="B114" t="s">
-        <v>430</v>
+        <v>297</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>159</v>
@@ -11774,17 +11419,17 @@
         <v>119</v>
       </c>
       <c r="AC114" s="1" t="s">
-        <v>312</v>
+        <v>180</v>
       </c>
       <c r="AE114" s="2"/>
       <c r="AX114" s="2"/>
     </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>149</v>
       </c>
       <c r="B115" t="s">
-        <v>431</v>
+        <v>298</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>160</v>
@@ -11817,20 +11462,20 @@
         <v>119</v>
       </c>
       <c r="AB115" s="1" t="s">
-        <v>311</v>
+        <v>179</v>
       </c>
       <c r="AC115" s="1" t="s">
-        <v>312</v>
+        <v>180</v>
       </c>
       <c r="AE115" s="2"/>
       <c r="AX115" s="2"/>
     </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B116" t="s">
-        <v>432</v>
+        <v>299</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>161</v>
@@ -11945,12 +11590,12 @@
       </c>
       <c r="AX116" s="2"/>
     </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B117" t="s">
-        <v>433</v>
+        <v>300</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>161</v>
@@ -12065,12 +11710,12 @@
       </c>
       <c r="AX117" s="2"/>
     </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B118" t="s">
-        <v>434</v>
+        <v>301</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>161</v>
@@ -12185,12 +11830,12 @@
       </c>
       <c r="AX118" s="2"/>
     </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B119" t="s">
-        <v>435</v>
+        <v>302</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>161</v>
@@ -12305,12 +11950,12 @@
       </c>
       <c r="AX119" s="2"/>
     </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B120" t="s">
-        <v>436</v>
+        <v>303</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>161</v>
@@ -12425,12 +12070,12 @@
       </c>
       <c r="AX120" s="2"/>
     </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B121" t="s">
-        <v>437</v>
+        <v>304</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>161</v>
@@ -12545,12 +12190,12 @@
       </c>
       <c r="AX121" s="2"/>
     </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B122" t="s">
-        <v>438</v>
+        <v>305</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>161</v>
@@ -12665,12 +12310,12 @@
       </c>
       <c r="AX122" s="2"/>
     </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B123" t="s">
-        <v>439</v>
+        <v>306</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>161</v>
@@ -12785,12 +12430,12 @@
       </c>
       <c r="AX123" s="2"/>
     </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B124" t="s">
-        <v>440</v>
+        <v>307</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>161</v>
@@ -12905,12 +12550,12 @@
       </c>
       <c r="AX124" s="2"/>
     </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B125" t="s">
-        <v>441</v>
+        <v>308</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>161</v>
@@ -13025,12 +12670,12 @@
       </c>
       <c r="AX125" s="2"/>
     </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B126" t="s">
-        <v>442</v>
+        <v>309</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>161</v>
@@ -13145,12 +12790,12 @@
       </c>
       <c r="AX126" s="2"/>
     </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B127" t="s">
-        <v>443</v>
+        <v>310</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>161</v>
@@ -13265,12 +12910,12 @@
       </c>
       <c r="AX127" s="2"/>
     </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>149</v>
       </c>
       <c r="B128" t="s">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>170</v>
@@ -13385,12 +13030,12 @@
       </c>
       <c r="AX128" s="2"/>
     </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>149</v>
       </c>
       <c r="B129" t="s">
-        <v>445</v>
+        <v>312</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>170</v>
@@ -13505,12 +13150,12 @@
       </c>
       <c r="AX129" s="2"/>
     </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>149</v>
       </c>
       <c r="B130" t="s">
-        <v>446</v>
+        <v>313</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>170</v>
@@ -13625,12 +13270,12 @@
       </c>
       <c r="AX130" s="2"/>
     </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>149</v>
       </c>
       <c r="B131" t="s">
-        <v>447</v>
+        <v>314</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>170</v>
@@ -13745,12 +13390,12 @@
       </c>
       <c r="AX131" s="2"/>
     </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>149</v>
       </c>
       <c r="B132" t="s">
-        <v>448</v>
+        <v>315</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>170</v>
@@ -13865,12 +13510,12 @@
       </c>
       <c r="AX132" s="2"/>
     </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>149</v>
       </c>
       <c r="B133" t="s">
-        <v>449</v>
+        <v>316</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>170</v>
@@ -13985,12 +13630,12 @@
       </c>
       <c r="AX133" s="2"/>
     </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>149</v>
       </c>
       <c r="B134" t="s">
-        <v>450</v>
+        <v>317</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>170</v>
@@ -14105,12 +13750,12 @@
       </c>
       <c r="AX134" s="2"/>
     </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>149</v>
       </c>
       <c r="B135" t="s">
-        <v>451</v>
+        <v>318</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>170</v>
@@ -14225,12 +13870,12 @@
       </c>
       <c r="AX135" s="2"/>
     </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>149</v>
       </c>
       <c r="B136" t="s">
-        <v>452</v>
+        <v>319</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>170</v>
@@ -14345,12 +13990,12 @@
       </c>
       <c r="AX136" s="2"/>
     </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>149</v>
       </c>
       <c r="B137" t="s">
-        <v>453</v>
+        <v>320</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>170</v>
@@ -14465,12 +14110,12 @@
       </c>
       <c r="AX137" s="2"/>
     </row>
-    <row r="138" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>454</v>
+        <v>321</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>170</v>
@@ -14585,12 +14230,12 @@
       </c>
       <c r="AX138" s="2"/>
     </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>149</v>
       </c>
       <c r="B139" t="s">
-        <v>455</v>
+        <v>322</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>170</v>
@@ -14705,15 +14350,15 @@
       </c>
       <c r="AX139" s="2"/>
     </row>
-    <row r="140" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>149</v>
       </c>
       <c r="B140" t="s">
-        <v>456</v>
+        <v>323</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>152</v>
@@ -14725,7 +14370,7 @@
         <v>44</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>45</v>
@@ -14740,10 +14385,10 @@
         <v>99</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P140" s="1" t="s">
         <v>49</v>
@@ -14825,15 +14470,15 @@
       </c>
       <c r="AX140" s="2"/>
     </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>457</v>
+        <v>324</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>152</v>
@@ -14845,7 +14490,7 @@
         <v>44</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>45</v>
@@ -14860,10 +14505,10 @@
         <v>122</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P141" s="1" t="s">
         <v>49</v>
@@ -14945,15 +14590,15 @@
       </c>
       <c r="AX141" s="2"/>
     </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>458</v>
+        <v>325</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>152</v>
@@ -14965,7 +14610,7 @@
         <v>44</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>45</v>
@@ -14980,10 +14625,10 @@
         <v>123</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P142" s="1" t="s">
         <v>49</v>
@@ -15065,15 +14710,15 @@
       </c>
       <c r="AX142" s="2"/>
     </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>459</v>
+        <v>326</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>152</v>
@@ -15085,7 +14730,7 @@
         <v>44</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>45</v>
@@ -15100,10 +14745,10 @@
         <v>99</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P143" s="1" t="s">
         <v>49</v>
@@ -15185,15 +14830,15 @@
       </c>
       <c r="AX143" s="2"/>
     </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>149</v>
       </c>
       <c r="B144" t="s">
-        <v>460</v>
+        <v>327</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>152</v>
@@ -15205,7 +14850,7 @@
         <v>44</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>45</v>
@@ -15220,10 +14865,10 @@
         <v>122</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P144" s="1" t="s">
         <v>49</v>
@@ -15305,15 +14950,15 @@
       </c>
       <c r="AX144" s="2"/>
     </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>149</v>
       </c>
       <c r="B145" t="s">
-        <v>461</v>
+        <v>328</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>152</v>
@@ -15325,7 +14970,7 @@
         <v>44</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>45</v>
@@ -15340,10 +14985,10 @@
         <v>123</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P145" s="1" t="s">
         <v>49</v>
@@ -15425,15 +15070,15 @@
       </c>
       <c r="AX145" s="2"/>
     </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>462</v>
+        <v>329</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>152</v>
@@ -15445,7 +15090,7 @@
         <v>44</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>45</v>
@@ -15460,10 +15105,10 @@
         <v>99</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P146" s="1" t="s">
         <v>49</v>
@@ -15545,15 +15190,15 @@
       </c>
       <c r="AX146" s="2"/>
     </row>
-    <row r="147" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>463</v>
+        <v>330</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>152</v>
@@ -15565,7 +15210,7 @@
         <v>44</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>45</v>
@@ -15580,10 +15225,10 @@
         <v>122</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P147" s="1" t="s">
         <v>49</v>
@@ -15665,15 +15310,15 @@
       </c>
       <c r="AX147" s="2"/>
     </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>464</v>
+        <v>331</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>152</v>
@@ -15685,7 +15330,7 @@
         <v>44</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>45</v>
@@ -15700,10 +15345,10 @@
         <v>123</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P148" s="1" t="s">
         <v>49</v>
@@ -15785,15 +15430,15 @@
       </c>
       <c r="AX148" s="2"/>
     </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>465</v>
+        <v>332</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>152</v>
@@ -15805,7 +15450,7 @@
         <v>44</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>45</v>
@@ -15820,10 +15465,10 @@
         <v>99</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P149" s="1" t="s">
         <v>49</v>
@@ -15905,15 +15550,15 @@
       </c>
       <c r="AX149" s="2"/>
     </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>466</v>
+        <v>333</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>152</v>
@@ -15925,7 +15570,7 @@
         <v>44</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>45</v>
@@ -15940,10 +15585,10 @@
         <v>122</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P150" s="1" t="s">
         <v>49</v>
@@ -16025,15 +15670,15 @@
       </c>
       <c r="AX150" s="2"/>
     </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>467</v>
+        <v>334</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>152</v>
@@ -16045,7 +15690,7 @@
         <v>44</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>45</v>
@@ -16060,10 +15705,10 @@
         <v>123</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P151" s="1" t="s">
         <v>49</v>
@@ -16145,15 +15790,15 @@
       </c>
       <c r="AX151" s="2"/>
     </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>468</v>
+        <v>335</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>152</v>
@@ -16165,7 +15810,7 @@
         <v>44</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>45</v>
@@ -16180,10 +15825,10 @@
         <v>99</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P152" s="1" t="s">
         <v>49</v>
@@ -16265,15 +15910,15 @@
       </c>
       <c r="AX152" s="2"/>
     </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>469</v>
+        <v>336</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>152</v>
@@ -16285,7 +15930,7 @@
         <v>44</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>45</v>
@@ -16300,10 +15945,10 @@
         <v>122</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P153" s="1" t="s">
         <v>49</v>
@@ -16385,15 +16030,15 @@
       </c>
       <c r="AX153" s="2"/>
     </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>149</v>
       </c>
       <c r="B154" t="s">
-        <v>470</v>
+        <v>337</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>152</v>
@@ -16405,7 +16050,7 @@
         <v>44</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>45</v>
@@ -16420,10 +16065,10 @@
         <v>123</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P154" s="1" t="s">
         <v>49</v>
@@ -16505,15 +16150,15 @@
       </c>
       <c r="AX154" s="2"/>
     </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>149</v>
       </c>
       <c r="B155" t="s">
-        <v>471</v>
+        <v>338</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>152</v>
@@ -16525,7 +16170,7 @@
         <v>44</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>45</v>
@@ -16540,10 +16185,10 @@
         <v>99</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P155" s="1" t="s">
         <v>49</v>
@@ -16625,15 +16270,15 @@
       </c>
       <c r="AX155" s="2"/>
     </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>149</v>
       </c>
       <c r="B156" t="s">
-        <v>472</v>
+        <v>339</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>152</v>
@@ -16645,7 +16290,7 @@
         <v>44</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>45</v>
@@ -16660,10 +16305,10 @@
         <v>122</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P156" s="1" t="s">
         <v>49</v>
@@ -16745,15 +16390,15 @@
       </c>
       <c r="AX156" s="2"/>
     </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>149</v>
       </c>
       <c r="B157" t="s">
-        <v>473</v>
+        <v>340</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>152</v>
@@ -16765,7 +16410,7 @@
         <v>44</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>45</v>
@@ -16780,10 +16425,10 @@
         <v>123</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P157" s="1" t="s">
         <v>49</v>
@@ -16865,15 +16510,15 @@
       </c>
       <c r="AX157" s="2"/>
     </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>149</v>
       </c>
       <c r="B158" t="s">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>152</v>
@@ -16885,7 +16530,7 @@
         <v>44</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>45</v>
@@ -16900,10 +16545,10 @@
         <v>99</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P158" s="1" t="s">
         <v>49</v>
@@ -16985,15 +16630,15 @@
       </c>
       <c r="AX158" s="2"/>
     </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>149</v>
       </c>
       <c r="B159" t="s">
-        <v>475</v>
+        <v>342</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>152</v>
@@ -17005,7 +16650,7 @@
         <v>44</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>45</v>
@@ -17020,10 +16665,10 @@
         <v>122</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P159" s="1" t="s">
         <v>49</v>
@@ -17105,15 +16750,15 @@
       </c>
       <c r="AX159" s="2"/>
     </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>149</v>
       </c>
       <c r="B160" t="s">
-        <v>476</v>
+        <v>343</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>152</v>
@@ -17125,7 +16770,7 @@
         <v>44</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>45</v>
@@ -17140,10 +16785,10 @@
         <v>123</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P160" s="1" t="s">
         <v>49</v>
@@ -17225,15 +16870,15 @@
       </c>
       <c r="AX160" s="2"/>
     </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>149</v>
       </c>
       <c r="B161" t="s">
-        <v>477</v>
+        <v>344</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>152</v>
@@ -17245,7 +16890,7 @@
         <v>44</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>45</v>
@@ -17260,10 +16905,10 @@
         <v>99</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P161" s="1" t="s">
         <v>49</v>
@@ -17345,15 +16990,15 @@
       </c>
       <c r="AX161" s="2"/>
     </row>
-    <row r="162" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>149</v>
       </c>
       <c r="B162" t="s">
-        <v>478</v>
+        <v>345</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>152</v>
@@ -17365,7 +17010,7 @@
         <v>44</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>45</v>
@@ -17380,10 +17025,10 @@
         <v>122</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P162" s="1" t="s">
         <v>49</v>
@@ -17465,15 +17110,15 @@
       </c>
       <c r="AX162" s="2"/>
     </row>
-    <row r="163" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>149</v>
       </c>
       <c r="B163" t="s">
-        <v>479</v>
+        <v>346</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>152</v>
@@ -17485,7 +17130,7 @@
         <v>44</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>45</v>
@@ -17500,10 +17145,10 @@
         <v>123</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P163" s="1" t="s">
         <v>49</v>
@@ -17585,15 +17230,15 @@
       </c>
       <c r="AX163" s="2"/>
     </row>
-    <row r="164" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>149</v>
       </c>
       <c r="B164" t="s">
-        <v>480</v>
+        <v>347</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>152</v>
@@ -17605,13 +17250,13 @@
         <v>44</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>47</v>
@@ -17620,10 +17265,10 @@
         <v>99</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P164" s="1" t="s">
         <v>49</v>
@@ -17705,15 +17350,15 @@
       </c>
       <c r="AX164" s="2"/>
     </row>
-    <row r="165" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>149</v>
       </c>
       <c r="B165" t="s">
-        <v>481</v>
+        <v>348</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>152</v>
@@ -17725,13 +17370,13 @@
         <v>44</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>47</v>
@@ -17740,10 +17385,10 @@
         <v>122</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P165" s="1" t="s">
         <v>49</v>
@@ -17825,15 +17470,15 @@
       </c>
       <c r="AX165" s="2"/>
     </row>
-    <row r="166" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>149</v>
       </c>
       <c r="B166" t="s">
-        <v>482</v>
+        <v>349</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>152</v>
@@ -17845,13 +17490,13 @@
         <v>44</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>47</v>
@@ -17860,10 +17505,10 @@
         <v>123</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P166" s="1" t="s">
         <v>49</v>
@@ -17945,15 +17590,15 @@
       </c>
       <c r="AX166" s="2"/>
     </row>
-    <row r="167" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>150</v>
       </c>
       <c r="B167" t="s">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>152</v>
@@ -17965,13 +17610,13 @@
         <v>44</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>47</v>
@@ -17980,10 +17625,10 @@
         <v>99</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P167" s="1" t="s">
         <v>49</v>
@@ -18065,15 +17710,15 @@
       </c>
       <c r="AX167" s="2"/>
     </row>
-    <row r="168" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>150</v>
       </c>
       <c r="B168" t="s">
-        <v>484</v>
+        <v>351</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>152</v>
@@ -18085,13 +17730,13 @@
         <v>44</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>47</v>
@@ -18100,10 +17745,10 @@
         <v>122</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P168" s="1" t="s">
         <v>49</v>
@@ -18185,15 +17830,15 @@
       </c>
       <c r="AX168" s="2"/>
     </row>
-    <row r="169" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>150</v>
       </c>
       <c r="B169" t="s">
-        <v>485</v>
+        <v>352</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>152</v>
@@ -18205,13 +17850,13 @@
         <v>44</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>47</v>
@@ -18220,10 +17865,10 @@
         <v>123</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P169" s="1" t="s">
         <v>49</v>
@@ -18305,15 +17950,15 @@
       </c>
       <c r="AX169" s="2"/>
     </row>
-    <row r="170" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>149</v>
       </c>
       <c r="B170" t="s">
-        <v>486</v>
+        <v>353</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>152</v>
@@ -18325,13 +17970,13 @@
         <v>44</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>47</v>
@@ -18340,10 +17985,10 @@
         <v>99</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P170" s="1" t="s">
         <v>49</v>
@@ -18425,15 +18070,15 @@
       </c>
       <c r="AX170" s="2"/>
     </row>
-    <row r="171" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>149</v>
       </c>
       <c r="B171" t="s">
-        <v>487</v>
+        <v>354</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>152</v>
@@ -18445,13 +18090,13 @@
         <v>44</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>47</v>
@@ -18460,10 +18105,10 @@
         <v>122</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P171" s="1" t="s">
         <v>49</v>
@@ -18545,15 +18190,15 @@
       </c>
       <c r="AX171" s="2"/>
     </row>
-    <row r="172" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>149</v>
       </c>
       <c r="B172" t="s">
-        <v>488</v>
+        <v>355</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>152</v>
@@ -18565,13 +18210,13 @@
         <v>44</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>47</v>
@@ -18580,10 +18225,10 @@
         <v>123</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P172" s="1" t="s">
         <v>49</v>
@@ -18665,15 +18310,15 @@
       </c>
       <c r="AX172" s="2"/>
     </row>
-    <row r="173" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>149</v>
       </c>
       <c r="B173" t="s">
-        <v>489</v>
+        <v>356</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>152</v>
@@ -18685,13 +18330,13 @@
         <v>44</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>47</v>
@@ -18700,10 +18345,10 @@
         <v>99</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P173" s="1" t="s">
         <v>49</v>
@@ -18785,15 +18430,15 @@
       </c>
       <c r="AX173" s="2"/>
     </row>
-    <row r="174" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>149</v>
       </c>
       <c r="B174" t="s">
-        <v>490</v>
+        <v>357</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>152</v>
@@ -18805,13 +18450,13 @@
         <v>44</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>47</v>
@@ -18820,10 +18465,10 @@
         <v>122</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P174" s="1" t="s">
         <v>49</v>
@@ -18905,15 +18550,15 @@
       </c>
       <c r="AX174" s="2"/>
     </row>
-    <row r="175" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>149</v>
       </c>
       <c r="B175" t="s">
-        <v>491</v>
+        <v>358</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>152</v>
@@ -18925,13 +18570,13 @@
         <v>44</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>47</v>
@@ -18940,10 +18585,10 @@
         <v>123</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="P175" s="1" t="s">
         <v>49</v>
@@ -19026,10 +18671,10 @@
       <c r="AX175" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G139" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}"/>
+  <autoFilter ref="G1:G175" xr:uid="{01D907F6-7637-41F5-9F0A-BDDAA86240AA}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -19037,73 +18682,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E373AFE3-95E6-4012-963C-FB304E9ADB66}">
-  <dimension ref="A1:AX115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E373AFE3-95E6-4012-963C-FB304E9ADB66}">
+  <dimension ref="A1:AW115"/>
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="26.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="32.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="22.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="9.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="5.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="24.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="9.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="115.42578125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="75.5703125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="40.5703125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="23.85546875" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="13.5703125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="36" max="44" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
-    <col min="46" max="47" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
-    <col min="48" max="48" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="11.5703125" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
-    <col min="60" max="61" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="16.42578125" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="65" max="16384" style="1" width="26.7109375" collapsed="true"/>
+    <col min="1" max="1" width="9.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7265625" style="1" collapsed="1"/>
+    <col min="3" max="3" width="32" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="8.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="4.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="8.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="9.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="115.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="75.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="40.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="14.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="23.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="13.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="14.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="44" width="10.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="11.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="47" width="13.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="12.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="15" style="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="14.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="9.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="11.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="15.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="14.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="11.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="18.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="14.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="61" width="15.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="16.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="10.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="16384" width="26.7265625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -19252,7 +18897,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>147</v>
       </c>
@@ -19366,7 +19011,7 @@
       </c>
       <c r="AW2" s="2"/>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>147</v>
       </c>
@@ -19427,7 +19072,7 @@
       <c r="AD3" s="2"/>
       <c r="AW3" s="2"/>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>147</v>
       </c>
@@ -19488,7 +19133,7 @@
       <c r="AD4" s="2"/>
       <c r="AW4" s="2"/>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>147</v>
       </c>
@@ -19602,7 +19247,7 @@
       </c>
       <c r="AW5" s="2"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>147</v>
       </c>
@@ -19663,7 +19308,7 @@
       <c r="AD6" s="2"/>
       <c r="AW6" s="2"/>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>147</v>
       </c>
@@ -19724,7 +19369,7 @@
       <c r="AD7" s="2"/>
       <c r="AW7" s="2"/>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>147</v>
       </c>
@@ -19838,7 +19483,7 @@
       </c>
       <c r="AW8" s="2"/>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>147</v>
       </c>
@@ -19899,7 +19544,7 @@
       <c r="AD9" s="2"/>
       <c r="AW9" s="2"/>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>147</v>
       </c>
@@ -19960,7 +19605,7 @@
       <c r="AD10" s="2"/>
       <c r="AW10" s="2"/>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>147</v>
       </c>
@@ -20074,7 +19719,7 @@
       </c>
       <c r="AW11" s="2"/>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
@@ -20135,7 +19780,7 @@
       <c r="AD12" s="2"/>
       <c r="AW12" s="2"/>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>147</v>
       </c>
@@ -20196,7 +19841,7 @@
       <c r="AD13" s="2"/>
       <c r="AW13" s="2"/>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>147</v>
       </c>
@@ -20310,7 +19955,7 @@
       </c>
       <c r="AW14" s="2"/>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>147</v>
       </c>
@@ -20371,7 +20016,7 @@
       <c r="AD15" s="2"/>
       <c r="AW15" s="2"/>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>147</v>
       </c>
@@ -20432,7 +20077,7 @@
       <c r="AD16" s="2"/>
       <c r="AW16" s="2"/>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>147</v>
       </c>
@@ -20546,7 +20191,7 @@
       </c>
       <c r="AW17" s="2"/>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>147</v>
       </c>
@@ -20607,7 +20252,7 @@
       <c r="AD18" s="2"/>
       <c r="AW18" s="2"/>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>147</v>
       </c>
@@ -20668,7 +20313,7 @@
       <c r="AD19" s="2"/>
       <c r="AW19" s="2"/>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>147</v>
       </c>
@@ -20782,7 +20427,7 @@
       </c>
       <c r="AW20" s="2"/>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>147</v>
       </c>
@@ -20843,7 +20488,7 @@
       <c r="AD21" s="2"/>
       <c r="AW21" s="2"/>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>147</v>
       </c>
@@ -20904,7 +20549,7 @@
       <c r="AD22" s="2"/>
       <c r="AW22" s="2"/>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>147</v>
       </c>
@@ -21018,7 +20663,7 @@
       </c>
       <c r="AW23" s="2"/>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>147</v>
       </c>
@@ -21079,7 +20724,7 @@
       <c r="AD24" s="2"/>
       <c r="AW24" s="2"/>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>147</v>
       </c>
@@ -21140,7 +20785,7 @@
       <c r="AD25" s="2"/>
       <c r="AW25" s="2"/>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>147</v>
       </c>
@@ -21254,7 +20899,7 @@
       </c>
       <c r="AW26" s="2"/>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>147</v>
       </c>
@@ -21315,7 +20960,7 @@
       <c r="AD27" s="2"/>
       <c r="AW27" s="2"/>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>147</v>
       </c>
@@ -21376,7 +21021,7 @@
       <c r="AD28" s="2"/>
       <c r="AW28" s="2"/>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>147</v>
       </c>
@@ -21490,7 +21135,7 @@
       </c>
       <c r="AW29" s="2"/>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>147</v>
       </c>
@@ -21551,7 +21196,7 @@
       <c r="AD30" s="2"/>
       <c r="AW30" s="2"/>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>147</v>
       </c>
@@ -21612,7 +21257,7 @@
       <c r="AD31" s="2"/>
       <c r="AW31" s="2"/>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>147</v>
       </c>
@@ -21726,7 +21371,7 @@
       </c>
       <c r="AW32" s="2"/>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>147</v>
       </c>
@@ -21787,7 +21432,7 @@
       <c r="AD33" s="2"/>
       <c r="AW33" s="2"/>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>147</v>
       </c>
@@ -21848,7 +21493,7 @@
       <c r="AD34" s="2"/>
       <c r="AW34" s="2"/>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
@@ -21962,7 +21607,7 @@
       </c>
       <c r="AW35" s="2"/>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>147</v>
       </c>
@@ -22023,7 +21668,7 @@
       <c r="AD36" s="2"/>
       <c r="AW36" s="2"/>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>147</v>
       </c>
@@ -22084,7 +21729,7 @@
       <c r="AD37" s="2"/>
       <c r="AW37" s="2"/>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>147</v>
       </c>
@@ -22198,7 +21843,7 @@
       </c>
       <c r="AW38" s="2"/>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>147</v>
       </c>
@@ -22259,7 +21904,7 @@
       <c r="AD39" s="2"/>
       <c r="AW39" s="2"/>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>147</v>
       </c>
@@ -22320,7 +21965,7 @@
       <c r="AD40" s="2"/>
       <c r="AW40" s="2"/>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>147</v>
       </c>
@@ -22434,7 +22079,7 @@
       </c>
       <c r="AW41" s="2"/>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>147</v>
       </c>
@@ -22495,7 +22140,7 @@
       <c r="AD42" s="2"/>
       <c r="AW42" s="2"/>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>147</v>
       </c>
@@ -22556,7 +22201,7 @@
       <c r="AD43" s="2"/>
       <c r="AW43" s="2"/>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>147</v>
       </c>
@@ -22670,7 +22315,7 @@
       </c>
       <c r="AW44" s="2"/>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>147</v>
       </c>
@@ -22731,7 +22376,7 @@
       <c r="AD45" s="2"/>
       <c r="AW45" s="2"/>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>147</v>
       </c>
@@ -22792,7 +22437,7 @@
       <c r="AD46" s="2"/>
       <c r="AW46" s="2"/>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>147</v>
       </c>
@@ -22906,7 +22551,7 @@
       </c>
       <c r="AW47" s="2"/>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>147</v>
       </c>
@@ -22967,7 +22612,7 @@
       <c r="AD48" s="2"/>
       <c r="AW48" s="2"/>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
@@ -23028,7 +22673,7 @@
       <c r="AD49" s="2"/>
       <c r="AW49" s="2"/>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>147</v>
       </c>
@@ -23103,7 +22748,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>147</v>
       </c>
@@ -23231,7 +22876,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>147</v>
       </c>
@@ -23306,7 +22951,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>147</v>
       </c>
@@ -23434,7 +23079,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>147</v>
       </c>
@@ -23509,7 +23154,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>147</v>
       </c>
@@ -23637,7 +23282,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>147</v>
       </c>
@@ -23712,7 +23357,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>147</v>
       </c>
@@ -23840,7 +23485,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>147</v>
       </c>
@@ -23915,7 +23560,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>147</v>
       </c>
@@ -24043,7 +23688,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>147</v>
       </c>
@@ -24118,7 +23763,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>147</v>
       </c>
@@ -24246,7 +23891,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>147</v>
       </c>
@@ -24374,7 +24019,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>147</v>
       </c>
@@ -24449,7 +24094,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>147</v>
       </c>
@@ -24524,7 +24169,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>147</v>
       </c>
@@ -24652,7 +24297,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>147</v>
       </c>
@@ -24727,7 +24372,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>147</v>
       </c>
@@ -24802,7 +24447,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>147</v>
       </c>
@@ -24930,7 +24575,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>147</v>
       </c>
@@ -25005,7 +24650,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>147</v>
       </c>
@@ -25080,7 +24725,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>147</v>
       </c>
@@ -25208,7 +24853,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>147</v>
       </c>
@@ -25283,7 +24928,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>147</v>
       </c>
@@ -25358,7 +25003,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>147</v>
       </c>
@@ -25433,7 +25078,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>147</v>
       </c>
@@ -25561,7 +25206,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>147</v>
       </c>
@@ -25636,7 +25281,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>147</v>
       </c>
@@ -25764,7 +25409,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>147</v>
       </c>
@@ -25839,7 +25484,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>147</v>
       </c>
@@ -25967,7 +25612,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>147</v>
       </c>
@@ -26042,7 +25687,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>147</v>
       </c>
@@ -26170,7 +25815,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>147</v>
       </c>
@@ -26245,7 +25890,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>147</v>
       </c>
@@ -26373,7 +26018,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>147</v>
       </c>
@@ -26448,7 +26093,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>147</v>
       </c>
@@ -26576,7 +26221,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>147</v>
       </c>
@@ -26704,7 +26349,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>147</v>
       </c>
@@ -26779,7 +26424,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>147</v>
       </c>
@@ -26854,7 +26499,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>147</v>
       </c>
@@ -26982,7 +26627,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>147</v>
       </c>
@@ -27057,7 +26702,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>147</v>
       </c>
@@ -27132,7 +26777,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>147</v>
       </c>
@@ -27260,7 +26905,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>147</v>
       </c>
@@ -27335,7 +26980,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>147</v>
       </c>
@@ -27410,7 +27055,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>147</v>
       </c>
@@ -27538,7 +27183,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>147</v>
       </c>
@@ -27613,7 +27258,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>147</v>
       </c>
@@ -27688,7 +27333,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>147</v>
       </c>
@@ -27743,7 +27388,7 @@
       <c r="AD98" s="2"/>
       <c r="AW98" s="2"/>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>147</v>
       </c>
@@ -27798,7 +27443,7 @@
       <c r="AD99" s="2"/>
       <c r="AW99" s="2"/>
     </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>147</v>
       </c>
@@ -27853,7 +27498,7 @@
       <c r="AD100" s="2"/>
       <c r="AW100" s="2"/>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>147</v>
       </c>
@@ -27908,7 +27553,7 @@
       <c r="AD101" s="2"/>
       <c r="AW101" s="2"/>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>147</v>
       </c>
@@ -27963,7 +27608,7 @@
       <c r="AD102" s="2"/>
       <c r="AW102" s="2"/>
     </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>147</v>
       </c>
@@ -28018,7 +27663,7 @@
       <c r="AD103" s="2"/>
       <c r="AW103" s="2"/>
     </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>147</v>
       </c>
@@ -28058,7 +27703,7 @@
       <c r="AD104" s="2"/>
       <c r="AW104" s="2"/>
     </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>147</v>
       </c>
@@ -28098,7 +27743,7 @@
       <c r="AD105" s="2"/>
       <c r="AW105" s="2"/>
     </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>147</v>
       </c>
@@ -28141,7 +27786,7 @@
       <c r="AD106" s="2"/>
       <c r="AW106" s="2"/>
     </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>147</v>
       </c>
@@ -28184,7 +27829,7 @@
       <c r="AD107" s="2"/>
       <c r="AW107" s="2"/>
     </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>147</v>
       </c>
@@ -28224,7 +27869,7 @@
       <c r="AD108" s="2"/>
       <c r="AW108" s="2"/>
     </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>147</v>
       </c>
@@ -28264,7 +27909,7 @@
       <c r="AD109" s="2"/>
       <c r="AW109" s="2"/>
     </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>147</v>
       </c>
@@ -28307,7 +27952,7 @@
       <c r="AD110" s="2"/>
       <c r="AW110" s="2"/>
     </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>147</v>
       </c>
@@ -28350,7 +27995,7 @@
       <c r="AD111" s="2"/>
       <c r="AW111" s="2"/>
     </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>147</v>
       </c>
@@ -28390,7 +28035,7 @@
       <c r="AD112" s="2"/>
       <c r="AW112" s="2"/>
     </row>
-    <row r="113" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>147</v>
       </c>
@@ -28430,7 +28075,7 @@
       <c r="AD113" s="2"/>
       <c r="AW113" s="2"/>
     </row>
-    <row r="114" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>147</v>
       </c>
@@ -28473,7 +28118,7 @@
       <c r="AD114" s="2"/>
       <c r="AW114" s="2"/>
     </row>
-    <row r="115" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>147</v>
       </c>
@@ -28517,7 +28162,7 @@
       <c r="AW115" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -28525,19 +28170,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E51003-E6AF-4A46-8DE2-C02177084CDE}">
-  <dimension ref="A1:BT1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E51003-E6AF-4A46-8DE2-C02177084CDE}">
+  <dimension ref="A1:BS1"/>
   <sheetViews>
     <sheetView topLeftCell="BC1" workbookViewId="0">
       <selection activeCell="BE29" sqref="BE29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" style="1" width="20.42578125" collapsed="true"/>
+    <col min="1" max="16384" width="20.453125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28753,8 +28398,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/VLinkCCTestData.xlsx
+++ b/KatalonData/VLinkCCTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48884E5-D02E-4104-B635-AED331BE91A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A97E742-F5E4-47E1-8936-0F55E9478DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3945" windowWidth="29040" windowHeight="15840" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8C2F89C9-A10B-4559-913F-0962936A94D9}"/>
   </bookViews>
   <sheets>
     <sheet name="CCSaleData" sheetId="1" r:id="rId1"/>
